--- a/RAB AKSATA.xlsx
+++ b/RAB AKSATA.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\semester 6\7. workshop proyek sistem informasi\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\semester 6\0. projek\Aksata-Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7800" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7800"/>
   </bookViews>
   <sheets>
     <sheet name="RUMUSAN BIAYA ANGGARAN BIAYA" sheetId="1" r:id="rId1"/>
@@ -776,18 +776,6 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -796,18 +784,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -868,8 +844,32 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1088,7 +1088,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1118,10 +1118,10 @@
       </c>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="E3" s="41" t="s">
+      <c r="E3" s="73" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="42"/>
+      <c r="F3" s="74"/>
       <c r="G3" s="1" t="s">
         <v>3</v>
       </c>
@@ -2505,7 +2505,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:G1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
@@ -2521,12 +2521,12 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="D2" s="43" t="s">
+      <c r="D2" s="75" t="s">
         <v>39</v>
       </c>
-      <c r="E2" s="44"/>
-      <c r="F2" s="44"/>
-      <c r="G2" s="45"/>
+      <c r="E2" s="76"/>
+      <c r="F2" s="76"/>
+      <c r="G2" s="77"/>
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
@@ -3664,7 +3664,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BM1000"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
@@ -3718,15 +3718,15 @@
       <c r="C2" s="30" t="s">
         <v>44</v>
       </c>
-      <c r="D2" s="83" t="s">
+      <c r="D2" s="78" t="s">
         <v>45</v>
       </c>
-      <c r="E2" s="83"/>
-      <c r="F2" s="83"/>
-      <c r="G2" s="83"/>
-      <c r="H2" s="83"/>
-      <c r="I2" s="83"/>
-      <c r="J2" s="83"/>
+      <c r="E2" s="78"/>
+      <c r="F2" s="78"/>
+      <c r="G2" s="78"/>
+      <c r="H2" s="78"/>
+      <c r="I2" s="78"/>
+      <c r="J2" s="78"/>
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
       <c r="M2" s="2"/>
@@ -3761,15 +3761,15 @@
       <c r="C3" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="83" t="s">
+      <c r="D3" s="78" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="83"/>
-      <c r="F3" s="83"/>
-      <c r="G3" s="83"/>
-      <c r="H3" s="83"/>
-      <c r="I3" s="83"/>
-      <c r="J3" s="83"/>
+      <c r="E3" s="78"/>
+      <c r="F3" s="78"/>
+      <c r="G3" s="78"/>
+      <c r="H3" s="78"/>
+      <c r="I3" s="78"/>
+      <c r="J3" s="78"/>
       <c r="K3" s="2"/>
       <c r="L3" s="2"/>
       <c r="M3" s="2"/>
@@ -3804,15 +3804,15 @@
       <c r="C4" s="30" t="s">
         <v>46</v>
       </c>
-      <c r="D4" s="83" t="s">
+      <c r="D4" s="78" t="s">
         <v>47</v>
       </c>
-      <c r="E4" s="83"/>
-      <c r="F4" s="83"/>
-      <c r="G4" s="83"/>
-      <c r="H4" s="83"/>
-      <c r="I4" s="83"/>
-      <c r="J4" s="83"/>
+      <c r="E4" s="78"/>
+      <c r="F4" s="78"/>
+      <c r="G4" s="78"/>
+      <c r="H4" s="78"/>
+      <c r="I4" s="78"/>
+      <c r="J4" s="78"/>
       <c r="K4" s="2"/>
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
@@ -3847,15 +3847,15 @@
       <c r="C5" s="30" t="s">
         <v>48</v>
       </c>
-      <c r="D5" s="83" t="s">
+      <c r="D5" s="78" t="s">
         <v>130</v>
       </c>
-      <c r="E5" s="83"/>
-      <c r="F5" s="83"/>
-      <c r="G5" s="83"/>
-      <c r="H5" s="83"/>
-      <c r="I5" s="83"/>
-      <c r="J5" s="83"/>
+      <c r="E5" s="78"/>
+      <c r="F5" s="78"/>
+      <c r="G5" s="78"/>
+      <c r="H5" s="78"/>
+      <c r="I5" s="78"/>
+      <c r="J5" s="78"/>
       <c r="K5" s="2"/>
       <c r="L5" s="2"/>
       <c r="M5" s="2"/>
@@ -3998,75 +3998,75 @@
       <c r="D8" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="E8" s="51" t="s">
+      <c r="E8" s="45" t="s">
         <v>53</v>
       </c>
-      <c r="F8" s="53" t="s">
+      <c r="F8" s="79" t="s">
         <v>131</v>
       </c>
-      <c r="G8" s="53"/>
-      <c r="H8" s="53"/>
-      <c r="I8" s="53"/>
-      <c r="J8" s="53"/>
-      <c r="K8" s="53"/>
-      <c r="L8" s="53"/>
-      <c r="M8" s="53"/>
-      <c r="N8" s="53"/>
-      <c r="O8" s="53"/>
-      <c r="P8" s="53"/>
-      <c r="Q8" s="53"/>
-      <c r="R8" s="53"/>
-      <c r="S8" s="53"/>
-      <c r="T8" s="53"/>
-      <c r="U8" s="53"/>
-      <c r="V8" s="53"/>
-      <c r="W8" s="53"/>
-      <c r="X8" s="53"/>
-      <c r="Y8" s="53"/>
-      <c r="Z8" s="54" t="s">
+      <c r="G8" s="79"/>
+      <c r="H8" s="79"/>
+      <c r="I8" s="79"/>
+      <c r="J8" s="79"/>
+      <c r="K8" s="79"/>
+      <c r="L8" s="79"/>
+      <c r="M8" s="79"/>
+      <c r="N8" s="79"/>
+      <c r="O8" s="79"/>
+      <c r="P8" s="79"/>
+      <c r="Q8" s="79"/>
+      <c r="R8" s="79"/>
+      <c r="S8" s="79"/>
+      <c r="T8" s="79"/>
+      <c r="U8" s="79"/>
+      <c r="V8" s="79"/>
+      <c r="W8" s="79"/>
+      <c r="X8" s="79"/>
+      <c r="Y8" s="79"/>
+      <c r="Z8" s="80" t="s">
         <v>132</v>
       </c>
-      <c r="AA8" s="54"/>
-      <c r="AB8" s="54"/>
-      <c r="AC8" s="54"/>
-      <c r="AD8" s="54"/>
-      <c r="AE8" s="54"/>
-      <c r="AF8" s="54"/>
-      <c r="AG8" s="54"/>
-      <c r="AH8" s="54"/>
-      <c r="AI8" s="54"/>
-      <c r="AJ8" s="54"/>
-      <c r="AK8" s="54"/>
-      <c r="AL8" s="54"/>
-      <c r="AM8" s="54"/>
-      <c r="AN8" s="54"/>
-      <c r="AO8" s="54"/>
-      <c r="AP8" s="54"/>
-      <c r="AQ8" s="54"/>
-      <c r="AR8" s="54"/>
-      <c r="AS8" s="54"/>
-      <c r="AT8" s="54"/>
-      <c r="AU8" s="54"/>
-      <c r="AV8" s="54"/>
-      <c r="AW8" s="54"/>
-      <c r="AX8" s="54"/>
-      <c r="AY8" s="54"/>
-      <c r="AZ8" s="54"/>
-      <c r="BA8" s="54"/>
-      <c r="BB8" s="54"/>
-      <c r="BC8" s="54"/>
-      <c r="BD8" s="54"/>
-      <c r="BE8" s="55" t="s">
+      <c r="AA8" s="80"/>
+      <c r="AB8" s="80"/>
+      <c r="AC8" s="80"/>
+      <c r="AD8" s="80"/>
+      <c r="AE8" s="80"/>
+      <c r="AF8" s="80"/>
+      <c r="AG8" s="80"/>
+      <c r="AH8" s="80"/>
+      <c r="AI8" s="80"/>
+      <c r="AJ8" s="80"/>
+      <c r="AK8" s="80"/>
+      <c r="AL8" s="80"/>
+      <c r="AM8" s="80"/>
+      <c r="AN8" s="80"/>
+      <c r="AO8" s="80"/>
+      <c r="AP8" s="80"/>
+      <c r="AQ8" s="80"/>
+      <c r="AR8" s="80"/>
+      <c r="AS8" s="80"/>
+      <c r="AT8" s="80"/>
+      <c r="AU8" s="80"/>
+      <c r="AV8" s="80"/>
+      <c r="AW8" s="80"/>
+      <c r="AX8" s="80"/>
+      <c r="AY8" s="80"/>
+      <c r="AZ8" s="80"/>
+      <c r="BA8" s="80"/>
+      <c r="BB8" s="80"/>
+      <c r="BC8" s="80"/>
+      <c r="BD8" s="80"/>
+      <c r="BE8" s="81" t="s">
         <v>133</v>
       </c>
-      <c r="BF8" s="56"/>
-      <c r="BG8" s="56"/>
-      <c r="BH8" s="56"/>
-      <c r="BI8" s="56"/>
-      <c r="BJ8" s="56"/>
-      <c r="BK8" s="56"/>
-      <c r="BL8" s="56"/>
-      <c r="BM8" s="56"/>
+      <c r="BF8" s="82"/>
+      <c r="BG8" s="82"/>
+      <c r="BH8" s="82"/>
+      <c r="BI8" s="82"/>
+      <c r="BJ8" s="82"/>
+      <c r="BK8" s="82"/>
+      <c r="BL8" s="82"/>
+      <c r="BM8" s="82"/>
     </row>
     <row r="9" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A9" s="33">
@@ -4077,185 +4077,185 @@
       </c>
       <c r="C9" s="35"/>
       <c r="D9" s="35"/>
-      <c r="E9" s="52"/>
-      <c r="F9" s="57">
+      <c r="E9" s="46"/>
+      <c r="F9" s="47">
         <v>11</v>
       </c>
-      <c r="G9" s="57">
+      <c r="G9" s="47">
         <v>12</v>
       </c>
-      <c r="H9" s="57">
+      <c r="H9" s="47">
         <v>13</v>
       </c>
-      <c r="I9" s="57">
+      <c r="I9" s="47">
         <v>14</v>
       </c>
-      <c r="J9" s="57">
+      <c r="J9" s="47">
         <v>15</v>
       </c>
-      <c r="K9" s="57">
+      <c r="K9" s="47">
         <v>16</v>
       </c>
-      <c r="L9" s="57">
+      <c r="L9" s="47">
         <v>17</v>
       </c>
-      <c r="M9" s="57">
+      <c r="M9" s="47">
         <v>18</v>
       </c>
-      <c r="N9" s="57">
+      <c r="N9" s="47">
         <v>19</v>
       </c>
-      <c r="O9" s="57">
+      <c r="O9" s="47">
         <v>20</v>
       </c>
-      <c r="P9" s="57">
+      <c r="P9" s="47">
         <v>21</v>
       </c>
-      <c r="Q9" s="57">
+      <c r="Q9" s="47">
         <v>22</v>
       </c>
-      <c r="R9" s="57">
+      <c r="R9" s="47">
         <v>23</v>
       </c>
-      <c r="S9" s="57">
+      <c r="S9" s="47">
         <v>24</v>
       </c>
-      <c r="T9" s="57">
+      <c r="T9" s="47">
         <v>25</v>
       </c>
-      <c r="U9" s="57">
+      <c r="U9" s="47">
         <v>26</v>
       </c>
-      <c r="V9" s="57">
+      <c r="V9" s="47">
         <v>27</v>
       </c>
-      <c r="W9" s="57">
+      <c r="W9" s="47">
         <v>28</v>
       </c>
-      <c r="X9" s="57">
+      <c r="X9" s="47">
         <v>29</v>
       </c>
-      <c r="Y9" s="57">
+      <c r="Y9" s="47">
         <v>30</v>
       </c>
-      <c r="Z9" s="57">
+      <c r="Z9" s="47">
         <v>1</v>
       </c>
-      <c r="AA9" s="57">
+      <c r="AA9" s="47">
         <v>2</v>
       </c>
-      <c r="AB9" s="57">
+      <c r="AB9" s="47">
         <v>3</v>
       </c>
-      <c r="AC9" s="57">
+      <c r="AC9" s="47">
         <v>4</v>
       </c>
-      <c r="AD9" s="57">
+      <c r="AD9" s="47">
         <v>5</v>
       </c>
-      <c r="AE9" s="57">
+      <c r="AE9" s="47">
         <v>6</v>
       </c>
-      <c r="AF9" s="57">
+      <c r="AF9" s="47">
         <v>7</v>
       </c>
-      <c r="AG9" s="57">
+      <c r="AG9" s="47">
         <v>8</v>
       </c>
-      <c r="AH9" s="57">
+      <c r="AH9" s="47">
         <v>9</v>
       </c>
-      <c r="AI9" s="57">
+      <c r="AI9" s="47">
         <v>10</v>
       </c>
-      <c r="AJ9" s="57">
+      <c r="AJ9" s="47">
         <v>11</v>
       </c>
-      <c r="AK9" s="57">
+      <c r="AK9" s="47">
         <v>12</v>
       </c>
-      <c r="AL9" s="57">
+      <c r="AL9" s="47">
         <v>13</v>
       </c>
-      <c r="AM9" s="57">
+      <c r="AM9" s="47">
         <v>14</v>
       </c>
-      <c r="AN9" s="57">
+      <c r="AN9" s="47">
         <v>15</v>
       </c>
-      <c r="AO9" s="57">
+      <c r="AO9" s="47">
         <v>16</v>
       </c>
-      <c r="AP9" s="57">
+      <c r="AP9" s="47">
         <v>17</v>
       </c>
-      <c r="AQ9" s="57">
+      <c r="AQ9" s="47">
         <v>18</v>
       </c>
-      <c r="AR9" s="57">
+      <c r="AR9" s="47">
         <v>19</v>
       </c>
-      <c r="AS9" s="57">
+      <c r="AS9" s="47">
         <v>20</v>
       </c>
-      <c r="AT9" s="57">
+      <c r="AT9" s="47">
         <v>21</v>
       </c>
-      <c r="AU9" s="57">
+      <c r="AU9" s="47">
         <v>22</v>
       </c>
-      <c r="AV9" s="57">
+      <c r="AV9" s="47">
         <v>23</v>
       </c>
-      <c r="AW9" s="57">
+      <c r="AW9" s="47">
         <v>24</v>
       </c>
-      <c r="AX9" s="57">
+      <c r="AX9" s="47">
         <v>25</v>
       </c>
-      <c r="AY9" s="57">
+      <c r="AY9" s="47">
         <v>26</v>
       </c>
-      <c r="AZ9" s="57">
+      <c r="AZ9" s="47">
         <v>27</v>
       </c>
-      <c r="BA9" s="57">
+      <c r="BA9" s="47">
         <v>28</v>
       </c>
-      <c r="BB9" s="57">
+      <c r="BB9" s="47">
         <v>29</v>
       </c>
-      <c r="BC9" s="57">
+      <c r="BC9" s="47">
         <v>30</v>
       </c>
-      <c r="BD9" s="57">
+      <c r="BD9" s="47">
         <v>31</v>
       </c>
-      <c r="BE9" s="57">
+      <c r="BE9" s="47">
         <v>1</v>
       </c>
-      <c r="BF9" s="57">
+      <c r="BF9" s="47">
         <v>2</v>
       </c>
-      <c r="BG9" s="57">
+      <c r="BG9" s="47">
         <v>3</v>
       </c>
-      <c r="BH9" s="57">
+      <c r="BH9" s="47">
         <v>4</v>
       </c>
-      <c r="BI9" s="57">
+      <c r="BI9" s="47">
         <v>5</v>
       </c>
-      <c r="BJ9" s="57">
+      <c r="BJ9" s="47">
         <v>6</v>
       </c>
-      <c r="BK9" s="57">
+      <c r="BK9" s="47">
         <v>7</v>
       </c>
-      <c r="BL9" s="57">
+      <c r="BL9" s="47">
         <v>8</v>
       </c>
-      <c r="BM9" s="57">
+      <c r="BM9" s="47">
         <v>9</v>
       </c>
     </row>
@@ -4275,66 +4275,66 @@
       <c r="E10" s="32">
         <v>3</v>
       </c>
-      <c r="F10" s="58"/>
-      <c r="G10" s="58"/>
-      <c r="H10" s="58"/>
-      <c r="I10" s="59"/>
-      <c r="J10" s="59"/>
-      <c r="K10" s="59"/>
-      <c r="L10" s="60"/>
-      <c r="M10" s="59"/>
-      <c r="N10" s="59"/>
-      <c r="O10" s="59"/>
-      <c r="P10" s="59"/>
-      <c r="Q10" s="59"/>
-      <c r="R10" s="59"/>
-      <c r="S10" s="60"/>
-      <c r="T10" s="59"/>
-      <c r="U10" s="59"/>
-      <c r="V10" s="59"/>
-      <c r="W10" s="59"/>
-      <c r="X10" s="59"/>
-      <c r="Y10" s="59"/>
-      <c r="Z10" s="60"/>
-      <c r="AA10" s="59"/>
-      <c r="AB10" s="59"/>
-      <c r="AC10" s="59"/>
-      <c r="AD10" s="59"/>
-      <c r="AE10" s="59"/>
-      <c r="AF10" s="59"/>
-      <c r="AG10" s="60"/>
-      <c r="AH10" s="59"/>
-      <c r="AI10" s="59"/>
-      <c r="AJ10" s="59"/>
-      <c r="AK10" s="59"/>
-      <c r="AL10" s="59"/>
-      <c r="AM10" s="59"/>
-      <c r="AN10" s="60"/>
-      <c r="AO10" s="61"/>
-      <c r="AP10" s="61"/>
-      <c r="AQ10" s="61"/>
-      <c r="AR10" s="61"/>
-      <c r="AS10" s="61"/>
-      <c r="AT10" s="61"/>
-      <c r="AU10" s="60"/>
-      <c r="AV10" s="61"/>
-      <c r="AW10" s="61"/>
-      <c r="AX10" s="61"/>
-      <c r="AY10" s="61"/>
-      <c r="AZ10" s="61"/>
-      <c r="BA10" s="61"/>
-      <c r="BB10" s="60"/>
-      <c r="BC10" s="61"/>
-      <c r="BD10" s="61"/>
-      <c r="BE10" s="61"/>
-      <c r="BF10" s="61"/>
-      <c r="BG10" s="61"/>
-      <c r="BH10" s="61"/>
-      <c r="BI10" s="60"/>
-      <c r="BJ10" s="61"/>
-      <c r="BK10" s="61"/>
-      <c r="BL10" s="61"/>
-      <c r="BM10" s="61"/>
+      <c r="F10" s="48"/>
+      <c r="G10" s="48"/>
+      <c r="H10" s="48"/>
+      <c r="I10" s="49"/>
+      <c r="J10" s="49"/>
+      <c r="K10" s="49"/>
+      <c r="L10" s="50"/>
+      <c r="M10" s="49"/>
+      <c r="N10" s="49"/>
+      <c r="O10" s="49"/>
+      <c r="P10" s="49"/>
+      <c r="Q10" s="49"/>
+      <c r="R10" s="49"/>
+      <c r="S10" s="50"/>
+      <c r="T10" s="49"/>
+      <c r="U10" s="49"/>
+      <c r="V10" s="49"/>
+      <c r="W10" s="49"/>
+      <c r="X10" s="49"/>
+      <c r="Y10" s="49"/>
+      <c r="Z10" s="50"/>
+      <c r="AA10" s="49"/>
+      <c r="AB10" s="49"/>
+      <c r="AC10" s="49"/>
+      <c r="AD10" s="49"/>
+      <c r="AE10" s="49"/>
+      <c r="AF10" s="49"/>
+      <c r="AG10" s="50"/>
+      <c r="AH10" s="49"/>
+      <c r="AI10" s="49"/>
+      <c r="AJ10" s="49"/>
+      <c r="AK10" s="49"/>
+      <c r="AL10" s="49"/>
+      <c r="AM10" s="49"/>
+      <c r="AN10" s="50"/>
+      <c r="AO10" s="51"/>
+      <c r="AP10" s="51"/>
+      <c r="AQ10" s="51"/>
+      <c r="AR10" s="51"/>
+      <c r="AS10" s="51"/>
+      <c r="AT10" s="51"/>
+      <c r="AU10" s="50"/>
+      <c r="AV10" s="51"/>
+      <c r="AW10" s="51"/>
+      <c r="AX10" s="51"/>
+      <c r="AY10" s="51"/>
+      <c r="AZ10" s="51"/>
+      <c r="BA10" s="51"/>
+      <c r="BB10" s="50"/>
+      <c r="BC10" s="51"/>
+      <c r="BD10" s="51"/>
+      <c r="BE10" s="51"/>
+      <c r="BF10" s="51"/>
+      <c r="BG10" s="51"/>
+      <c r="BH10" s="51"/>
+      <c r="BI10" s="50"/>
+      <c r="BJ10" s="51"/>
+      <c r="BK10" s="51"/>
+      <c r="BL10" s="51"/>
+      <c r="BM10" s="51"/>
     </row>
     <row r="11" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
@@ -4352,65 +4352,65 @@
       <c r="E11" s="32">
         <v>3</v>
       </c>
-      <c r="F11" s="59"/>
-      <c r="G11" s="59"/>
-      <c r="H11" s="58"/>
-      <c r="I11" s="58"/>
-      <c r="J11" s="58"/>
-      <c r="L11" s="60"/>
-      <c r="M11" s="59"/>
-      <c r="N11" s="59"/>
-      <c r="O11" s="59"/>
-      <c r="P11" s="59"/>
-      <c r="Q11" s="59"/>
-      <c r="R11" s="59"/>
-      <c r="S11" s="60"/>
-      <c r="T11" s="59"/>
-      <c r="U11" s="59"/>
-      <c r="V11" s="59"/>
-      <c r="W11" s="59"/>
-      <c r="X11" s="59"/>
-      <c r="Y11" s="59"/>
-      <c r="Z11" s="60"/>
-      <c r="AA11" s="59"/>
-      <c r="AB11" s="59"/>
-      <c r="AC11" s="59"/>
-      <c r="AD11" s="59"/>
-      <c r="AE11" s="59"/>
-      <c r="AF11" s="59"/>
-      <c r="AG11" s="60"/>
-      <c r="AH11" s="59"/>
-      <c r="AI11" s="59"/>
-      <c r="AJ11" s="59"/>
-      <c r="AK11" s="59"/>
-      <c r="AL11" s="59"/>
-      <c r="AM11" s="59"/>
-      <c r="AN11" s="60"/>
-      <c r="AO11" s="61"/>
-      <c r="AP11" s="61"/>
-      <c r="AQ11" s="61"/>
-      <c r="AR11" s="61"/>
-      <c r="AS11" s="61"/>
-      <c r="AT11" s="61"/>
-      <c r="AU11" s="60"/>
-      <c r="AV11" s="61"/>
-      <c r="AW11" s="61"/>
-      <c r="AX11" s="61"/>
-      <c r="AY11" s="61"/>
-      <c r="AZ11" s="61"/>
-      <c r="BA11" s="61"/>
-      <c r="BB11" s="60"/>
-      <c r="BC11" s="61"/>
-      <c r="BD11" s="61"/>
-      <c r="BE11" s="61"/>
-      <c r="BF11" s="61"/>
-      <c r="BG11" s="61"/>
-      <c r="BH11" s="61"/>
-      <c r="BI11" s="60"/>
-      <c r="BJ11" s="61"/>
-      <c r="BK11" s="61"/>
-      <c r="BL11" s="61"/>
-      <c r="BM11" s="61"/>
+      <c r="F11" s="49"/>
+      <c r="G11" s="49"/>
+      <c r="H11" s="48"/>
+      <c r="I11" s="48"/>
+      <c r="J11" s="48"/>
+      <c r="L11" s="50"/>
+      <c r="M11" s="49"/>
+      <c r="N11" s="49"/>
+      <c r="O11" s="49"/>
+      <c r="P11" s="49"/>
+      <c r="Q11" s="49"/>
+      <c r="R11" s="49"/>
+      <c r="S11" s="50"/>
+      <c r="T11" s="49"/>
+      <c r="U11" s="49"/>
+      <c r="V11" s="49"/>
+      <c r="W11" s="49"/>
+      <c r="X11" s="49"/>
+      <c r="Y11" s="49"/>
+      <c r="Z11" s="50"/>
+      <c r="AA11" s="49"/>
+      <c r="AB11" s="49"/>
+      <c r="AC11" s="49"/>
+      <c r="AD11" s="49"/>
+      <c r="AE11" s="49"/>
+      <c r="AF11" s="49"/>
+      <c r="AG11" s="50"/>
+      <c r="AH11" s="49"/>
+      <c r="AI11" s="49"/>
+      <c r="AJ11" s="49"/>
+      <c r="AK11" s="49"/>
+      <c r="AL11" s="49"/>
+      <c r="AM11" s="49"/>
+      <c r="AN11" s="50"/>
+      <c r="AO11" s="51"/>
+      <c r="AP11" s="51"/>
+      <c r="AQ11" s="51"/>
+      <c r="AR11" s="51"/>
+      <c r="AS11" s="51"/>
+      <c r="AT11" s="51"/>
+      <c r="AU11" s="50"/>
+      <c r="AV11" s="51"/>
+      <c r="AW11" s="51"/>
+      <c r="AX11" s="51"/>
+      <c r="AY11" s="51"/>
+      <c r="AZ11" s="51"/>
+      <c r="BA11" s="51"/>
+      <c r="BB11" s="50"/>
+      <c r="BC11" s="51"/>
+      <c r="BD11" s="51"/>
+      <c r="BE11" s="51"/>
+      <c r="BF11" s="51"/>
+      <c r="BG11" s="51"/>
+      <c r="BH11" s="51"/>
+      <c r="BI11" s="50"/>
+      <c r="BJ11" s="51"/>
+      <c r="BK11" s="51"/>
+      <c r="BL11" s="51"/>
+      <c r="BM11" s="51"/>
     </row>
     <row r="12" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
@@ -4428,66 +4428,66 @@
       <c r="E12" s="32">
         <v>3</v>
       </c>
-      <c r="F12" s="59"/>
-      <c r="G12" s="59"/>
-      <c r="H12" s="59"/>
-      <c r="I12" s="59"/>
-      <c r="J12" s="68"/>
-      <c r="K12" s="68"/>
-      <c r="L12" s="60"/>
-      <c r="M12" s="58"/>
-      <c r="N12" s="65"/>
-      <c r="O12" s="65"/>
-      <c r="P12" s="65"/>
-      <c r="Q12" s="59"/>
-      <c r="R12" s="59"/>
-      <c r="S12" s="60"/>
-      <c r="T12" s="59"/>
-      <c r="U12" s="59"/>
-      <c r="V12" s="59"/>
-      <c r="W12" s="59"/>
-      <c r="X12" s="59"/>
-      <c r="Y12" s="59"/>
-      <c r="Z12" s="60"/>
-      <c r="AA12" s="59"/>
-      <c r="AB12" s="59"/>
-      <c r="AC12" s="59"/>
-      <c r="AD12" s="59"/>
-      <c r="AE12" s="59"/>
-      <c r="AF12" s="59"/>
-      <c r="AG12" s="60"/>
-      <c r="AH12" s="59"/>
-      <c r="AI12" s="59"/>
-      <c r="AJ12" s="59"/>
-      <c r="AK12" s="59"/>
-      <c r="AL12" s="59"/>
-      <c r="AM12" s="59"/>
-      <c r="AN12" s="60"/>
-      <c r="AO12" s="61"/>
-      <c r="AP12" s="61"/>
-      <c r="AQ12" s="61"/>
-      <c r="AR12" s="61"/>
-      <c r="AS12" s="61"/>
-      <c r="AT12" s="61"/>
-      <c r="AU12" s="60"/>
-      <c r="AV12" s="61"/>
-      <c r="AW12" s="61"/>
-      <c r="AX12" s="61"/>
-      <c r="AY12" s="61"/>
-      <c r="AZ12" s="61"/>
-      <c r="BA12" s="61"/>
-      <c r="BB12" s="60"/>
-      <c r="BC12" s="61"/>
-      <c r="BD12" s="61"/>
-      <c r="BE12" s="61"/>
-      <c r="BF12" s="61"/>
-      <c r="BG12" s="61"/>
-      <c r="BH12" s="61"/>
-      <c r="BI12" s="60"/>
-      <c r="BJ12" s="61"/>
-      <c r="BK12" s="61"/>
-      <c r="BL12" s="61"/>
-      <c r="BM12" s="61"/>
+      <c r="F12" s="49"/>
+      <c r="G12" s="49"/>
+      <c r="H12" s="49"/>
+      <c r="I12" s="49"/>
+      <c r="J12" s="58"/>
+      <c r="K12" s="58"/>
+      <c r="L12" s="50"/>
+      <c r="M12" s="48"/>
+      <c r="N12" s="55"/>
+      <c r="O12" s="55"/>
+      <c r="P12" s="55"/>
+      <c r="Q12" s="49"/>
+      <c r="R12" s="49"/>
+      <c r="S12" s="50"/>
+      <c r="T12" s="49"/>
+      <c r="U12" s="49"/>
+      <c r="V12" s="49"/>
+      <c r="W12" s="49"/>
+      <c r="X12" s="49"/>
+      <c r="Y12" s="49"/>
+      <c r="Z12" s="50"/>
+      <c r="AA12" s="49"/>
+      <c r="AB12" s="49"/>
+      <c r="AC12" s="49"/>
+      <c r="AD12" s="49"/>
+      <c r="AE12" s="49"/>
+      <c r="AF12" s="49"/>
+      <c r="AG12" s="50"/>
+      <c r="AH12" s="49"/>
+      <c r="AI12" s="49"/>
+      <c r="AJ12" s="49"/>
+      <c r="AK12" s="49"/>
+      <c r="AL12" s="49"/>
+      <c r="AM12" s="49"/>
+      <c r="AN12" s="50"/>
+      <c r="AO12" s="51"/>
+      <c r="AP12" s="51"/>
+      <c r="AQ12" s="51"/>
+      <c r="AR12" s="51"/>
+      <c r="AS12" s="51"/>
+      <c r="AT12" s="51"/>
+      <c r="AU12" s="50"/>
+      <c r="AV12" s="51"/>
+      <c r="AW12" s="51"/>
+      <c r="AX12" s="51"/>
+      <c r="AY12" s="51"/>
+      <c r="AZ12" s="51"/>
+      <c r="BA12" s="51"/>
+      <c r="BB12" s="50"/>
+      <c r="BC12" s="51"/>
+      <c r="BD12" s="51"/>
+      <c r="BE12" s="51"/>
+      <c r="BF12" s="51"/>
+      <c r="BG12" s="51"/>
+      <c r="BH12" s="51"/>
+      <c r="BI12" s="50"/>
+      <c r="BJ12" s="51"/>
+      <c r="BK12" s="51"/>
+      <c r="BL12" s="51"/>
+      <c r="BM12" s="51"/>
     </row>
     <row r="13" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
@@ -4505,66 +4505,66 @@
       <c r="E13" s="32">
         <v>3</v>
       </c>
-      <c r="F13" s="59"/>
-      <c r="G13" s="59"/>
-      <c r="H13" s="59"/>
-      <c r="I13" s="59"/>
-      <c r="J13" s="59"/>
-      <c r="K13" s="59"/>
-      <c r="L13" s="60"/>
-      <c r="M13" s="69"/>
-      <c r="N13" s="68"/>
-      <c r="O13" s="68"/>
-      <c r="P13" s="59"/>
-      <c r="Q13" s="59"/>
-      <c r="R13" s="59"/>
-      <c r="S13" s="60"/>
-      <c r="T13" s="59"/>
-      <c r="U13" s="59"/>
-      <c r="V13" s="59"/>
-      <c r="W13" s="59"/>
-      <c r="X13" s="59"/>
-      <c r="Y13" s="59"/>
-      <c r="Z13" s="60"/>
-      <c r="AA13" s="59"/>
-      <c r="AB13" s="59"/>
-      <c r="AC13" s="59"/>
-      <c r="AD13" s="59"/>
-      <c r="AE13" s="59"/>
-      <c r="AF13" s="59"/>
-      <c r="AG13" s="60"/>
-      <c r="AH13" s="59"/>
-      <c r="AI13" s="59"/>
-      <c r="AJ13" s="59"/>
-      <c r="AK13" s="59"/>
-      <c r="AL13" s="59"/>
-      <c r="AM13" s="59"/>
-      <c r="AN13" s="60"/>
-      <c r="AO13" s="61"/>
-      <c r="AP13" s="61"/>
-      <c r="AQ13" s="61"/>
-      <c r="AR13" s="61"/>
-      <c r="AS13" s="61"/>
-      <c r="AT13" s="61"/>
-      <c r="AU13" s="60"/>
-      <c r="AV13" s="61"/>
-      <c r="AW13" s="61"/>
-      <c r="AX13" s="61"/>
-      <c r="AY13" s="61"/>
-      <c r="AZ13" s="61"/>
-      <c r="BA13" s="61"/>
-      <c r="BB13" s="60"/>
-      <c r="BC13" s="61"/>
-      <c r="BD13" s="61"/>
-      <c r="BE13" s="61"/>
-      <c r="BF13" s="61"/>
-      <c r="BG13" s="61"/>
-      <c r="BH13" s="61"/>
-      <c r="BI13" s="60"/>
-      <c r="BJ13" s="61"/>
-      <c r="BK13" s="61"/>
-      <c r="BL13" s="61"/>
-      <c r="BM13" s="61"/>
+      <c r="F13" s="49"/>
+      <c r="G13" s="49"/>
+      <c r="H13" s="49"/>
+      <c r="I13" s="49"/>
+      <c r="J13" s="49"/>
+      <c r="K13" s="49"/>
+      <c r="L13" s="50"/>
+      <c r="M13" s="59"/>
+      <c r="N13" s="58"/>
+      <c r="O13" s="58"/>
+      <c r="P13" s="49"/>
+      <c r="Q13" s="49"/>
+      <c r="R13" s="49"/>
+      <c r="S13" s="50"/>
+      <c r="T13" s="49"/>
+      <c r="U13" s="49"/>
+      <c r="V13" s="49"/>
+      <c r="W13" s="49"/>
+      <c r="X13" s="49"/>
+      <c r="Y13" s="49"/>
+      <c r="Z13" s="50"/>
+      <c r="AA13" s="49"/>
+      <c r="AB13" s="49"/>
+      <c r="AC13" s="49"/>
+      <c r="AD13" s="49"/>
+      <c r="AE13" s="49"/>
+      <c r="AF13" s="49"/>
+      <c r="AG13" s="50"/>
+      <c r="AH13" s="49"/>
+      <c r="AI13" s="49"/>
+      <c r="AJ13" s="49"/>
+      <c r="AK13" s="49"/>
+      <c r="AL13" s="49"/>
+      <c r="AM13" s="49"/>
+      <c r="AN13" s="50"/>
+      <c r="AO13" s="51"/>
+      <c r="AP13" s="51"/>
+      <c r="AQ13" s="51"/>
+      <c r="AR13" s="51"/>
+      <c r="AS13" s="51"/>
+      <c r="AT13" s="51"/>
+      <c r="AU13" s="50"/>
+      <c r="AV13" s="51"/>
+      <c r="AW13" s="51"/>
+      <c r="AX13" s="51"/>
+      <c r="AY13" s="51"/>
+      <c r="AZ13" s="51"/>
+      <c r="BA13" s="51"/>
+      <c r="BB13" s="50"/>
+      <c r="BC13" s="51"/>
+      <c r="BD13" s="51"/>
+      <c r="BE13" s="51"/>
+      <c r="BF13" s="51"/>
+      <c r="BG13" s="51"/>
+      <c r="BH13" s="51"/>
+      <c r="BI13" s="50"/>
+      <c r="BJ13" s="51"/>
+      <c r="BK13" s="51"/>
+      <c r="BL13" s="51"/>
+      <c r="BM13" s="51"/>
     </row>
     <row r="14" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
@@ -4582,66 +4582,66 @@
       <c r="E14" s="32">
         <v>3</v>
       </c>
-      <c r="F14" s="59"/>
-      <c r="G14" s="59"/>
-      <c r="H14" s="59"/>
-      <c r="I14" s="59"/>
-      <c r="J14" s="59"/>
-      <c r="K14" s="59"/>
-      <c r="L14" s="60"/>
-      <c r="M14" s="59"/>
-      <c r="N14" s="65"/>
-      <c r="O14" s="69"/>
-      <c r="P14" s="68"/>
-      <c r="Q14" s="68"/>
-      <c r="R14" s="59"/>
-      <c r="S14" s="60"/>
-      <c r="T14" s="59"/>
-      <c r="U14" s="59"/>
-      <c r="V14" s="59"/>
-      <c r="W14" s="59"/>
-      <c r="X14" s="59"/>
-      <c r="Y14" s="59"/>
-      <c r="Z14" s="60"/>
-      <c r="AA14" s="59"/>
-      <c r="AB14" s="59"/>
-      <c r="AC14" s="59"/>
-      <c r="AD14" s="59"/>
-      <c r="AE14" s="59"/>
-      <c r="AF14" s="59"/>
-      <c r="AG14" s="60"/>
-      <c r="AH14" s="59"/>
-      <c r="AI14" s="59"/>
-      <c r="AJ14" s="59"/>
-      <c r="AK14" s="59"/>
-      <c r="AL14" s="59"/>
-      <c r="AM14" s="59"/>
-      <c r="AN14" s="60"/>
-      <c r="AO14" s="61"/>
-      <c r="AP14" s="61"/>
-      <c r="AQ14" s="61"/>
-      <c r="AR14" s="61"/>
-      <c r="AS14" s="61"/>
-      <c r="AT14" s="61"/>
-      <c r="AU14" s="60"/>
-      <c r="AV14" s="61"/>
-      <c r="AW14" s="61"/>
-      <c r="AX14" s="61"/>
-      <c r="AY14" s="61"/>
-      <c r="AZ14" s="61"/>
-      <c r="BA14" s="61"/>
-      <c r="BB14" s="60"/>
-      <c r="BC14" s="61"/>
-      <c r="BD14" s="61"/>
-      <c r="BE14" s="61"/>
-      <c r="BF14" s="61"/>
-      <c r="BG14" s="61"/>
-      <c r="BH14" s="61"/>
-      <c r="BI14" s="60"/>
-      <c r="BJ14" s="61"/>
-      <c r="BK14" s="61"/>
-      <c r="BL14" s="61"/>
-      <c r="BM14" s="61"/>
+      <c r="F14" s="49"/>
+      <c r="G14" s="49"/>
+      <c r="H14" s="49"/>
+      <c r="I14" s="49"/>
+      <c r="J14" s="49"/>
+      <c r="K14" s="49"/>
+      <c r="L14" s="50"/>
+      <c r="M14" s="49"/>
+      <c r="N14" s="55"/>
+      <c r="O14" s="59"/>
+      <c r="P14" s="58"/>
+      <c r="Q14" s="58"/>
+      <c r="R14" s="49"/>
+      <c r="S14" s="50"/>
+      <c r="T14" s="49"/>
+      <c r="U14" s="49"/>
+      <c r="V14" s="49"/>
+      <c r="W14" s="49"/>
+      <c r="X14" s="49"/>
+      <c r="Y14" s="49"/>
+      <c r="Z14" s="50"/>
+      <c r="AA14" s="49"/>
+      <c r="AB14" s="49"/>
+      <c r="AC14" s="49"/>
+      <c r="AD14" s="49"/>
+      <c r="AE14" s="49"/>
+      <c r="AF14" s="49"/>
+      <c r="AG14" s="50"/>
+      <c r="AH14" s="49"/>
+      <c r="AI14" s="49"/>
+      <c r="AJ14" s="49"/>
+      <c r="AK14" s="49"/>
+      <c r="AL14" s="49"/>
+      <c r="AM14" s="49"/>
+      <c r="AN14" s="50"/>
+      <c r="AO14" s="51"/>
+      <c r="AP14" s="51"/>
+      <c r="AQ14" s="51"/>
+      <c r="AR14" s="51"/>
+      <c r="AS14" s="51"/>
+      <c r="AT14" s="51"/>
+      <c r="AU14" s="50"/>
+      <c r="AV14" s="51"/>
+      <c r="AW14" s="51"/>
+      <c r="AX14" s="51"/>
+      <c r="AY14" s="51"/>
+      <c r="AZ14" s="51"/>
+      <c r="BA14" s="51"/>
+      <c r="BB14" s="50"/>
+      <c r="BC14" s="51"/>
+      <c r="BD14" s="51"/>
+      <c r="BE14" s="51"/>
+      <c r="BF14" s="51"/>
+      <c r="BG14" s="51"/>
+      <c r="BH14" s="51"/>
+      <c r="BI14" s="50"/>
+      <c r="BJ14" s="51"/>
+      <c r="BK14" s="51"/>
+      <c r="BL14" s="51"/>
+      <c r="BM14" s="51"/>
     </row>
     <row r="15" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
@@ -4659,135 +4659,135 @@
       <c r="E15" s="32">
         <v>3</v>
       </c>
-      <c r="F15" s="59"/>
-      <c r="G15" s="59"/>
-      <c r="H15" s="59"/>
-      <c r="I15" s="59"/>
-      <c r="J15" s="59"/>
-      <c r="K15" s="59"/>
-      <c r="L15" s="60"/>
-      <c r="M15" s="59"/>
-      <c r="N15" s="59"/>
-      <c r="O15" s="65"/>
-      <c r="P15" s="65"/>
-      <c r="Q15" s="68"/>
-      <c r="R15" s="68"/>
-      <c r="S15" s="60"/>
-      <c r="T15" s="68"/>
-      <c r="U15" s="59"/>
-      <c r="V15" s="59"/>
-      <c r="W15" s="59"/>
-      <c r="X15" s="59"/>
-      <c r="Y15" s="59"/>
-      <c r="Z15" s="60"/>
-      <c r="AA15" s="59"/>
-      <c r="AB15" s="59"/>
-      <c r="AC15" s="59"/>
-      <c r="AD15" s="59"/>
-      <c r="AE15" s="59"/>
-      <c r="AF15" s="59"/>
-      <c r="AG15" s="60"/>
-      <c r="AH15" s="59"/>
-      <c r="AI15" s="59"/>
-      <c r="AJ15" s="59"/>
-      <c r="AK15" s="59"/>
-      <c r="AL15" s="59"/>
-      <c r="AM15" s="59"/>
-      <c r="AN15" s="60"/>
-      <c r="AO15" s="61"/>
-      <c r="AP15" s="61"/>
-      <c r="AQ15" s="61"/>
-      <c r="AR15" s="61"/>
-      <c r="AS15" s="61"/>
-      <c r="AT15" s="61"/>
-      <c r="AU15" s="60"/>
-      <c r="AV15" s="61"/>
-      <c r="AW15" s="61"/>
-      <c r="AX15" s="61"/>
-      <c r="AY15" s="61"/>
-      <c r="AZ15" s="61"/>
-      <c r="BA15" s="61"/>
-      <c r="BB15" s="60"/>
-      <c r="BC15" s="61"/>
-      <c r="BD15" s="61"/>
-      <c r="BE15" s="61"/>
-      <c r="BF15" s="61"/>
-      <c r="BG15" s="61"/>
-      <c r="BH15" s="61"/>
-      <c r="BI15" s="60"/>
-      <c r="BJ15" s="61"/>
-      <c r="BK15" s="61"/>
-      <c r="BL15" s="61"/>
-      <c r="BM15" s="61"/>
-    </row>
-    <row r="16" spans="1:65" s="47" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F15" s="49"/>
+      <c r="G15" s="49"/>
+      <c r="H15" s="49"/>
+      <c r="I15" s="49"/>
+      <c r="J15" s="49"/>
+      <c r="K15" s="49"/>
+      <c r="L15" s="50"/>
+      <c r="M15" s="49"/>
+      <c r="N15" s="49"/>
+      <c r="O15" s="55"/>
+      <c r="P15" s="55"/>
+      <c r="Q15" s="58"/>
+      <c r="R15" s="58"/>
+      <c r="S15" s="50"/>
+      <c r="T15" s="58"/>
+      <c r="U15" s="49"/>
+      <c r="V15" s="49"/>
+      <c r="W15" s="49"/>
+      <c r="X15" s="49"/>
+      <c r="Y15" s="49"/>
+      <c r="Z15" s="50"/>
+      <c r="AA15" s="49"/>
+      <c r="AB15" s="49"/>
+      <c r="AC15" s="49"/>
+      <c r="AD15" s="49"/>
+      <c r="AE15" s="49"/>
+      <c r="AF15" s="49"/>
+      <c r="AG15" s="50"/>
+      <c r="AH15" s="49"/>
+      <c r="AI15" s="49"/>
+      <c r="AJ15" s="49"/>
+      <c r="AK15" s="49"/>
+      <c r="AL15" s="49"/>
+      <c r="AM15" s="49"/>
+      <c r="AN15" s="50"/>
+      <c r="AO15" s="51"/>
+      <c r="AP15" s="51"/>
+      <c r="AQ15" s="51"/>
+      <c r="AR15" s="51"/>
+      <c r="AS15" s="51"/>
+      <c r="AT15" s="51"/>
+      <c r="AU15" s="50"/>
+      <c r="AV15" s="51"/>
+      <c r="AW15" s="51"/>
+      <c r="AX15" s="51"/>
+      <c r="AY15" s="51"/>
+      <c r="AZ15" s="51"/>
+      <c r="BA15" s="51"/>
+      <c r="BB15" s="50"/>
+      <c r="BC15" s="51"/>
+      <c r="BD15" s="51"/>
+      <c r="BE15" s="51"/>
+      <c r="BF15" s="51"/>
+      <c r="BG15" s="51"/>
+      <c r="BH15" s="51"/>
+      <c r="BI15" s="50"/>
+      <c r="BJ15" s="51"/>
+      <c r="BK15" s="51"/>
+      <c r="BL15" s="51"/>
+      <c r="BM15" s="51"/>
+    </row>
+    <row r="16" spans="1:65" s="41" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="33">
         <v>2</v>
       </c>
       <c r="B16" s="34" t="s">
         <v>135</v>
       </c>
-      <c r="E16" s="62"/>
-      <c r="F16" s="62"/>
-      <c r="G16" s="62"/>
-      <c r="H16" s="62"/>
-      <c r="I16" s="62"/>
-      <c r="J16" s="62"/>
-      <c r="K16" s="62"/>
-      <c r="L16" s="60"/>
-      <c r="M16" s="62"/>
-      <c r="N16" s="62"/>
-      <c r="O16" s="62"/>
-      <c r="P16" s="63"/>
-      <c r="Q16" s="63"/>
-      <c r="R16" s="62"/>
-      <c r="S16" s="60"/>
-      <c r="T16" s="62"/>
-      <c r="U16" s="62"/>
-      <c r="V16" s="62"/>
-      <c r="W16" s="62"/>
-      <c r="X16" s="62"/>
-      <c r="Y16" s="62"/>
-      <c r="Z16" s="60"/>
-      <c r="AA16" s="62"/>
-      <c r="AB16" s="62"/>
-      <c r="AC16" s="62"/>
-      <c r="AD16" s="62"/>
-      <c r="AE16" s="62"/>
-      <c r="AF16" s="62"/>
-      <c r="AG16" s="60"/>
-      <c r="AH16" s="62"/>
-      <c r="AI16" s="62"/>
-      <c r="AJ16" s="62"/>
-      <c r="AK16" s="62"/>
-      <c r="AL16" s="62"/>
-      <c r="AM16" s="62"/>
-      <c r="AN16" s="60"/>
-      <c r="AO16" s="64"/>
-      <c r="AP16" s="64"/>
-      <c r="AQ16" s="64"/>
-      <c r="AR16" s="64"/>
-      <c r="AS16" s="64"/>
-      <c r="AT16" s="64"/>
-      <c r="AU16" s="60"/>
-      <c r="AV16" s="64"/>
-      <c r="AW16" s="64"/>
-      <c r="AX16" s="64"/>
-      <c r="AY16" s="64"/>
-      <c r="AZ16" s="64"/>
-      <c r="BA16" s="64"/>
-      <c r="BB16" s="60"/>
-      <c r="BC16" s="64"/>
-      <c r="BD16" s="64"/>
-      <c r="BE16" s="64"/>
-      <c r="BF16" s="64"/>
-      <c r="BG16" s="64"/>
-      <c r="BH16" s="64"/>
-      <c r="BI16" s="60"/>
-      <c r="BJ16" s="64"/>
-      <c r="BK16" s="64"/>
-      <c r="BL16" s="64"/>
-      <c r="BM16" s="64"/>
+      <c r="E16" s="52"/>
+      <c r="F16" s="52"/>
+      <c r="G16" s="52"/>
+      <c r="H16" s="52"/>
+      <c r="I16" s="52"/>
+      <c r="J16" s="52"/>
+      <c r="K16" s="52"/>
+      <c r="L16" s="50"/>
+      <c r="M16" s="52"/>
+      <c r="N16" s="52"/>
+      <c r="O16" s="52"/>
+      <c r="P16" s="53"/>
+      <c r="Q16" s="53"/>
+      <c r="R16" s="52"/>
+      <c r="S16" s="50"/>
+      <c r="T16" s="52"/>
+      <c r="U16" s="52"/>
+      <c r="V16" s="52"/>
+      <c r="W16" s="52"/>
+      <c r="X16" s="52"/>
+      <c r="Y16" s="52"/>
+      <c r="Z16" s="50"/>
+      <c r="AA16" s="52"/>
+      <c r="AB16" s="52"/>
+      <c r="AC16" s="52"/>
+      <c r="AD16" s="52"/>
+      <c r="AE16" s="52"/>
+      <c r="AF16" s="52"/>
+      <c r="AG16" s="50"/>
+      <c r="AH16" s="52"/>
+      <c r="AI16" s="52"/>
+      <c r="AJ16" s="52"/>
+      <c r="AK16" s="52"/>
+      <c r="AL16" s="52"/>
+      <c r="AM16" s="52"/>
+      <c r="AN16" s="50"/>
+      <c r="AO16" s="54"/>
+      <c r="AP16" s="54"/>
+      <c r="AQ16" s="54"/>
+      <c r="AR16" s="54"/>
+      <c r="AS16" s="54"/>
+      <c r="AT16" s="54"/>
+      <c r="AU16" s="50"/>
+      <c r="AV16" s="54"/>
+      <c r="AW16" s="54"/>
+      <c r="AX16" s="54"/>
+      <c r="AY16" s="54"/>
+      <c r="AZ16" s="54"/>
+      <c r="BA16" s="54"/>
+      <c r="BB16" s="50"/>
+      <c r="BC16" s="54"/>
+      <c r="BD16" s="54"/>
+      <c r="BE16" s="54"/>
+      <c r="BF16" s="54"/>
+      <c r="BG16" s="54"/>
+      <c r="BH16" s="54"/>
+      <c r="BI16" s="50"/>
+      <c r="BJ16" s="54"/>
+      <c r="BK16" s="54"/>
+      <c r="BL16" s="54"/>
+      <c r="BM16" s="54"/>
     </row>
     <row r="17" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
@@ -4805,66 +4805,66 @@
       <c r="E17" s="32">
         <v>3</v>
       </c>
-      <c r="F17" s="59"/>
-      <c r="G17" s="59"/>
-      <c r="H17" s="59"/>
-      <c r="I17" s="59"/>
-      <c r="J17" s="59"/>
-      <c r="K17" s="59"/>
-      <c r="L17" s="60"/>
-      <c r="M17" s="59"/>
-      <c r="N17" s="59"/>
-      <c r="O17" s="59"/>
-      <c r="P17" s="59"/>
-      <c r="Q17" s="59"/>
-      <c r="R17" s="59"/>
-      <c r="S17" s="60"/>
-      <c r="T17" s="68"/>
-      <c r="U17" s="68"/>
-      <c r="V17" s="68"/>
-      <c r="W17" s="59"/>
-      <c r="X17" s="59"/>
-      <c r="Y17" s="59"/>
-      <c r="Z17" s="60"/>
-      <c r="AA17" s="59"/>
-      <c r="AB17" s="59"/>
-      <c r="AC17" s="59"/>
-      <c r="AD17" s="59"/>
-      <c r="AE17" s="59"/>
-      <c r="AF17" s="59"/>
-      <c r="AG17" s="60"/>
-      <c r="AH17" s="59"/>
-      <c r="AI17" s="59"/>
-      <c r="AJ17" s="59"/>
-      <c r="AK17" s="59"/>
-      <c r="AL17" s="59"/>
-      <c r="AM17" s="59"/>
-      <c r="AN17" s="60"/>
-      <c r="AO17" s="61"/>
-      <c r="AP17" s="61"/>
-      <c r="AQ17" s="61"/>
-      <c r="AR17" s="61"/>
-      <c r="AS17" s="61"/>
-      <c r="AT17" s="61"/>
-      <c r="AU17" s="60"/>
-      <c r="AV17" s="61"/>
-      <c r="AW17" s="61"/>
-      <c r="AX17" s="61"/>
-      <c r="AY17" s="61"/>
-      <c r="AZ17" s="61"/>
-      <c r="BA17" s="61"/>
-      <c r="BB17" s="60"/>
-      <c r="BC17" s="61"/>
-      <c r="BD17" s="61"/>
-      <c r="BE17" s="61"/>
-      <c r="BF17" s="61"/>
-      <c r="BG17" s="61"/>
-      <c r="BH17" s="61"/>
-      <c r="BI17" s="60"/>
-      <c r="BJ17" s="61"/>
-      <c r="BK17" s="61"/>
-      <c r="BL17" s="61"/>
-      <c r="BM17" s="61"/>
+      <c r="F17" s="49"/>
+      <c r="G17" s="49"/>
+      <c r="H17" s="49"/>
+      <c r="I17" s="49"/>
+      <c r="J17" s="49"/>
+      <c r="K17" s="49"/>
+      <c r="L17" s="50"/>
+      <c r="M17" s="49"/>
+      <c r="N17" s="49"/>
+      <c r="O17" s="49"/>
+      <c r="P17" s="49"/>
+      <c r="Q17" s="49"/>
+      <c r="R17" s="49"/>
+      <c r="S17" s="50"/>
+      <c r="T17" s="58"/>
+      <c r="U17" s="58"/>
+      <c r="V17" s="58"/>
+      <c r="W17" s="49"/>
+      <c r="X17" s="49"/>
+      <c r="Y17" s="49"/>
+      <c r="Z17" s="50"/>
+      <c r="AA17" s="49"/>
+      <c r="AB17" s="49"/>
+      <c r="AC17" s="49"/>
+      <c r="AD17" s="49"/>
+      <c r="AE17" s="49"/>
+      <c r="AF17" s="49"/>
+      <c r="AG17" s="50"/>
+      <c r="AH17" s="49"/>
+      <c r="AI17" s="49"/>
+      <c r="AJ17" s="49"/>
+      <c r="AK17" s="49"/>
+      <c r="AL17" s="49"/>
+      <c r="AM17" s="49"/>
+      <c r="AN17" s="50"/>
+      <c r="AO17" s="51"/>
+      <c r="AP17" s="51"/>
+      <c r="AQ17" s="51"/>
+      <c r="AR17" s="51"/>
+      <c r="AS17" s="51"/>
+      <c r="AT17" s="51"/>
+      <c r="AU17" s="50"/>
+      <c r="AV17" s="51"/>
+      <c r="AW17" s="51"/>
+      <c r="AX17" s="51"/>
+      <c r="AY17" s="51"/>
+      <c r="AZ17" s="51"/>
+      <c r="BA17" s="51"/>
+      <c r="BB17" s="50"/>
+      <c r="BC17" s="51"/>
+      <c r="BD17" s="51"/>
+      <c r="BE17" s="51"/>
+      <c r="BF17" s="51"/>
+      <c r="BG17" s="51"/>
+      <c r="BH17" s="51"/>
+      <c r="BI17" s="50"/>
+      <c r="BJ17" s="51"/>
+      <c r="BK17" s="51"/>
+      <c r="BL17" s="51"/>
+      <c r="BM17" s="51"/>
     </row>
     <row r="18" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
@@ -4882,72 +4882,72 @@
       <c r="E18" s="32">
         <v>3</v>
       </c>
-      <c r="F18" s="59"/>
-      <c r="G18" s="59"/>
-      <c r="H18" s="59"/>
-      <c r="I18" s="59"/>
-      <c r="J18" s="59"/>
-      <c r="K18" s="59"/>
-      <c r="L18" s="60"/>
-      <c r="M18" s="59"/>
-      <c r="N18" s="59"/>
-      <c r="O18" s="59"/>
-      <c r="P18" s="59"/>
-      <c r="Q18" s="59"/>
-      <c r="R18" s="59"/>
-      <c r="S18" s="60"/>
-      <c r="T18" s="59"/>
-      <c r="U18" s="59"/>
-      <c r="V18" s="68"/>
-      <c r="W18" s="68"/>
-      <c r="X18" s="68"/>
-      <c r="Y18" s="59"/>
-      <c r="Z18" s="60"/>
-      <c r="AA18" s="59"/>
-      <c r="AB18" s="59"/>
-      <c r="AC18" s="59"/>
-      <c r="AD18" s="59"/>
-      <c r="AE18" s="59"/>
-      <c r="AF18" s="59"/>
-      <c r="AG18" s="60"/>
-      <c r="AH18" s="59"/>
-      <c r="AI18" s="59"/>
-      <c r="AJ18" s="59"/>
-      <c r="AK18" s="59"/>
-      <c r="AL18" s="59"/>
-      <c r="AM18" s="59"/>
-      <c r="AN18" s="60"/>
-      <c r="AO18" s="61"/>
-      <c r="AP18" s="61"/>
-      <c r="AQ18" s="61"/>
-      <c r="AR18" s="61"/>
-      <c r="AS18" s="61"/>
-      <c r="AT18" s="61"/>
-      <c r="AU18" s="60"/>
-      <c r="AV18" s="61"/>
-      <c r="AW18" s="61"/>
-      <c r="AX18" s="61"/>
-      <c r="AY18" s="61"/>
-      <c r="AZ18" s="61"/>
-      <c r="BA18" s="61"/>
-      <c r="BB18" s="60"/>
-      <c r="BC18" s="61"/>
-      <c r="BD18" s="61"/>
-      <c r="BE18" s="61"/>
-      <c r="BF18" s="61"/>
-      <c r="BG18" s="61"/>
-      <c r="BH18" s="61"/>
-      <c r="BI18" s="60"/>
-      <c r="BJ18" s="61"/>
-      <c r="BK18" s="61"/>
-      <c r="BL18" s="61"/>
-      <c r="BM18" s="61"/>
-    </row>
-    <row r="19" spans="1:65" s="50" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="48" t="s">
+      <c r="F18" s="49"/>
+      <c r="G18" s="49"/>
+      <c r="H18" s="49"/>
+      <c r="I18" s="49"/>
+      <c r="J18" s="49"/>
+      <c r="K18" s="49"/>
+      <c r="L18" s="50"/>
+      <c r="M18" s="49"/>
+      <c r="N18" s="49"/>
+      <c r="O18" s="49"/>
+      <c r="P18" s="49"/>
+      <c r="Q18" s="49"/>
+      <c r="R18" s="49"/>
+      <c r="S18" s="50"/>
+      <c r="T18" s="49"/>
+      <c r="U18" s="49"/>
+      <c r="V18" s="58"/>
+      <c r="W18" s="58"/>
+      <c r="X18" s="58"/>
+      <c r="Y18" s="49"/>
+      <c r="Z18" s="50"/>
+      <c r="AA18" s="49"/>
+      <c r="AB18" s="49"/>
+      <c r="AC18" s="49"/>
+      <c r="AD18" s="49"/>
+      <c r="AE18" s="49"/>
+      <c r="AF18" s="49"/>
+      <c r="AG18" s="50"/>
+      <c r="AH18" s="49"/>
+      <c r="AI18" s="49"/>
+      <c r="AJ18" s="49"/>
+      <c r="AK18" s="49"/>
+      <c r="AL18" s="49"/>
+      <c r="AM18" s="49"/>
+      <c r="AN18" s="50"/>
+      <c r="AO18" s="51"/>
+      <c r="AP18" s="51"/>
+      <c r="AQ18" s="51"/>
+      <c r="AR18" s="51"/>
+      <c r="AS18" s="51"/>
+      <c r="AT18" s="51"/>
+      <c r="AU18" s="50"/>
+      <c r="AV18" s="51"/>
+      <c r="AW18" s="51"/>
+      <c r="AX18" s="51"/>
+      <c r="AY18" s="51"/>
+      <c r="AZ18" s="51"/>
+      <c r="BA18" s="51"/>
+      <c r="BB18" s="50"/>
+      <c r="BC18" s="51"/>
+      <c r="BD18" s="51"/>
+      <c r="BE18" s="51"/>
+      <c r="BF18" s="51"/>
+      <c r="BG18" s="51"/>
+      <c r="BH18" s="51"/>
+      <c r="BI18" s="50"/>
+      <c r="BJ18" s="51"/>
+      <c r="BK18" s="51"/>
+      <c r="BL18" s="51"/>
+      <c r="BM18" s="51"/>
+    </row>
+    <row r="19" spans="1:65" s="44" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="42" t="s">
         <v>71</v>
       </c>
-      <c r="B19" s="49" t="s">
+      <c r="B19" s="43" t="s">
         <v>72</v>
       </c>
       <c r="C19" s="36">
@@ -4959,66 +4959,66 @@
       <c r="E19" s="32">
         <v>3</v>
       </c>
-      <c r="F19" s="65"/>
-      <c r="G19" s="65"/>
-      <c r="H19" s="65"/>
-      <c r="I19" s="65"/>
-      <c r="J19" s="65"/>
-      <c r="K19" s="65"/>
-      <c r="L19" s="66"/>
-      <c r="M19" s="65"/>
-      <c r="N19" s="65"/>
-      <c r="O19" s="65"/>
-      <c r="P19" s="59"/>
-      <c r="Q19" s="59"/>
-      <c r="R19" s="59"/>
-      <c r="S19" s="66"/>
-      <c r="T19" s="59"/>
-      <c r="U19" s="59"/>
-      <c r="V19" s="59"/>
-      <c r="W19" s="59"/>
-      <c r="X19" s="68"/>
-      <c r="Y19" s="68"/>
-      <c r="Z19" s="66"/>
-      <c r="AA19" s="68"/>
-      <c r="AB19" s="65"/>
-      <c r="AC19" s="65"/>
-      <c r="AD19" s="65"/>
-      <c r="AE19" s="65"/>
-      <c r="AF19" s="65"/>
-      <c r="AG19" s="66"/>
-      <c r="AH19" s="65"/>
-      <c r="AI19" s="65"/>
-      <c r="AJ19" s="65"/>
-      <c r="AK19" s="65"/>
-      <c r="AL19" s="65"/>
-      <c r="AM19" s="65"/>
-      <c r="AN19" s="66"/>
-      <c r="AO19" s="67"/>
-      <c r="AP19" s="67"/>
-      <c r="AQ19" s="67"/>
-      <c r="AR19" s="67"/>
-      <c r="AS19" s="67"/>
-      <c r="AT19" s="67"/>
-      <c r="AU19" s="66"/>
-      <c r="AV19" s="67"/>
-      <c r="AW19" s="67"/>
-      <c r="AX19" s="67"/>
-      <c r="AY19" s="67"/>
-      <c r="AZ19" s="67"/>
-      <c r="BA19" s="67"/>
-      <c r="BB19" s="66"/>
-      <c r="BC19" s="67"/>
-      <c r="BD19" s="67"/>
-      <c r="BE19" s="67"/>
-      <c r="BF19" s="67"/>
-      <c r="BG19" s="67"/>
-      <c r="BH19" s="67"/>
-      <c r="BI19" s="66"/>
-      <c r="BJ19" s="67"/>
-      <c r="BK19" s="67"/>
-      <c r="BL19" s="67"/>
-      <c r="BM19" s="67"/>
+      <c r="F19" s="55"/>
+      <c r="G19" s="55"/>
+      <c r="H19" s="55"/>
+      <c r="I19" s="55"/>
+      <c r="J19" s="55"/>
+      <c r="K19" s="55"/>
+      <c r="L19" s="56"/>
+      <c r="M19" s="55"/>
+      <c r="N19" s="55"/>
+      <c r="O19" s="55"/>
+      <c r="P19" s="49"/>
+      <c r="Q19" s="49"/>
+      <c r="R19" s="49"/>
+      <c r="S19" s="56"/>
+      <c r="T19" s="49"/>
+      <c r="U19" s="49"/>
+      <c r="V19" s="49"/>
+      <c r="W19" s="49"/>
+      <c r="X19" s="58"/>
+      <c r="Y19" s="58"/>
+      <c r="Z19" s="56"/>
+      <c r="AA19" s="58"/>
+      <c r="AB19" s="55"/>
+      <c r="AC19" s="55"/>
+      <c r="AD19" s="55"/>
+      <c r="AE19" s="55"/>
+      <c r="AF19" s="55"/>
+      <c r="AG19" s="56"/>
+      <c r="AH19" s="55"/>
+      <c r="AI19" s="55"/>
+      <c r="AJ19" s="55"/>
+      <c r="AK19" s="55"/>
+      <c r="AL19" s="55"/>
+      <c r="AM19" s="55"/>
+      <c r="AN19" s="56"/>
+      <c r="AO19" s="57"/>
+      <c r="AP19" s="57"/>
+      <c r="AQ19" s="57"/>
+      <c r="AR19" s="57"/>
+      <c r="AS19" s="57"/>
+      <c r="AT19" s="57"/>
+      <c r="AU19" s="56"/>
+      <c r="AV19" s="57"/>
+      <c r="AW19" s="57"/>
+      <c r="AX19" s="57"/>
+      <c r="AY19" s="57"/>
+      <c r="AZ19" s="57"/>
+      <c r="BA19" s="57"/>
+      <c r="BB19" s="56"/>
+      <c r="BC19" s="57"/>
+      <c r="BD19" s="57"/>
+      <c r="BE19" s="57"/>
+      <c r="BF19" s="57"/>
+      <c r="BG19" s="57"/>
+      <c r="BH19" s="57"/>
+      <c r="BI19" s="56"/>
+      <c r="BJ19" s="57"/>
+      <c r="BK19" s="57"/>
+      <c r="BL19" s="57"/>
+      <c r="BM19" s="57"/>
     </row>
     <row r="20" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
@@ -5036,66 +5036,66 @@
       <c r="E20" s="32">
         <v>3</v>
       </c>
-      <c r="F20" s="59"/>
-      <c r="G20" s="59"/>
-      <c r="H20" s="59"/>
-      <c r="I20" s="59"/>
-      <c r="J20" s="59"/>
-      <c r="K20" s="59"/>
-      <c r="L20" s="60"/>
-      <c r="M20" s="59"/>
-      <c r="N20" s="59"/>
-      <c r="O20" s="59"/>
-      <c r="P20" s="59"/>
-      <c r="Q20" s="59"/>
-      <c r="R20" s="59"/>
-      <c r="S20" s="60"/>
-      <c r="T20" s="59"/>
-      <c r="U20" s="59"/>
-      <c r="V20" s="59"/>
-      <c r="W20" s="59"/>
-      <c r="X20" s="59"/>
-      <c r="Y20" s="59"/>
-      <c r="Z20" s="60"/>
-      <c r="AA20" s="69"/>
-      <c r="AB20" s="68"/>
-      <c r="AC20" s="68"/>
-      <c r="AD20" s="59"/>
-      <c r="AE20" s="59"/>
-      <c r="AF20" s="59"/>
-      <c r="AG20" s="60"/>
-      <c r="AH20" s="59"/>
-      <c r="AI20" s="59"/>
-      <c r="AJ20" s="59"/>
-      <c r="AK20" s="59"/>
-      <c r="AL20" s="59"/>
-      <c r="AM20" s="59"/>
-      <c r="AN20" s="60"/>
-      <c r="AO20" s="61"/>
-      <c r="AP20" s="61"/>
-      <c r="AQ20" s="61"/>
-      <c r="AR20" s="61"/>
-      <c r="AS20" s="61"/>
-      <c r="AT20" s="61"/>
-      <c r="AU20" s="60"/>
-      <c r="AV20" s="61"/>
-      <c r="AW20" s="61"/>
-      <c r="AX20" s="61"/>
-      <c r="AY20" s="61"/>
-      <c r="AZ20" s="61"/>
-      <c r="BA20" s="61"/>
-      <c r="BB20" s="60"/>
-      <c r="BC20" s="61"/>
-      <c r="BD20" s="61"/>
-      <c r="BE20" s="61"/>
-      <c r="BF20" s="61"/>
-      <c r="BG20" s="61"/>
-      <c r="BH20" s="61"/>
-      <c r="BI20" s="60"/>
-      <c r="BJ20" s="61"/>
-      <c r="BK20" s="61"/>
-      <c r="BL20" s="61"/>
-      <c r="BM20" s="61"/>
+      <c r="F20" s="49"/>
+      <c r="G20" s="49"/>
+      <c r="H20" s="49"/>
+      <c r="I20" s="49"/>
+      <c r="J20" s="49"/>
+      <c r="K20" s="49"/>
+      <c r="L20" s="50"/>
+      <c r="M20" s="49"/>
+      <c r="N20" s="49"/>
+      <c r="O20" s="49"/>
+      <c r="P20" s="49"/>
+      <c r="Q20" s="49"/>
+      <c r="R20" s="49"/>
+      <c r="S20" s="50"/>
+      <c r="T20" s="49"/>
+      <c r="U20" s="49"/>
+      <c r="V20" s="49"/>
+      <c r="W20" s="49"/>
+      <c r="X20" s="49"/>
+      <c r="Y20" s="49"/>
+      <c r="Z20" s="50"/>
+      <c r="AA20" s="59"/>
+      <c r="AB20" s="58"/>
+      <c r="AC20" s="58"/>
+      <c r="AD20" s="49"/>
+      <c r="AE20" s="49"/>
+      <c r="AF20" s="49"/>
+      <c r="AG20" s="50"/>
+      <c r="AH20" s="49"/>
+      <c r="AI20" s="49"/>
+      <c r="AJ20" s="49"/>
+      <c r="AK20" s="49"/>
+      <c r="AL20" s="49"/>
+      <c r="AM20" s="49"/>
+      <c r="AN20" s="50"/>
+      <c r="AO20" s="51"/>
+      <c r="AP20" s="51"/>
+      <c r="AQ20" s="51"/>
+      <c r="AR20" s="51"/>
+      <c r="AS20" s="51"/>
+      <c r="AT20" s="51"/>
+      <c r="AU20" s="50"/>
+      <c r="AV20" s="51"/>
+      <c r="AW20" s="51"/>
+      <c r="AX20" s="51"/>
+      <c r="AY20" s="51"/>
+      <c r="AZ20" s="51"/>
+      <c r="BA20" s="51"/>
+      <c r="BB20" s="50"/>
+      <c r="BC20" s="51"/>
+      <c r="BD20" s="51"/>
+      <c r="BE20" s="51"/>
+      <c r="BF20" s="51"/>
+      <c r="BG20" s="51"/>
+      <c r="BH20" s="51"/>
+      <c r="BI20" s="50"/>
+      <c r="BJ20" s="51"/>
+      <c r="BK20" s="51"/>
+      <c r="BL20" s="51"/>
+      <c r="BM20" s="51"/>
     </row>
     <row r="21" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
@@ -5113,66 +5113,66 @@
       <c r="E21" s="32">
         <v>3</v>
       </c>
-      <c r="F21" s="59"/>
-      <c r="G21" s="59"/>
-      <c r="H21" s="59"/>
-      <c r="I21" s="59"/>
-      <c r="J21" s="59"/>
-      <c r="K21" s="59"/>
-      <c r="L21" s="60"/>
-      <c r="M21" s="59"/>
-      <c r="N21" s="59"/>
-      <c r="O21" s="59"/>
-      <c r="P21" s="59"/>
-      <c r="Q21" s="59"/>
-      <c r="R21" s="59"/>
-      <c r="S21" s="60"/>
-      <c r="T21" s="59"/>
-      <c r="U21" s="59"/>
-      <c r="V21" s="59"/>
-      <c r="W21" s="59"/>
-      <c r="X21" s="59"/>
-      <c r="Y21" s="59"/>
-      <c r="Z21" s="60"/>
-      <c r="AA21" s="59"/>
-      <c r="AB21" s="59"/>
-      <c r="AC21" s="69"/>
-      <c r="AD21" s="68"/>
-      <c r="AE21" s="68"/>
-      <c r="AF21" s="59"/>
-      <c r="AG21" s="60"/>
-      <c r="AH21" s="59"/>
-      <c r="AI21" s="59"/>
-      <c r="AJ21" s="59"/>
-      <c r="AK21" s="59"/>
-      <c r="AL21" s="59"/>
-      <c r="AM21" s="59"/>
-      <c r="AN21" s="60"/>
-      <c r="AO21" s="61"/>
-      <c r="AP21" s="61"/>
-      <c r="AQ21" s="61"/>
-      <c r="AR21" s="61"/>
-      <c r="AS21" s="61"/>
-      <c r="AT21" s="61"/>
-      <c r="AU21" s="60"/>
-      <c r="AV21" s="61"/>
-      <c r="AW21" s="61"/>
-      <c r="AX21" s="61"/>
-      <c r="AY21" s="61"/>
-      <c r="AZ21" s="61"/>
-      <c r="BA21" s="61"/>
-      <c r="BB21" s="60"/>
-      <c r="BC21" s="61"/>
-      <c r="BD21" s="61"/>
-      <c r="BE21" s="61"/>
-      <c r="BF21" s="61"/>
-      <c r="BG21" s="61"/>
-      <c r="BH21" s="61"/>
-      <c r="BI21" s="60"/>
-      <c r="BJ21" s="61"/>
-      <c r="BK21" s="61"/>
-      <c r="BL21" s="61"/>
-      <c r="BM21" s="61"/>
+      <c r="F21" s="49"/>
+      <c r="G21" s="49"/>
+      <c r="H21" s="49"/>
+      <c r="I21" s="49"/>
+      <c r="J21" s="49"/>
+      <c r="K21" s="49"/>
+      <c r="L21" s="50"/>
+      <c r="M21" s="49"/>
+      <c r="N21" s="49"/>
+      <c r="O21" s="49"/>
+      <c r="P21" s="49"/>
+      <c r="Q21" s="49"/>
+      <c r="R21" s="49"/>
+      <c r="S21" s="50"/>
+      <c r="T21" s="49"/>
+      <c r="U21" s="49"/>
+      <c r="V21" s="49"/>
+      <c r="W21" s="49"/>
+      <c r="X21" s="49"/>
+      <c r="Y21" s="49"/>
+      <c r="Z21" s="50"/>
+      <c r="AA21" s="49"/>
+      <c r="AB21" s="49"/>
+      <c r="AC21" s="59"/>
+      <c r="AD21" s="58"/>
+      <c r="AE21" s="58"/>
+      <c r="AF21" s="49"/>
+      <c r="AG21" s="50"/>
+      <c r="AH21" s="49"/>
+      <c r="AI21" s="49"/>
+      <c r="AJ21" s="49"/>
+      <c r="AK21" s="49"/>
+      <c r="AL21" s="49"/>
+      <c r="AM21" s="49"/>
+      <c r="AN21" s="50"/>
+      <c r="AO21" s="51"/>
+      <c r="AP21" s="51"/>
+      <c r="AQ21" s="51"/>
+      <c r="AR21" s="51"/>
+      <c r="AS21" s="51"/>
+      <c r="AT21" s="51"/>
+      <c r="AU21" s="50"/>
+      <c r="AV21" s="51"/>
+      <c r="AW21" s="51"/>
+      <c r="AX21" s="51"/>
+      <c r="AY21" s="51"/>
+      <c r="AZ21" s="51"/>
+      <c r="BA21" s="51"/>
+      <c r="BB21" s="50"/>
+      <c r="BC21" s="51"/>
+      <c r="BD21" s="51"/>
+      <c r="BE21" s="51"/>
+      <c r="BF21" s="51"/>
+      <c r="BG21" s="51"/>
+      <c r="BH21" s="51"/>
+      <c r="BI21" s="50"/>
+      <c r="BJ21" s="51"/>
+      <c r="BK21" s="51"/>
+      <c r="BL21" s="51"/>
+      <c r="BM21" s="51"/>
     </row>
     <row r="22" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
@@ -5190,135 +5190,135 @@
       <c r="E22" s="32">
         <v>3</v>
       </c>
-      <c r="F22" s="59"/>
-      <c r="G22" s="59"/>
-      <c r="H22" s="59"/>
-      <c r="I22" s="59"/>
-      <c r="J22" s="59"/>
-      <c r="K22" s="59"/>
-      <c r="L22" s="60"/>
-      <c r="M22" s="59"/>
-      <c r="N22" s="59"/>
-      <c r="O22" s="59"/>
-      <c r="P22" s="59"/>
-      <c r="Q22" s="59"/>
-      <c r="R22" s="59"/>
-      <c r="S22" s="60"/>
-      <c r="T22" s="59"/>
-      <c r="U22" s="59"/>
-      <c r="V22" s="59"/>
-      <c r="W22" s="59"/>
-      <c r="X22" s="59"/>
-      <c r="Y22" s="59"/>
-      <c r="Z22" s="60"/>
-      <c r="AA22" s="59"/>
-      <c r="AB22" s="59"/>
-      <c r="AC22" s="59"/>
-      <c r="AD22" s="59"/>
-      <c r="AE22" s="68"/>
-      <c r="AF22" s="68"/>
-      <c r="AG22" s="60"/>
-      <c r="AH22" s="68"/>
-      <c r="AI22" s="59"/>
-      <c r="AJ22" s="59"/>
-      <c r="AK22" s="59"/>
-      <c r="AL22" s="59"/>
-      <c r="AM22" s="59"/>
-      <c r="AN22" s="60"/>
-      <c r="AO22" s="61"/>
-      <c r="AP22" s="61"/>
-      <c r="AQ22" s="61"/>
-      <c r="AR22" s="61"/>
-      <c r="AS22" s="61"/>
-      <c r="AT22" s="61"/>
-      <c r="AU22" s="60"/>
-      <c r="AV22" s="61"/>
-      <c r="AW22" s="61"/>
-      <c r="AX22" s="61"/>
-      <c r="AY22" s="61"/>
-      <c r="AZ22" s="61"/>
-      <c r="BA22" s="61"/>
-      <c r="BB22" s="60"/>
-      <c r="BC22" s="61"/>
-      <c r="BD22" s="61"/>
-      <c r="BE22" s="61"/>
-      <c r="BF22" s="61"/>
-      <c r="BG22" s="61"/>
-      <c r="BH22" s="61"/>
-      <c r="BI22" s="60"/>
-      <c r="BJ22" s="61"/>
-      <c r="BK22" s="61"/>
-      <c r="BL22" s="61"/>
-      <c r="BM22" s="61"/>
-    </row>
-    <row r="23" spans="1:65" s="47" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F22" s="49"/>
+      <c r="G22" s="49"/>
+      <c r="H22" s="49"/>
+      <c r="I22" s="49"/>
+      <c r="J22" s="49"/>
+      <c r="K22" s="49"/>
+      <c r="L22" s="50"/>
+      <c r="M22" s="49"/>
+      <c r="N22" s="49"/>
+      <c r="O22" s="49"/>
+      <c r="P22" s="49"/>
+      <c r="Q22" s="49"/>
+      <c r="R22" s="49"/>
+      <c r="S22" s="50"/>
+      <c r="T22" s="49"/>
+      <c r="U22" s="49"/>
+      <c r="V22" s="49"/>
+      <c r="W22" s="49"/>
+      <c r="X22" s="49"/>
+      <c r="Y22" s="49"/>
+      <c r="Z22" s="50"/>
+      <c r="AA22" s="49"/>
+      <c r="AB22" s="49"/>
+      <c r="AC22" s="49"/>
+      <c r="AD22" s="49"/>
+      <c r="AE22" s="58"/>
+      <c r="AF22" s="58"/>
+      <c r="AG22" s="50"/>
+      <c r="AH22" s="58"/>
+      <c r="AI22" s="49"/>
+      <c r="AJ22" s="49"/>
+      <c r="AK22" s="49"/>
+      <c r="AL22" s="49"/>
+      <c r="AM22" s="49"/>
+      <c r="AN22" s="50"/>
+      <c r="AO22" s="51"/>
+      <c r="AP22" s="51"/>
+      <c r="AQ22" s="51"/>
+      <c r="AR22" s="51"/>
+      <c r="AS22" s="51"/>
+      <c r="AT22" s="51"/>
+      <c r="AU22" s="50"/>
+      <c r="AV22" s="51"/>
+      <c r="AW22" s="51"/>
+      <c r="AX22" s="51"/>
+      <c r="AY22" s="51"/>
+      <c r="AZ22" s="51"/>
+      <c r="BA22" s="51"/>
+      <c r="BB22" s="50"/>
+      <c r="BC22" s="51"/>
+      <c r="BD22" s="51"/>
+      <c r="BE22" s="51"/>
+      <c r="BF22" s="51"/>
+      <c r="BG22" s="51"/>
+      <c r="BH22" s="51"/>
+      <c r="BI22" s="50"/>
+      <c r="BJ22" s="51"/>
+      <c r="BK22" s="51"/>
+      <c r="BL22" s="51"/>
+      <c r="BM22" s="51"/>
+    </row>
+    <row r="23" spans="1:65" s="41" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="33">
         <v>3</v>
       </c>
       <c r="B23" s="34" t="s">
         <v>134</v>
       </c>
-      <c r="E23" s="62"/>
-      <c r="F23" s="62"/>
-      <c r="G23" s="62"/>
-      <c r="H23" s="62"/>
-      <c r="I23" s="62"/>
-      <c r="J23" s="62"/>
-      <c r="K23" s="62"/>
-      <c r="L23" s="60"/>
-      <c r="M23" s="62"/>
-      <c r="N23" s="62"/>
-      <c r="O23" s="62"/>
-      <c r="P23" s="62"/>
-      <c r="Q23" s="62"/>
-      <c r="R23" s="62"/>
-      <c r="S23" s="60"/>
-      <c r="T23" s="62"/>
-      <c r="U23" s="62"/>
-      <c r="V23" s="63"/>
-      <c r="W23" s="63"/>
-      <c r="X23" s="62"/>
-      <c r="Y23" s="62"/>
-      <c r="Z23" s="60"/>
-      <c r="AA23" s="62"/>
-      <c r="AB23" s="62"/>
-      <c r="AC23" s="62"/>
-      <c r="AD23" s="62"/>
-      <c r="AE23" s="62"/>
-      <c r="AF23" s="62"/>
-      <c r="AG23" s="60"/>
-      <c r="AH23" s="62"/>
-      <c r="AI23" s="62"/>
-      <c r="AJ23" s="62"/>
-      <c r="AK23" s="62"/>
-      <c r="AL23" s="62"/>
-      <c r="AM23" s="62"/>
-      <c r="AN23" s="60"/>
-      <c r="AO23" s="64"/>
-      <c r="AP23" s="64"/>
-      <c r="AQ23" s="64"/>
-      <c r="AR23" s="64"/>
-      <c r="AS23" s="64"/>
-      <c r="AT23" s="64"/>
-      <c r="AU23" s="60"/>
-      <c r="AV23" s="64"/>
-      <c r="AW23" s="64"/>
-      <c r="AX23" s="64"/>
-      <c r="AY23" s="64"/>
-      <c r="AZ23" s="64"/>
-      <c r="BA23" s="64"/>
-      <c r="BB23" s="60"/>
-      <c r="BC23" s="64"/>
-      <c r="BD23" s="64"/>
-      <c r="BE23" s="64"/>
-      <c r="BF23" s="64"/>
-      <c r="BG23" s="64"/>
-      <c r="BH23" s="64"/>
-      <c r="BI23" s="60"/>
-      <c r="BJ23" s="64"/>
-      <c r="BK23" s="64"/>
-      <c r="BL23" s="64"/>
-      <c r="BM23" s="64"/>
+      <c r="E23" s="52"/>
+      <c r="F23" s="52"/>
+      <c r="G23" s="52"/>
+      <c r="H23" s="52"/>
+      <c r="I23" s="52"/>
+      <c r="J23" s="52"/>
+      <c r="K23" s="52"/>
+      <c r="L23" s="50"/>
+      <c r="M23" s="52"/>
+      <c r="N23" s="52"/>
+      <c r="O23" s="52"/>
+      <c r="P23" s="52"/>
+      <c r="Q23" s="52"/>
+      <c r="R23" s="52"/>
+      <c r="S23" s="50"/>
+      <c r="T23" s="52"/>
+      <c r="U23" s="52"/>
+      <c r="V23" s="53"/>
+      <c r="W23" s="53"/>
+      <c r="X23" s="52"/>
+      <c r="Y23" s="52"/>
+      <c r="Z23" s="50"/>
+      <c r="AA23" s="52"/>
+      <c r="AB23" s="52"/>
+      <c r="AC23" s="52"/>
+      <c r="AD23" s="52"/>
+      <c r="AE23" s="52"/>
+      <c r="AF23" s="52"/>
+      <c r="AG23" s="50"/>
+      <c r="AH23" s="52"/>
+      <c r="AI23" s="52"/>
+      <c r="AJ23" s="52"/>
+      <c r="AK23" s="52"/>
+      <c r="AL23" s="52"/>
+      <c r="AM23" s="52"/>
+      <c r="AN23" s="50"/>
+      <c r="AO23" s="54"/>
+      <c r="AP23" s="54"/>
+      <c r="AQ23" s="54"/>
+      <c r="AR23" s="54"/>
+      <c r="AS23" s="54"/>
+      <c r="AT23" s="54"/>
+      <c r="AU23" s="50"/>
+      <c r="AV23" s="54"/>
+      <c r="AW23" s="54"/>
+      <c r="AX23" s="54"/>
+      <c r="AY23" s="54"/>
+      <c r="AZ23" s="54"/>
+      <c r="BA23" s="54"/>
+      <c r="BB23" s="50"/>
+      <c r="BC23" s="54"/>
+      <c r="BD23" s="54"/>
+      <c r="BE23" s="54"/>
+      <c r="BF23" s="54"/>
+      <c r="BG23" s="54"/>
+      <c r="BH23" s="54"/>
+      <c r="BI23" s="50"/>
+      <c r="BJ23" s="54"/>
+      <c r="BK23" s="54"/>
+      <c r="BL23" s="54"/>
+      <c r="BM23" s="54"/>
     </row>
     <row r="24" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
@@ -5336,72 +5336,72 @@
       <c r="E24" s="32">
         <v>3</v>
       </c>
-      <c r="F24" s="59"/>
-      <c r="G24" s="59"/>
-      <c r="H24" s="59"/>
-      <c r="I24" s="59"/>
-      <c r="J24" s="59"/>
-      <c r="K24" s="59"/>
-      <c r="L24" s="60"/>
-      <c r="M24" s="59"/>
-      <c r="N24" s="59"/>
-      <c r="O24" s="59"/>
-      <c r="P24" s="59"/>
-      <c r="Q24" s="59"/>
-      <c r="R24" s="59"/>
-      <c r="S24" s="60"/>
-      <c r="T24" s="59"/>
-      <c r="U24" s="59"/>
-      <c r="V24" s="59"/>
-      <c r="W24" s="59"/>
-      <c r="X24" s="59"/>
-      <c r="Y24" s="59"/>
-      <c r="Z24" s="60"/>
-      <c r="AA24" s="65"/>
-      <c r="AB24" s="65"/>
-      <c r="AC24" s="65"/>
-      <c r="AD24" s="65"/>
-      <c r="AE24" s="65"/>
-      <c r="AF24" s="65"/>
-      <c r="AG24" s="60"/>
-      <c r="AH24" s="68"/>
-      <c r="AI24" s="68"/>
-      <c r="AJ24" s="68"/>
-      <c r="AK24" s="59"/>
-      <c r="AL24" s="59"/>
-      <c r="AM24" s="59"/>
-      <c r="AN24" s="60"/>
-      <c r="AO24" s="61"/>
-      <c r="AP24" s="61"/>
-      <c r="AQ24" s="61"/>
-      <c r="AR24" s="61"/>
-      <c r="AS24" s="61"/>
-      <c r="AT24" s="61"/>
-      <c r="AU24" s="60"/>
-      <c r="AV24" s="61"/>
-      <c r="AW24" s="61"/>
-      <c r="AX24" s="61"/>
-      <c r="AY24" s="61"/>
-      <c r="AZ24" s="61"/>
-      <c r="BA24" s="61"/>
-      <c r="BB24" s="60"/>
-      <c r="BC24" s="61"/>
-      <c r="BD24" s="61"/>
-      <c r="BE24" s="61"/>
-      <c r="BF24" s="61"/>
-      <c r="BG24" s="61"/>
-      <c r="BH24" s="61"/>
-      <c r="BI24" s="60"/>
-      <c r="BJ24" s="61"/>
-      <c r="BK24" s="61"/>
-      <c r="BL24" s="61"/>
-      <c r="BM24" s="61"/>
-    </row>
-    <row r="25" spans="1:65" s="50" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="48" t="s">
+      <c r="F24" s="49"/>
+      <c r="G24" s="49"/>
+      <c r="H24" s="49"/>
+      <c r="I24" s="49"/>
+      <c r="J24" s="49"/>
+      <c r="K24" s="49"/>
+      <c r="L24" s="50"/>
+      <c r="M24" s="49"/>
+      <c r="N24" s="49"/>
+      <c r="O24" s="49"/>
+      <c r="P24" s="49"/>
+      <c r="Q24" s="49"/>
+      <c r="R24" s="49"/>
+      <c r="S24" s="50"/>
+      <c r="T24" s="49"/>
+      <c r="U24" s="49"/>
+      <c r="V24" s="49"/>
+      <c r="W24" s="49"/>
+      <c r="X24" s="49"/>
+      <c r="Y24" s="49"/>
+      <c r="Z24" s="50"/>
+      <c r="AA24" s="55"/>
+      <c r="AB24" s="55"/>
+      <c r="AC24" s="55"/>
+      <c r="AD24" s="55"/>
+      <c r="AE24" s="55"/>
+      <c r="AF24" s="55"/>
+      <c r="AG24" s="50"/>
+      <c r="AH24" s="58"/>
+      <c r="AI24" s="58"/>
+      <c r="AJ24" s="58"/>
+      <c r="AK24" s="49"/>
+      <c r="AL24" s="49"/>
+      <c r="AM24" s="49"/>
+      <c r="AN24" s="50"/>
+      <c r="AO24" s="51"/>
+      <c r="AP24" s="51"/>
+      <c r="AQ24" s="51"/>
+      <c r="AR24" s="51"/>
+      <c r="AS24" s="51"/>
+      <c r="AT24" s="51"/>
+      <c r="AU24" s="50"/>
+      <c r="AV24" s="51"/>
+      <c r="AW24" s="51"/>
+      <c r="AX24" s="51"/>
+      <c r="AY24" s="51"/>
+      <c r="AZ24" s="51"/>
+      <c r="BA24" s="51"/>
+      <c r="BB24" s="50"/>
+      <c r="BC24" s="51"/>
+      <c r="BD24" s="51"/>
+      <c r="BE24" s="51"/>
+      <c r="BF24" s="51"/>
+      <c r="BG24" s="51"/>
+      <c r="BH24" s="51"/>
+      <c r="BI24" s="50"/>
+      <c r="BJ24" s="51"/>
+      <c r="BK24" s="51"/>
+      <c r="BL24" s="51"/>
+      <c r="BM24" s="51"/>
+    </row>
+    <row r="25" spans="1:65" s="44" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="42" t="s">
         <v>81</v>
       </c>
-      <c r="B25" s="49" t="s">
+      <c r="B25" s="43" t="s">
         <v>82</v>
       </c>
       <c r="C25" s="36">
@@ -5413,66 +5413,66 @@
       <c r="E25" s="32">
         <v>3</v>
       </c>
-      <c r="F25" s="65"/>
-      <c r="G25" s="65"/>
-      <c r="H25" s="65"/>
-      <c r="I25" s="65"/>
-      <c r="J25" s="65"/>
-      <c r="K25" s="65"/>
-      <c r="L25" s="66"/>
-      <c r="M25" s="65"/>
-      <c r="N25" s="65"/>
-      <c r="O25" s="65"/>
-      <c r="P25" s="65"/>
-      <c r="Q25" s="65"/>
-      <c r="R25" s="65"/>
-      <c r="S25" s="66"/>
-      <c r="T25" s="65"/>
-      <c r="U25" s="65"/>
-      <c r="V25" s="65"/>
-      <c r="W25" s="65"/>
-      <c r="X25" s="65"/>
-      <c r="Y25" s="65"/>
-      <c r="Z25" s="66"/>
-      <c r="AA25" s="65"/>
-      <c r="AB25" s="65"/>
-      <c r="AC25" s="65"/>
-      <c r="AD25" s="65"/>
-      <c r="AE25" s="65"/>
-      <c r="AF25" s="65"/>
-      <c r="AG25" s="66"/>
-      <c r="AH25" s="65"/>
-      <c r="AI25" s="65"/>
-      <c r="AJ25" s="68"/>
-      <c r="AK25" s="68"/>
-      <c r="AL25" s="68"/>
-      <c r="AM25" s="65"/>
-      <c r="AN25" s="66"/>
-      <c r="AO25" s="67"/>
-      <c r="AP25" s="67"/>
-      <c r="AQ25" s="67"/>
-      <c r="AR25" s="67"/>
-      <c r="AS25" s="67"/>
-      <c r="AT25" s="67"/>
-      <c r="AU25" s="66"/>
-      <c r="AV25" s="67"/>
-      <c r="AW25" s="67"/>
-      <c r="AX25" s="67"/>
-      <c r="AY25" s="67"/>
-      <c r="AZ25" s="67"/>
-      <c r="BA25" s="67"/>
-      <c r="BB25" s="66"/>
-      <c r="BC25" s="67"/>
-      <c r="BD25" s="67"/>
-      <c r="BE25" s="67"/>
-      <c r="BF25" s="67"/>
-      <c r="BG25" s="67"/>
-      <c r="BH25" s="67"/>
-      <c r="BI25" s="66"/>
-      <c r="BJ25" s="67"/>
-      <c r="BK25" s="67"/>
-      <c r="BL25" s="67"/>
-      <c r="BM25" s="67"/>
+      <c r="F25" s="55"/>
+      <c r="G25" s="55"/>
+      <c r="H25" s="55"/>
+      <c r="I25" s="55"/>
+      <c r="J25" s="55"/>
+      <c r="K25" s="55"/>
+      <c r="L25" s="56"/>
+      <c r="M25" s="55"/>
+      <c r="N25" s="55"/>
+      <c r="O25" s="55"/>
+      <c r="P25" s="55"/>
+      <c r="Q25" s="55"/>
+      <c r="R25" s="55"/>
+      <c r="S25" s="56"/>
+      <c r="T25" s="55"/>
+      <c r="U25" s="55"/>
+      <c r="V25" s="55"/>
+      <c r="W25" s="55"/>
+      <c r="X25" s="55"/>
+      <c r="Y25" s="55"/>
+      <c r="Z25" s="56"/>
+      <c r="AA25" s="55"/>
+      <c r="AB25" s="55"/>
+      <c r="AC25" s="55"/>
+      <c r="AD25" s="55"/>
+      <c r="AE25" s="55"/>
+      <c r="AF25" s="55"/>
+      <c r="AG25" s="56"/>
+      <c r="AH25" s="55"/>
+      <c r="AI25" s="55"/>
+      <c r="AJ25" s="58"/>
+      <c r="AK25" s="58"/>
+      <c r="AL25" s="58"/>
+      <c r="AM25" s="55"/>
+      <c r="AN25" s="56"/>
+      <c r="AO25" s="57"/>
+      <c r="AP25" s="57"/>
+      <c r="AQ25" s="57"/>
+      <c r="AR25" s="57"/>
+      <c r="AS25" s="57"/>
+      <c r="AT25" s="57"/>
+      <c r="AU25" s="56"/>
+      <c r="AV25" s="57"/>
+      <c r="AW25" s="57"/>
+      <c r="AX25" s="57"/>
+      <c r="AY25" s="57"/>
+      <c r="AZ25" s="57"/>
+      <c r="BA25" s="57"/>
+      <c r="BB25" s="56"/>
+      <c r="BC25" s="57"/>
+      <c r="BD25" s="57"/>
+      <c r="BE25" s="57"/>
+      <c r="BF25" s="57"/>
+      <c r="BG25" s="57"/>
+      <c r="BH25" s="57"/>
+      <c r="BI25" s="56"/>
+      <c r="BJ25" s="57"/>
+      <c r="BK25" s="57"/>
+      <c r="BL25" s="57"/>
+      <c r="BM25" s="57"/>
     </row>
     <row r="26" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
@@ -5490,66 +5490,66 @@
       <c r="E26" s="32">
         <v>5</v>
       </c>
-      <c r="F26" s="59"/>
-      <c r="G26" s="59"/>
-      <c r="H26" s="59"/>
-      <c r="I26" s="59"/>
-      <c r="J26" s="59"/>
-      <c r="K26" s="59"/>
-      <c r="L26" s="60"/>
-      <c r="M26" s="59"/>
-      <c r="N26" s="59"/>
-      <c r="O26" s="59"/>
-      <c r="P26" s="59"/>
-      <c r="Q26" s="59"/>
-      <c r="R26" s="59"/>
-      <c r="S26" s="60"/>
-      <c r="T26" s="59"/>
-      <c r="U26" s="59"/>
-      <c r="V26" s="59"/>
-      <c r="W26" s="59"/>
-      <c r="X26" s="59"/>
-      <c r="Y26" s="59"/>
-      <c r="Z26" s="60"/>
-      <c r="AA26" s="65"/>
-      <c r="AB26" s="65"/>
-      <c r="AC26" s="65"/>
-      <c r="AD26" s="65"/>
-      <c r="AE26" s="65"/>
-      <c r="AF26" s="65"/>
-      <c r="AG26" s="60"/>
-      <c r="AH26" s="59"/>
-      <c r="AI26" s="59"/>
-      <c r="AJ26" s="59"/>
-      <c r="AK26" s="59"/>
-      <c r="AL26" s="68"/>
-      <c r="AM26" s="68"/>
-      <c r="AN26" s="60"/>
-      <c r="AO26" s="68"/>
-      <c r="AP26" s="68"/>
-      <c r="AQ26" s="68"/>
-      <c r="AR26" s="61"/>
-      <c r="AS26" s="61"/>
-      <c r="AT26" s="61"/>
-      <c r="AU26" s="60"/>
-      <c r="AV26" s="61"/>
-      <c r="AW26" s="61"/>
-      <c r="AX26" s="61"/>
-      <c r="AY26" s="61"/>
-      <c r="AZ26" s="61"/>
-      <c r="BA26" s="61"/>
-      <c r="BB26" s="60"/>
-      <c r="BC26" s="61"/>
-      <c r="BD26" s="61"/>
-      <c r="BE26" s="61"/>
-      <c r="BF26" s="61"/>
-      <c r="BG26" s="61"/>
-      <c r="BH26" s="61"/>
-      <c r="BI26" s="60"/>
-      <c r="BJ26" s="61"/>
-      <c r="BK26" s="61"/>
-      <c r="BL26" s="61"/>
-      <c r="BM26" s="61"/>
+      <c r="F26" s="49"/>
+      <c r="G26" s="49"/>
+      <c r="H26" s="49"/>
+      <c r="I26" s="49"/>
+      <c r="J26" s="49"/>
+      <c r="K26" s="49"/>
+      <c r="L26" s="50"/>
+      <c r="M26" s="49"/>
+      <c r="N26" s="49"/>
+      <c r="O26" s="49"/>
+      <c r="P26" s="49"/>
+      <c r="Q26" s="49"/>
+      <c r="R26" s="49"/>
+      <c r="S26" s="50"/>
+      <c r="T26" s="49"/>
+      <c r="U26" s="49"/>
+      <c r="V26" s="49"/>
+      <c r="W26" s="49"/>
+      <c r="X26" s="49"/>
+      <c r="Y26" s="49"/>
+      <c r="Z26" s="50"/>
+      <c r="AA26" s="55"/>
+      <c r="AB26" s="55"/>
+      <c r="AC26" s="55"/>
+      <c r="AD26" s="55"/>
+      <c r="AE26" s="55"/>
+      <c r="AF26" s="55"/>
+      <c r="AG26" s="50"/>
+      <c r="AH26" s="49"/>
+      <c r="AI26" s="49"/>
+      <c r="AJ26" s="49"/>
+      <c r="AK26" s="49"/>
+      <c r="AL26" s="58"/>
+      <c r="AM26" s="58"/>
+      <c r="AN26" s="50"/>
+      <c r="AO26" s="58"/>
+      <c r="AP26" s="58"/>
+      <c r="AQ26" s="58"/>
+      <c r="AR26" s="51"/>
+      <c r="AS26" s="51"/>
+      <c r="AT26" s="51"/>
+      <c r="AU26" s="50"/>
+      <c r="AV26" s="51"/>
+      <c r="AW26" s="51"/>
+      <c r="AX26" s="51"/>
+      <c r="AY26" s="51"/>
+      <c r="AZ26" s="51"/>
+      <c r="BA26" s="51"/>
+      <c r="BB26" s="50"/>
+      <c r="BC26" s="51"/>
+      <c r="BD26" s="51"/>
+      <c r="BE26" s="51"/>
+      <c r="BF26" s="51"/>
+      <c r="BG26" s="51"/>
+      <c r="BH26" s="51"/>
+      <c r="BI26" s="50"/>
+      <c r="BJ26" s="51"/>
+      <c r="BK26" s="51"/>
+      <c r="BL26" s="51"/>
+      <c r="BM26" s="51"/>
     </row>
     <row r="27" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
@@ -5568,66 +5568,66 @@
       <c r="E27" s="32">
         <v>3</v>
       </c>
-      <c r="F27" s="59"/>
-      <c r="G27" s="59"/>
-      <c r="H27" s="59"/>
-      <c r="I27" s="59"/>
-      <c r="J27" s="59"/>
-      <c r="K27" s="59"/>
-      <c r="L27" s="60"/>
-      <c r="M27" s="59"/>
-      <c r="N27" s="59"/>
-      <c r="O27" s="59"/>
-      <c r="P27" s="59"/>
-      <c r="Q27" s="59"/>
-      <c r="R27" s="59"/>
-      <c r="S27" s="60"/>
-      <c r="T27" s="59"/>
-      <c r="U27" s="59"/>
-      <c r="V27" s="59"/>
-      <c r="W27" s="59"/>
-      <c r="X27" s="59"/>
-      <c r="Y27" s="59"/>
-      <c r="Z27" s="60"/>
-      <c r="AA27" s="65"/>
-      <c r="AB27" s="65"/>
-      <c r="AC27" s="65"/>
-      <c r="AD27" s="65"/>
-      <c r="AE27" s="65"/>
-      <c r="AF27" s="65"/>
-      <c r="AG27" s="60"/>
-      <c r="AH27" s="59"/>
-      <c r="AI27" s="59"/>
-      <c r="AJ27" s="59"/>
-      <c r="AK27" s="59"/>
-      <c r="AL27" s="59"/>
-      <c r="AM27" s="59"/>
-      <c r="AN27" s="60"/>
-      <c r="AO27" s="61"/>
-      <c r="AP27" s="61"/>
-      <c r="AQ27" s="68"/>
-      <c r="AR27" s="68"/>
-      <c r="AS27" s="68"/>
-      <c r="AT27" s="61"/>
-      <c r="AU27" s="60"/>
-      <c r="AV27" s="61"/>
-      <c r="AW27" s="61"/>
-      <c r="AX27" s="61"/>
-      <c r="AY27" s="61"/>
-      <c r="AZ27" s="61"/>
-      <c r="BA27" s="61"/>
-      <c r="BB27" s="60"/>
-      <c r="BC27" s="61"/>
-      <c r="BD27" s="61"/>
-      <c r="BE27" s="61"/>
-      <c r="BF27" s="61"/>
-      <c r="BG27" s="61"/>
-      <c r="BH27" s="61"/>
-      <c r="BI27" s="60"/>
-      <c r="BJ27" s="61"/>
-      <c r="BK27" s="61"/>
-      <c r="BL27" s="61"/>
-      <c r="BM27" s="61"/>
+      <c r="F27" s="49"/>
+      <c r="G27" s="49"/>
+      <c r="H27" s="49"/>
+      <c r="I27" s="49"/>
+      <c r="J27" s="49"/>
+      <c r="K27" s="49"/>
+      <c r="L27" s="50"/>
+      <c r="M27" s="49"/>
+      <c r="N27" s="49"/>
+      <c r="O27" s="49"/>
+      <c r="P27" s="49"/>
+      <c r="Q27" s="49"/>
+      <c r="R27" s="49"/>
+      <c r="S27" s="50"/>
+      <c r="T27" s="49"/>
+      <c r="U27" s="49"/>
+      <c r="V27" s="49"/>
+      <c r="W27" s="49"/>
+      <c r="X27" s="49"/>
+      <c r="Y27" s="49"/>
+      <c r="Z27" s="50"/>
+      <c r="AA27" s="55"/>
+      <c r="AB27" s="55"/>
+      <c r="AC27" s="55"/>
+      <c r="AD27" s="55"/>
+      <c r="AE27" s="55"/>
+      <c r="AF27" s="55"/>
+      <c r="AG27" s="50"/>
+      <c r="AH27" s="49"/>
+      <c r="AI27" s="49"/>
+      <c r="AJ27" s="49"/>
+      <c r="AK27" s="49"/>
+      <c r="AL27" s="49"/>
+      <c r="AM27" s="49"/>
+      <c r="AN27" s="50"/>
+      <c r="AO27" s="51"/>
+      <c r="AP27" s="51"/>
+      <c r="AQ27" s="58"/>
+      <c r="AR27" s="58"/>
+      <c r="AS27" s="58"/>
+      <c r="AT27" s="51"/>
+      <c r="AU27" s="50"/>
+      <c r="AV27" s="51"/>
+      <c r="AW27" s="51"/>
+      <c r="AX27" s="51"/>
+      <c r="AY27" s="51"/>
+      <c r="AZ27" s="51"/>
+      <c r="BA27" s="51"/>
+      <c r="BB27" s="50"/>
+      <c r="BC27" s="51"/>
+      <c r="BD27" s="51"/>
+      <c r="BE27" s="51"/>
+      <c r="BF27" s="51"/>
+      <c r="BG27" s="51"/>
+      <c r="BH27" s="51"/>
+      <c r="BI27" s="50"/>
+      <c r="BJ27" s="51"/>
+      <c r="BK27" s="51"/>
+      <c r="BL27" s="51"/>
+      <c r="BM27" s="51"/>
     </row>
     <row r="28" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
@@ -5646,66 +5646,66 @@
       <c r="E28" s="32">
         <v>3</v>
       </c>
-      <c r="F28" s="59"/>
-      <c r="G28" s="59"/>
-      <c r="H28" s="59"/>
-      <c r="I28" s="59"/>
-      <c r="J28" s="59"/>
-      <c r="K28" s="59"/>
-      <c r="L28" s="60"/>
-      <c r="M28" s="59"/>
-      <c r="N28" s="59"/>
-      <c r="O28" s="59"/>
-      <c r="P28" s="59"/>
-      <c r="Q28" s="59"/>
-      <c r="R28" s="59"/>
-      <c r="S28" s="60"/>
-      <c r="T28" s="59"/>
-      <c r="U28" s="59"/>
-      <c r="V28" s="59"/>
-      <c r="W28" s="59"/>
-      <c r="X28" s="59"/>
-      <c r="Y28" s="59"/>
-      <c r="Z28" s="60"/>
-      <c r="AA28" s="65"/>
-      <c r="AB28" s="65"/>
-      <c r="AC28" s="65"/>
-      <c r="AD28" s="65"/>
-      <c r="AE28" s="65"/>
-      <c r="AF28" s="65"/>
-      <c r="AG28" s="60"/>
-      <c r="AH28" s="59"/>
-      <c r="AI28" s="59"/>
-      <c r="AJ28" s="59"/>
-      <c r="AK28" s="59"/>
-      <c r="AL28" s="59"/>
-      <c r="AM28" s="59"/>
-      <c r="AN28" s="60"/>
-      <c r="AO28" s="61"/>
-      <c r="AP28" s="61"/>
-      <c r="AQ28" s="61"/>
-      <c r="AR28" s="61"/>
-      <c r="AS28" s="68"/>
-      <c r="AT28" s="68"/>
-      <c r="AU28" s="60"/>
-      <c r="AV28" s="68"/>
-      <c r="AW28" s="61"/>
-      <c r="AX28" s="61"/>
-      <c r="AY28" s="61"/>
-      <c r="AZ28" s="61"/>
-      <c r="BA28" s="61"/>
-      <c r="BB28" s="60"/>
-      <c r="BC28" s="61"/>
-      <c r="BD28" s="61"/>
-      <c r="BE28" s="61"/>
-      <c r="BF28" s="61"/>
-      <c r="BG28" s="61"/>
-      <c r="BH28" s="61"/>
-      <c r="BI28" s="60"/>
-      <c r="BJ28" s="61"/>
-      <c r="BK28" s="61"/>
-      <c r="BL28" s="61"/>
-      <c r="BM28" s="61"/>
+      <c r="F28" s="49"/>
+      <c r="G28" s="49"/>
+      <c r="H28" s="49"/>
+      <c r="I28" s="49"/>
+      <c r="J28" s="49"/>
+      <c r="K28" s="49"/>
+      <c r="L28" s="50"/>
+      <c r="M28" s="49"/>
+      <c r="N28" s="49"/>
+      <c r="O28" s="49"/>
+      <c r="P28" s="49"/>
+      <c r="Q28" s="49"/>
+      <c r="R28" s="49"/>
+      <c r="S28" s="50"/>
+      <c r="T28" s="49"/>
+      <c r="U28" s="49"/>
+      <c r="V28" s="49"/>
+      <c r="W28" s="49"/>
+      <c r="X28" s="49"/>
+      <c r="Y28" s="49"/>
+      <c r="Z28" s="50"/>
+      <c r="AA28" s="55"/>
+      <c r="AB28" s="55"/>
+      <c r="AC28" s="55"/>
+      <c r="AD28" s="55"/>
+      <c r="AE28" s="55"/>
+      <c r="AF28" s="55"/>
+      <c r="AG28" s="50"/>
+      <c r="AH28" s="49"/>
+      <c r="AI28" s="49"/>
+      <c r="AJ28" s="49"/>
+      <c r="AK28" s="49"/>
+      <c r="AL28" s="49"/>
+      <c r="AM28" s="49"/>
+      <c r="AN28" s="50"/>
+      <c r="AO28" s="51"/>
+      <c r="AP28" s="51"/>
+      <c r="AQ28" s="51"/>
+      <c r="AR28" s="51"/>
+      <c r="AS28" s="58"/>
+      <c r="AT28" s="58"/>
+      <c r="AU28" s="50"/>
+      <c r="AV28" s="58"/>
+      <c r="AW28" s="51"/>
+      <c r="AX28" s="51"/>
+      <c r="AY28" s="51"/>
+      <c r="AZ28" s="51"/>
+      <c r="BA28" s="51"/>
+      <c r="BB28" s="50"/>
+      <c r="BC28" s="51"/>
+      <c r="BD28" s="51"/>
+      <c r="BE28" s="51"/>
+      <c r="BF28" s="51"/>
+      <c r="BG28" s="51"/>
+      <c r="BH28" s="51"/>
+      <c r="BI28" s="50"/>
+      <c r="BJ28" s="51"/>
+      <c r="BK28" s="51"/>
+      <c r="BL28" s="51"/>
+      <c r="BM28" s="51"/>
     </row>
     <row r="29" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
@@ -5724,135 +5724,135 @@
       <c r="E29" s="32">
         <v>3</v>
       </c>
-      <c r="F29" s="59"/>
-      <c r="G29" s="59"/>
-      <c r="H29" s="59"/>
-      <c r="I29" s="59"/>
-      <c r="J29" s="59"/>
-      <c r="K29" s="59"/>
-      <c r="L29" s="60"/>
-      <c r="M29" s="59"/>
-      <c r="N29" s="59"/>
-      <c r="O29" s="59"/>
-      <c r="P29" s="59"/>
-      <c r="Q29" s="59"/>
-      <c r="R29" s="59"/>
-      <c r="S29" s="60"/>
-      <c r="T29" s="59"/>
-      <c r="U29" s="59"/>
-      <c r="V29" s="59"/>
-      <c r="W29" s="59"/>
-      <c r="X29" s="59"/>
-      <c r="Y29" s="59"/>
-      <c r="Z29" s="60"/>
-      <c r="AA29" s="65"/>
-      <c r="AB29" s="65"/>
-      <c r="AC29" s="65"/>
-      <c r="AD29" s="65"/>
-      <c r="AE29" s="65"/>
-      <c r="AF29" s="65"/>
-      <c r="AG29" s="60"/>
-      <c r="AH29" s="59"/>
-      <c r="AI29" s="59"/>
-      <c r="AJ29" s="59"/>
-      <c r="AK29" s="59"/>
-      <c r="AL29" s="59"/>
-      <c r="AM29" s="59"/>
-      <c r="AN29" s="60"/>
-      <c r="AO29" s="61"/>
-      <c r="AP29" s="61"/>
-      <c r="AQ29" s="61"/>
-      <c r="AR29" s="61"/>
-      <c r="AS29" s="61"/>
-      <c r="AT29" s="61"/>
-      <c r="AU29" s="60"/>
-      <c r="AV29" s="68"/>
-      <c r="AW29" s="68"/>
-      <c r="AX29" s="68"/>
-      <c r="AY29" s="61"/>
-      <c r="AZ29" s="61"/>
-      <c r="BA29" s="61"/>
-      <c r="BB29" s="60"/>
-      <c r="BC29" s="61"/>
-      <c r="BD29" s="61"/>
-      <c r="BE29" s="61"/>
-      <c r="BF29" s="61"/>
-      <c r="BG29" s="61"/>
-      <c r="BH29" s="61"/>
-      <c r="BI29" s="60"/>
-      <c r="BJ29" s="61"/>
-      <c r="BK29" s="61"/>
-      <c r="BL29" s="61"/>
-      <c r="BM29" s="61"/>
-    </row>
-    <row r="30" spans="1:65" s="47" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F29" s="49"/>
+      <c r="G29" s="49"/>
+      <c r="H29" s="49"/>
+      <c r="I29" s="49"/>
+      <c r="J29" s="49"/>
+      <c r="K29" s="49"/>
+      <c r="L29" s="50"/>
+      <c r="M29" s="49"/>
+      <c r="N29" s="49"/>
+      <c r="O29" s="49"/>
+      <c r="P29" s="49"/>
+      <c r="Q29" s="49"/>
+      <c r="R29" s="49"/>
+      <c r="S29" s="50"/>
+      <c r="T29" s="49"/>
+      <c r="U29" s="49"/>
+      <c r="V29" s="49"/>
+      <c r="W29" s="49"/>
+      <c r="X29" s="49"/>
+      <c r="Y29" s="49"/>
+      <c r="Z29" s="50"/>
+      <c r="AA29" s="55"/>
+      <c r="AB29" s="55"/>
+      <c r="AC29" s="55"/>
+      <c r="AD29" s="55"/>
+      <c r="AE29" s="55"/>
+      <c r="AF29" s="55"/>
+      <c r="AG29" s="50"/>
+      <c r="AH29" s="49"/>
+      <c r="AI29" s="49"/>
+      <c r="AJ29" s="49"/>
+      <c r="AK29" s="49"/>
+      <c r="AL29" s="49"/>
+      <c r="AM29" s="49"/>
+      <c r="AN29" s="50"/>
+      <c r="AO29" s="51"/>
+      <c r="AP29" s="51"/>
+      <c r="AQ29" s="51"/>
+      <c r="AR29" s="51"/>
+      <c r="AS29" s="51"/>
+      <c r="AT29" s="51"/>
+      <c r="AU29" s="50"/>
+      <c r="AV29" s="58"/>
+      <c r="AW29" s="58"/>
+      <c r="AX29" s="58"/>
+      <c r="AY29" s="51"/>
+      <c r="AZ29" s="51"/>
+      <c r="BA29" s="51"/>
+      <c r="BB29" s="50"/>
+      <c r="BC29" s="51"/>
+      <c r="BD29" s="51"/>
+      <c r="BE29" s="51"/>
+      <c r="BF29" s="51"/>
+      <c r="BG29" s="51"/>
+      <c r="BH29" s="51"/>
+      <c r="BI29" s="50"/>
+      <c r="BJ29" s="51"/>
+      <c r="BK29" s="51"/>
+      <c r="BL29" s="51"/>
+      <c r="BM29" s="51"/>
+    </row>
+    <row r="30" spans="1:65" s="41" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="33">
         <v>4</v>
       </c>
       <c r="B30" s="34" t="s">
         <v>91</v>
       </c>
-      <c r="E30" s="62"/>
-      <c r="F30" s="57"/>
-      <c r="G30" s="57"/>
-      <c r="H30" s="57"/>
-      <c r="I30" s="57"/>
-      <c r="J30" s="57"/>
-      <c r="K30" s="57"/>
-      <c r="L30" s="60"/>
-      <c r="M30" s="57"/>
-      <c r="N30" s="57"/>
-      <c r="O30" s="57"/>
-      <c r="P30" s="57"/>
-      <c r="Q30" s="57"/>
-      <c r="R30" s="57"/>
-      <c r="S30" s="60"/>
-      <c r="T30" s="57"/>
-      <c r="U30" s="57"/>
-      <c r="V30" s="57"/>
-      <c r="W30" s="57"/>
-      <c r="X30" s="57"/>
-      <c r="Y30" s="57"/>
-      <c r="Z30" s="60"/>
-      <c r="AA30" s="57"/>
-      <c r="AB30" s="57"/>
-      <c r="AC30" s="57"/>
-      <c r="AD30" s="57"/>
-      <c r="AE30" s="57"/>
-      <c r="AF30" s="57"/>
-      <c r="AG30" s="60"/>
-      <c r="AH30" s="57"/>
-      <c r="AI30" s="57"/>
-      <c r="AJ30" s="57"/>
-      <c r="AK30" s="57"/>
-      <c r="AL30" s="57"/>
-      <c r="AM30" s="57"/>
-      <c r="AN30" s="60"/>
-      <c r="AO30" s="64"/>
-      <c r="AP30" s="64"/>
-      <c r="AQ30" s="64"/>
-      <c r="AR30" s="64"/>
-      <c r="AS30" s="64"/>
-      <c r="AT30" s="64"/>
-      <c r="AU30" s="60"/>
-      <c r="AV30" s="64"/>
-      <c r="AW30" s="64"/>
-      <c r="AX30" s="64"/>
-      <c r="AY30" s="64"/>
-      <c r="AZ30" s="64"/>
-      <c r="BA30" s="64"/>
-      <c r="BB30" s="60"/>
-      <c r="BC30" s="64"/>
-      <c r="BD30" s="64"/>
-      <c r="BE30" s="64"/>
-      <c r="BF30" s="64"/>
-      <c r="BG30" s="64"/>
-      <c r="BH30" s="64"/>
-      <c r="BI30" s="60"/>
-      <c r="BJ30" s="64"/>
-      <c r="BK30" s="64"/>
-      <c r="BL30" s="64"/>
-      <c r="BM30" s="64"/>
+      <c r="E30" s="52"/>
+      <c r="F30" s="47"/>
+      <c r="G30" s="47"/>
+      <c r="H30" s="47"/>
+      <c r="I30" s="47"/>
+      <c r="J30" s="47"/>
+      <c r="K30" s="47"/>
+      <c r="L30" s="50"/>
+      <c r="M30" s="47"/>
+      <c r="N30" s="47"/>
+      <c r="O30" s="47"/>
+      <c r="P30" s="47"/>
+      <c r="Q30" s="47"/>
+      <c r="R30" s="47"/>
+      <c r="S30" s="50"/>
+      <c r="T30" s="47"/>
+      <c r="U30" s="47"/>
+      <c r="V30" s="47"/>
+      <c r="W30" s="47"/>
+      <c r="X30" s="47"/>
+      <c r="Y30" s="47"/>
+      <c r="Z30" s="50"/>
+      <c r="AA30" s="47"/>
+      <c r="AB30" s="47"/>
+      <c r="AC30" s="47"/>
+      <c r="AD30" s="47"/>
+      <c r="AE30" s="47"/>
+      <c r="AF30" s="47"/>
+      <c r="AG30" s="50"/>
+      <c r="AH30" s="47"/>
+      <c r="AI30" s="47"/>
+      <c r="AJ30" s="47"/>
+      <c r="AK30" s="47"/>
+      <c r="AL30" s="47"/>
+      <c r="AM30" s="47"/>
+      <c r="AN30" s="50"/>
+      <c r="AO30" s="54"/>
+      <c r="AP30" s="54"/>
+      <c r="AQ30" s="54"/>
+      <c r="AR30" s="54"/>
+      <c r="AS30" s="54"/>
+      <c r="AT30" s="54"/>
+      <c r="AU30" s="50"/>
+      <c r="AV30" s="54"/>
+      <c r="AW30" s="54"/>
+      <c r="AX30" s="54"/>
+      <c r="AY30" s="54"/>
+      <c r="AZ30" s="54"/>
+      <c r="BA30" s="54"/>
+      <c r="BB30" s="50"/>
+      <c r="BC30" s="54"/>
+      <c r="BD30" s="54"/>
+      <c r="BE30" s="54"/>
+      <c r="BF30" s="54"/>
+      <c r="BG30" s="54"/>
+      <c r="BH30" s="54"/>
+      <c r="BI30" s="50"/>
+      <c r="BJ30" s="54"/>
+      <c r="BK30" s="54"/>
+      <c r="BL30" s="54"/>
+      <c r="BM30" s="54"/>
     </row>
     <row r="31" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
@@ -5871,66 +5871,66 @@
       <c r="E31" s="32">
         <v>3</v>
       </c>
-      <c r="F31" s="59"/>
-      <c r="G31" s="59"/>
-      <c r="H31" s="59"/>
-      <c r="I31" s="59"/>
-      <c r="J31" s="59"/>
-      <c r="K31" s="59"/>
-      <c r="L31" s="60"/>
-      <c r="M31" s="59"/>
-      <c r="N31" s="59"/>
-      <c r="O31" s="59"/>
-      <c r="P31" s="59"/>
-      <c r="Q31" s="59"/>
-      <c r="R31" s="59"/>
-      <c r="S31" s="60"/>
-      <c r="T31" s="59"/>
-      <c r="U31" s="59"/>
-      <c r="V31" s="59"/>
-      <c r="W31" s="59"/>
-      <c r="X31" s="59"/>
-      <c r="Y31" s="59"/>
-      <c r="Z31" s="60"/>
-      <c r="AA31" s="59"/>
-      <c r="AB31" s="59"/>
-      <c r="AC31" s="59"/>
-      <c r="AD31" s="59"/>
-      <c r="AE31" s="59"/>
-      <c r="AF31" s="59"/>
-      <c r="AG31" s="60"/>
-      <c r="AH31" s="65"/>
-      <c r="AI31" s="65"/>
-      <c r="AJ31" s="65"/>
-      <c r="AK31" s="65"/>
-      <c r="AL31" s="65"/>
-      <c r="AM31" s="65"/>
-      <c r="AN31" s="60"/>
-      <c r="AO31" s="61"/>
-      <c r="AP31" s="61"/>
-      <c r="AQ31" s="61"/>
-      <c r="AR31" s="61"/>
-      <c r="AS31" s="61"/>
-      <c r="AT31" s="61"/>
-      <c r="AU31" s="60"/>
-      <c r="AV31" s="61"/>
-      <c r="AW31" s="61"/>
-      <c r="AX31" s="68"/>
-      <c r="AY31" s="68"/>
-      <c r="AZ31" s="68"/>
-      <c r="BA31" s="61"/>
-      <c r="BB31" s="60"/>
-      <c r="BC31" s="61"/>
-      <c r="BD31" s="61"/>
-      <c r="BE31" s="61"/>
-      <c r="BF31" s="61"/>
-      <c r="BG31" s="61"/>
-      <c r="BH31" s="61"/>
-      <c r="BI31" s="60"/>
-      <c r="BJ31" s="61"/>
-      <c r="BK31" s="61"/>
-      <c r="BL31" s="61"/>
-      <c r="BM31" s="61"/>
+      <c r="F31" s="49"/>
+      <c r="G31" s="49"/>
+      <c r="H31" s="49"/>
+      <c r="I31" s="49"/>
+      <c r="J31" s="49"/>
+      <c r="K31" s="49"/>
+      <c r="L31" s="50"/>
+      <c r="M31" s="49"/>
+      <c r="N31" s="49"/>
+      <c r="O31" s="49"/>
+      <c r="P31" s="49"/>
+      <c r="Q31" s="49"/>
+      <c r="R31" s="49"/>
+      <c r="S31" s="50"/>
+      <c r="T31" s="49"/>
+      <c r="U31" s="49"/>
+      <c r="V31" s="49"/>
+      <c r="W31" s="49"/>
+      <c r="X31" s="49"/>
+      <c r="Y31" s="49"/>
+      <c r="Z31" s="50"/>
+      <c r="AA31" s="49"/>
+      <c r="AB31" s="49"/>
+      <c r="AC31" s="49"/>
+      <c r="AD31" s="49"/>
+      <c r="AE31" s="49"/>
+      <c r="AF31" s="49"/>
+      <c r="AG31" s="50"/>
+      <c r="AH31" s="55"/>
+      <c r="AI31" s="55"/>
+      <c r="AJ31" s="55"/>
+      <c r="AK31" s="55"/>
+      <c r="AL31" s="55"/>
+      <c r="AM31" s="55"/>
+      <c r="AN31" s="50"/>
+      <c r="AO31" s="51"/>
+      <c r="AP31" s="51"/>
+      <c r="AQ31" s="51"/>
+      <c r="AR31" s="51"/>
+      <c r="AS31" s="51"/>
+      <c r="AT31" s="51"/>
+      <c r="AU31" s="50"/>
+      <c r="AV31" s="51"/>
+      <c r="AW31" s="51"/>
+      <c r="AX31" s="58"/>
+      <c r="AY31" s="58"/>
+      <c r="AZ31" s="58"/>
+      <c r="BA31" s="51"/>
+      <c r="BB31" s="50"/>
+      <c r="BC31" s="51"/>
+      <c r="BD31" s="51"/>
+      <c r="BE31" s="51"/>
+      <c r="BF31" s="51"/>
+      <c r="BG31" s="51"/>
+      <c r="BH31" s="51"/>
+      <c r="BI31" s="50"/>
+      <c r="BJ31" s="51"/>
+      <c r="BK31" s="51"/>
+      <c r="BL31" s="51"/>
+      <c r="BM31" s="51"/>
     </row>
     <row r="32" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
@@ -5949,66 +5949,66 @@
       <c r="E32" s="32">
         <v>3</v>
       </c>
-      <c r="F32" s="59"/>
-      <c r="G32" s="59"/>
-      <c r="H32" s="59"/>
-      <c r="I32" s="59"/>
-      <c r="J32" s="59"/>
-      <c r="K32" s="59"/>
-      <c r="L32" s="60"/>
-      <c r="M32" s="59"/>
-      <c r="N32" s="59"/>
-      <c r="O32" s="59"/>
-      <c r="P32" s="59"/>
-      <c r="Q32" s="59"/>
-      <c r="R32" s="59"/>
-      <c r="S32" s="60"/>
-      <c r="T32" s="59"/>
-      <c r="U32" s="59"/>
-      <c r="V32" s="59"/>
-      <c r="W32" s="59"/>
-      <c r="X32" s="59"/>
-      <c r="Y32" s="59"/>
-      <c r="Z32" s="60"/>
-      <c r="AA32" s="59"/>
-      <c r="AB32" s="59"/>
-      <c r="AC32" s="59"/>
-      <c r="AD32" s="59"/>
-      <c r="AE32" s="59"/>
-      <c r="AF32" s="59"/>
-      <c r="AG32" s="60"/>
-      <c r="AH32" s="65"/>
-      <c r="AI32" s="65"/>
-      <c r="AJ32" s="65"/>
-      <c r="AK32" s="65"/>
-      <c r="AL32" s="65"/>
-      <c r="AM32" s="65"/>
-      <c r="AN32" s="60"/>
-      <c r="AO32" s="61"/>
-      <c r="AP32" s="61"/>
-      <c r="AQ32" s="61"/>
-      <c r="AR32" s="61"/>
-      <c r="AS32" s="61"/>
-      <c r="AT32" s="61"/>
-      <c r="AU32" s="60"/>
-      <c r="AV32" s="61"/>
-      <c r="AW32" s="61"/>
-      <c r="AX32" s="61"/>
-      <c r="AY32" s="61"/>
-      <c r="AZ32" s="68"/>
-      <c r="BA32" s="68"/>
-      <c r="BB32" s="60"/>
-      <c r="BC32" s="68"/>
-      <c r="BD32" s="61"/>
-      <c r="BE32" s="61"/>
-      <c r="BF32" s="61"/>
-      <c r="BG32" s="61"/>
-      <c r="BH32" s="61"/>
-      <c r="BI32" s="60"/>
-      <c r="BJ32" s="61"/>
-      <c r="BK32" s="61"/>
-      <c r="BL32" s="61"/>
-      <c r="BM32" s="61"/>
+      <c r="F32" s="49"/>
+      <c r="G32" s="49"/>
+      <c r="H32" s="49"/>
+      <c r="I32" s="49"/>
+      <c r="J32" s="49"/>
+      <c r="K32" s="49"/>
+      <c r="L32" s="50"/>
+      <c r="M32" s="49"/>
+      <c r="N32" s="49"/>
+      <c r="O32" s="49"/>
+      <c r="P32" s="49"/>
+      <c r="Q32" s="49"/>
+      <c r="R32" s="49"/>
+      <c r="S32" s="50"/>
+      <c r="T32" s="49"/>
+      <c r="U32" s="49"/>
+      <c r="V32" s="49"/>
+      <c r="W32" s="49"/>
+      <c r="X32" s="49"/>
+      <c r="Y32" s="49"/>
+      <c r="Z32" s="50"/>
+      <c r="AA32" s="49"/>
+      <c r="AB32" s="49"/>
+      <c r="AC32" s="49"/>
+      <c r="AD32" s="49"/>
+      <c r="AE32" s="49"/>
+      <c r="AF32" s="49"/>
+      <c r="AG32" s="50"/>
+      <c r="AH32" s="55"/>
+      <c r="AI32" s="55"/>
+      <c r="AJ32" s="55"/>
+      <c r="AK32" s="55"/>
+      <c r="AL32" s="55"/>
+      <c r="AM32" s="55"/>
+      <c r="AN32" s="50"/>
+      <c r="AO32" s="51"/>
+      <c r="AP32" s="51"/>
+      <c r="AQ32" s="51"/>
+      <c r="AR32" s="51"/>
+      <c r="AS32" s="51"/>
+      <c r="AT32" s="51"/>
+      <c r="AU32" s="50"/>
+      <c r="AV32" s="51"/>
+      <c r="AW32" s="51"/>
+      <c r="AX32" s="51"/>
+      <c r="AY32" s="51"/>
+      <c r="AZ32" s="58"/>
+      <c r="BA32" s="58"/>
+      <c r="BB32" s="50"/>
+      <c r="BC32" s="58"/>
+      <c r="BD32" s="51"/>
+      <c r="BE32" s="51"/>
+      <c r="BF32" s="51"/>
+      <c r="BG32" s="51"/>
+      <c r="BH32" s="51"/>
+      <c r="BI32" s="50"/>
+      <c r="BJ32" s="51"/>
+      <c r="BK32" s="51"/>
+      <c r="BL32" s="51"/>
+      <c r="BM32" s="51"/>
     </row>
     <row r="33" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
@@ -6027,66 +6027,66 @@
       <c r="E33" s="32">
         <v>3</v>
       </c>
-      <c r="F33" s="59"/>
-      <c r="G33" s="59"/>
-      <c r="H33" s="59"/>
-      <c r="I33" s="59"/>
-      <c r="J33" s="59"/>
-      <c r="K33" s="59"/>
-      <c r="L33" s="60"/>
-      <c r="M33" s="59"/>
-      <c r="N33" s="59"/>
-      <c r="O33" s="59"/>
-      <c r="P33" s="59"/>
-      <c r="Q33" s="59"/>
-      <c r="R33" s="59"/>
-      <c r="S33" s="60"/>
-      <c r="T33" s="59"/>
-      <c r="U33" s="59"/>
-      <c r="V33" s="59"/>
-      <c r="W33" s="59"/>
-      <c r="X33" s="59"/>
-      <c r="Y33" s="59"/>
-      <c r="Z33" s="60"/>
-      <c r="AA33" s="59"/>
-      <c r="AB33" s="59"/>
-      <c r="AC33" s="59"/>
-      <c r="AD33" s="59"/>
-      <c r="AE33" s="59"/>
-      <c r="AF33" s="59"/>
-      <c r="AG33" s="60"/>
-      <c r="AH33" s="65"/>
-      <c r="AI33" s="65"/>
-      <c r="AJ33" s="65"/>
-      <c r="AK33" s="65"/>
-      <c r="AL33" s="65"/>
-      <c r="AM33" s="65"/>
-      <c r="AN33" s="60"/>
-      <c r="AO33" s="61"/>
-      <c r="AP33" s="61"/>
-      <c r="AQ33" s="61"/>
-      <c r="AR33" s="61"/>
-      <c r="AS33" s="61"/>
-      <c r="AT33" s="61"/>
-      <c r="AU33" s="60"/>
-      <c r="AV33" s="61"/>
-      <c r="AW33" s="61"/>
-      <c r="AX33" s="61"/>
-      <c r="AY33" s="61"/>
-      <c r="AZ33" s="61"/>
-      <c r="BA33" s="61"/>
-      <c r="BB33" s="60"/>
-      <c r="BC33" s="68"/>
-      <c r="BD33" s="68"/>
-      <c r="BE33" s="68"/>
-      <c r="BF33" s="61"/>
-      <c r="BG33" s="61"/>
-      <c r="BH33" s="61"/>
-      <c r="BI33" s="60"/>
-      <c r="BJ33" s="61"/>
-      <c r="BK33" s="61"/>
-      <c r="BL33" s="61"/>
-      <c r="BM33" s="61"/>
+      <c r="F33" s="49"/>
+      <c r="G33" s="49"/>
+      <c r="H33" s="49"/>
+      <c r="I33" s="49"/>
+      <c r="J33" s="49"/>
+      <c r="K33" s="49"/>
+      <c r="L33" s="50"/>
+      <c r="M33" s="49"/>
+      <c r="N33" s="49"/>
+      <c r="O33" s="49"/>
+      <c r="P33" s="49"/>
+      <c r="Q33" s="49"/>
+      <c r="R33" s="49"/>
+      <c r="S33" s="50"/>
+      <c r="T33" s="49"/>
+      <c r="U33" s="49"/>
+      <c r="V33" s="49"/>
+      <c r="W33" s="49"/>
+      <c r="X33" s="49"/>
+      <c r="Y33" s="49"/>
+      <c r="Z33" s="50"/>
+      <c r="AA33" s="49"/>
+      <c r="AB33" s="49"/>
+      <c r="AC33" s="49"/>
+      <c r="AD33" s="49"/>
+      <c r="AE33" s="49"/>
+      <c r="AF33" s="49"/>
+      <c r="AG33" s="50"/>
+      <c r="AH33" s="55"/>
+      <c r="AI33" s="55"/>
+      <c r="AJ33" s="55"/>
+      <c r="AK33" s="55"/>
+      <c r="AL33" s="55"/>
+      <c r="AM33" s="55"/>
+      <c r="AN33" s="50"/>
+      <c r="AO33" s="51"/>
+      <c r="AP33" s="51"/>
+      <c r="AQ33" s="51"/>
+      <c r="AR33" s="51"/>
+      <c r="AS33" s="51"/>
+      <c r="AT33" s="51"/>
+      <c r="AU33" s="50"/>
+      <c r="AV33" s="51"/>
+      <c r="AW33" s="51"/>
+      <c r="AX33" s="51"/>
+      <c r="AY33" s="51"/>
+      <c r="AZ33" s="51"/>
+      <c r="BA33" s="51"/>
+      <c r="BB33" s="50"/>
+      <c r="BC33" s="58"/>
+      <c r="BD33" s="58"/>
+      <c r="BE33" s="58"/>
+      <c r="BF33" s="51"/>
+      <c r="BG33" s="51"/>
+      <c r="BH33" s="51"/>
+      <c r="BI33" s="50"/>
+      <c r="BJ33" s="51"/>
+      <c r="BK33" s="51"/>
+      <c r="BL33" s="51"/>
+      <c r="BM33" s="51"/>
     </row>
     <row r="34" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
@@ -6105,211 +6105,211 @@
       <c r="E34" s="32">
         <v>3</v>
       </c>
-      <c r="F34" s="59"/>
-      <c r="G34" s="59"/>
-      <c r="H34" s="59"/>
-      <c r="I34" s="59"/>
-      <c r="J34" s="59"/>
-      <c r="K34" s="59"/>
-      <c r="L34" s="60"/>
-      <c r="M34" s="59"/>
-      <c r="N34" s="59"/>
-      <c r="O34" s="59"/>
-      <c r="P34" s="59"/>
-      <c r="Q34" s="59"/>
-      <c r="R34" s="59"/>
-      <c r="S34" s="60"/>
-      <c r="T34" s="59"/>
-      <c r="U34" s="59"/>
-      <c r="V34" s="59"/>
-      <c r="W34" s="59"/>
-      <c r="X34" s="59"/>
-      <c r="Y34" s="59"/>
-      <c r="Z34" s="60"/>
-      <c r="AA34" s="59"/>
-      <c r="AB34" s="59"/>
-      <c r="AC34" s="59"/>
-      <c r="AD34" s="59"/>
-      <c r="AE34" s="59"/>
-      <c r="AF34" s="59"/>
-      <c r="AG34" s="60"/>
-      <c r="AH34" s="65"/>
-      <c r="AI34" s="65"/>
-      <c r="AJ34" s="65"/>
-      <c r="AK34" s="65"/>
-      <c r="AL34" s="65"/>
-      <c r="AM34" s="65"/>
-      <c r="AN34" s="60"/>
-      <c r="AO34" s="61"/>
-      <c r="AP34" s="61"/>
-      <c r="AQ34" s="61"/>
-      <c r="AR34" s="61"/>
-      <c r="AS34" s="61"/>
-      <c r="AT34" s="61"/>
-      <c r="AU34" s="60"/>
-      <c r="AV34" s="61"/>
-      <c r="AW34" s="61"/>
-      <c r="AX34" s="61"/>
-      <c r="AY34" s="61"/>
-      <c r="AZ34" s="61"/>
-      <c r="BA34" s="61"/>
-      <c r="BB34" s="60"/>
-      <c r="BC34" s="61"/>
-      <c r="BD34" s="61"/>
-      <c r="BE34" s="68"/>
-      <c r="BF34" s="68"/>
-      <c r="BG34" s="68"/>
-      <c r="BH34" s="61"/>
-      <c r="BI34" s="60"/>
-      <c r="BJ34" s="61"/>
-      <c r="BK34" s="61"/>
-      <c r="BL34" s="61"/>
-      <c r="BM34" s="61"/>
+      <c r="F34" s="49"/>
+      <c r="G34" s="49"/>
+      <c r="H34" s="49"/>
+      <c r="I34" s="49"/>
+      <c r="J34" s="49"/>
+      <c r="K34" s="49"/>
+      <c r="L34" s="50"/>
+      <c r="M34" s="49"/>
+      <c r="N34" s="49"/>
+      <c r="O34" s="49"/>
+      <c r="P34" s="49"/>
+      <c r="Q34" s="49"/>
+      <c r="R34" s="49"/>
+      <c r="S34" s="50"/>
+      <c r="T34" s="49"/>
+      <c r="U34" s="49"/>
+      <c r="V34" s="49"/>
+      <c r="W34" s="49"/>
+      <c r="X34" s="49"/>
+      <c r="Y34" s="49"/>
+      <c r="Z34" s="50"/>
+      <c r="AA34" s="49"/>
+      <c r="AB34" s="49"/>
+      <c r="AC34" s="49"/>
+      <c r="AD34" s="49"/>
+      <c r="AE34" s="49"/>
+      <c r="AF34" s="49"/>
+      <c r="AG34" s="50"/>
+      <c r="AH34" s="55"/>
+      <c r="AI34" s="55"/>
+      <c r="AJ34" s="55"/>
+      <c r="AK34" s="55"/>
+      <c r="AL34" s="55"/>
+      <c r="AM34" s="55"/>
+      <c r="AN34" s="50"/>
+      <c r="AO34" s="51"/>
+      <c r="AP34" s="51"/>
+      <c r="AQ34" s="51"/>
+      <c r="AR34" s="51"/>
+      <c r="AS34" s="51"/>
+      <c r="AT34" s="51"/>
+      <c r="AU34" s="50"/>
+      <c r="AV34" s="51"/>
+      <c r="AW34" s="51"/>
+      <c r="AX34" s="51"/>
+      <c r="AY34" s="51"/>
+      <c r="AZ34" s="51"/>
+      <c r="BA34" s="51"/>
+      <c r="BB34" s="50"/>
+      <c r="BC34" s="51"/>
+      <c r="BD34" s="51"/>
+      <c r="BE34" s="58"/>
+      <c r="BF34" s="58"/>
+      <c r="BG34" s="58"/>
+      <c r="BH34" s="51"/>
+      <c r="BI34" s="50"/>
+      <c r="BJ34" s="51"/>
+      <c r="BK34" s="51"/>
+      <c r="BL34" s="51"/>
+      <c r="BM34" s="51"/>
     </row>
     <row r="35" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="B35" s="70" t="s">
+      <c r="B35" s="60" t="s">
         <v>101</v>
       </c>
-      <c r="C35" s="71">
+      <c r="C35" s="61">
         <f t="shared" si="0"/>
         <v>44715</v>
       </c>
       <c r="D35" s="36">
         <v>44718</v>
       </c>
-      <c r="E35" s="72">
+      <c r="E35" s="62">
         <v>3</v>
       </c>
-      <c r="F35" s="73"/>
-      <c r="G35" s="73"/>
-      <c r="H35" s="73"/>
-      <c r="I35" s="73"/>
-      <c r="J35" s="73"/>
-      <c r="K35" s="73"/>
-      <c r="L35" s="74"/>
-      <c r="M35" s="73"/>
-      <c r="N35" s="73"/>
-      <c r="O35" s="73"/>
-      <c r="P35" s="73"/>
-      <c r="Q35" s="73"/>
-      <c r="R35" s="73"/>
-      <c r="S35" s="74"/>
-      <c r="T35" s="73"/>
-      <c r="U35" s="73"/>
-      <c r="V35" s="73"/>
-      <c r="W35" s="73"/>
-      <c r="X35" s="73"/>
-      <c r="Y35" s="73"/>
-      <c r="Z35" s="74"/>
-      <c r="AA35" s="73"/>
-      <c r="AB35" s="73"/>
-      <c r="AC35" s="73"/>
-      <c r="AD35" s="73"/>
-      <c r="AE35" s="73"/>
-      <c r="AF35" s="73"/>
-      <c r="AG35" s="74"/>
-      <c r="AH35" s="75"/>
-      <c r="AI35" s="75"/>
-      <c r="AJ35" s="75"/>
-      <c r="AK35" s="75"/>
-      <c r="AL35" s="75"/>
-      <c r="AM35" s="75"/>
-      <c r="AN35" s="74"/>
-      <c r="AO35" s="76"/>
-      <c r="AP35" s="76"/>
-      <c r="AQ35" s="76"/>
-      <c r="AR35" s="76"/>
-      <c r="AS35" s="76"/>
-      <c r="AT35" s="76"/>
-      <c r="AU35" s="74"/>
-      <c r="AV35" s="76"/>
-      <c r="AW35" s="76"/>
-      <c r="AX35" s="76"/>
-      <c r="AY35" s="76"/>
-      <c r="AZ35" s="76"/>
-      <c r="BA35" s="76"/>
-      <c r="BB35" s="74"/>
-      <c r="BC35" s="76"/>
-      <c r="BD35" s="61"/>
-      <c r="BE35" s="61"/>
-      <c r="BF35" s="61"/>
-      <c r="BG35" s="77"/>
-      <c r="BH35" s="68"/>
-      <c r="BI35" s="74"/>
-      <c r="BJ35" s="68"/>
-      <c r="BK35" s="76"/>
-      <c r="BL35" s="76"/>
-      <c r="BM35" s="76"/>
-    </row>
-    <row r="36" spans="1:65" s="82" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="78"/>
-      <c r="B36" s="79"/>
-      <c r="C36" s="80"/>
-      <c r="D36" s="80"/>
-      <c r="E36" s="79"/>
-      <c r="F36" s="78"/>
-      <c r="G36" s="78"/>
-      <c r="H36" s="78"/>
-      <c r="I36" s="78"/>
-      <c r="J36" s="78"/>
-      <c r="K36" s="78"/>
-      <c r="L36" s="81"/>
-      <c r="M36" s="78"/>
-      <c r="N36" s="78"/>
-      <c r="O36" s="78"/>
-      <c r="P36" s="78"/>
-      <c r="Q36" s="78"/>
-      <c r="R36" s="78"/>
-      <c r="S36" s="81"/>
-      <c r="T36" s="78"/>
-      <c r="U36" s="78"/>
-      <c r="V36" s="78"/>
-      <c r="W36" s="78"/>
-      <c r="X36" s="78"/>
-      <c r="Y36" s="81"/>
-      <c r="Z36" s="81"/>
-      <c r="AA36" s="81"/>
-      <c r="AB36" s="81"/>
-      <c r="AC36" s="81"/>
-      <c r="AD36" s="81"/>
-      <c r="AE36" s="81"/>
-      <c r="AF36" s="81"/>
-      <c r="AG36" s="81"/>
-      <c r="AH36" s="81"/>
-      <c r="AI36" s="81"/>
-      <c r="AJ36" s="81"/>
-      <c r="AK36" s="81"/>
-      <c r="AL36" s="81"/>
-      <c r="AM36" s="81"/>
-      <c r="AN36" s="81"/>
-      <c r="AO36" s="81"/>
-      <c r="AP36" s="81"/>
-      <c r="AQ36" s="81"/>
-      <c r="AR36" s="81"/>
-      <c r="AS36" s="81"/>
-      <c r="AT36" s="81"/>
-      <c r="AU36" s="81"/>
-      <c r="AV36" s="81"/>
-      <c r="AW36" s="81"/>
-      <c r="AX36" s="81"/>
-      <c r="AY36" s="81"/>
-      <c r="AZ36" s="81"/>
-      <c r="BA36" s="81"/>
-      <c r="BB36" s="81"/>
-      <c r="BC36" s="81"/>
-      <c r="BD36" s="81"/>
-      <c r="BE36" s="81"/>
-      <c r="BF36" s="81"/>
-      <c r="BG36" s="81"/>
-      <c r="BH36" s="81"/>
-      <c r="BI36" s="81"/>
-      <c r="BJ36" s="81"/>
-      <c r="BK36" s="81"/>
-      <c r="BL36" s="81"/>
-      <c r="BM36" s="81"/>
+      <c r="F35" s="63"/>
+      <c r="G35" s="63"/>
+      <c r="H35" s="63"/>
+      <c r="I35" s="63"/>
+      <c r="J35" s="63"/>
+      <c r="K35" s="63"/>
+      <c r="L35" s="64"/>
+      <c r="M35" s="63"/>
+      <c r="N35" s="63"/>
+      <c r="O35" s="63"/>
+      <c r="P35" s="63"/>
+      <c r="Q35" s="63"/>
+      <c r="R35" s="63"/>
+      <c r="S35" s="64"/>
+      <c r="T35" s="63"/>
+      <c r="U35" s="63"/>
+      <c r="V35" s="63"/>
+      <c r="W35" s="63"/>
+      <c r="X35" s="63"/>
+      <c r="Y35" s="63"/>
+      <c r="Z35" s="64"/>
+      <c r="AA35" s="63"/>
+      <c r="AB35" s="63"/>
+      <c r="AC35" s="63"/>
+      <c r="AD35" s="63"/>
+      <c r="AE35" s="63"/>
+      <c r="AF35" s="63"/>
+      <c r="AG35" s="64"/>
+      <c r="AH35" s="65"/>
+      <c r="AI35" s="65"/>
+      <c r="AJ35" s="65"/>
+      <c r="AK35" s="65"/>
+      <c r="AL35" s="65"/>
+      <c r="AM35" s="65"/>
+      <c r="AN35" s="64"/>
+      <c r="AO35" s="66"/>
+      <c r="AP35" s="66"/>
+      <c r="AQ35" s="66"/>
+      <c r="AR35" s="66"/>
+      <c r="AS35" s="66"/>
+      <c r="AT35" s="66"/>
+      <c r="AU35" s="64"/>
+      <c r="AV35" s="66"/>
+      <c r="AW35" s="66"/>
+      <c r="AX35" s="66"/>
+      <c r="AY35" s="66"/>
+      <c r="AZ35" s="66"/>
+      <c r="BA35" s="66"/>
+      <c r="BB35" s="64"/>
+      <c r="BC35" s="66"/>
+      <c r="BD35" s="51"/>
+      <c r="BE35" s="51"/>
+      <c r="BF35" s="51"/>
+      <c r="BG35" s="67"/>
+      <c r="BH35" s="58"/>
+      <c r="BI35" s="64"/>
+      <c r="BJ35" s="58"/>
+      <c r="BK35" s="66"/>
+      <c r="BL35" s="66"/>
+      <c r="BM35" s="66"/>
+    </row>
+    <row r="36" spans="1:65" s="72" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="68"/>
+      <c r="B36" s="69"/>
+      <c r="C36" s="70"/>
+      <c r="D36" s="70"/>
+      <c r="E36" s="69"/>
+      <c r="F36" s="68"/>
+      <c r="G36" s="68"/>
+      <c r="H36" s="68"/>
+      <c r="I36" s="68"/>
+      <c r="J36" s="68"/>
+      <c r="K36" s="68"/>
+      <c r="L36" s="71"/>
+      <c r="M36" s="68"/>
+      <c r="N36" s="68"/>
+      <c r="O36" s="68"/>
+      <c r="P36" s="68"/>
+      <c r="Q36" s="68"/>
+      <c r="R36" s="68"/>
+      <c r="S36" s="71"/>
+      <c r="T36" s="68"/>
+      <c r="U36" s="68"/>
+      <c r="V36" s="68"/>
+      <c r="W36" s="68"/>
+      <c r="X36" s="68"/>
+      <c r="Y36" s="71"/>
+      <c r="Z36" s="71"/>
+      <c r="AA36" s="71"/>
+      <c r="AB36" s="71"/>
+      <c r="AC36" s="71"/>
+      <c r="AD36" s="71"/>
+      <c r="AE36" s="71"/>
+      <c r="AF36" s="71"/>
+      <c r="AG36" s="71"/>
+      <c r="AH36" s="71"/>
+      <c r="AI36" s="71"/>
+      <c r="AJ36" s="71"/>
+      <c r="AK36" s="71"/>
+      <c r="AL36" s="71"/>
+      <c r="AM36" s="71"/>
+      <c r="AN36" s="71"/>
+      <c r="AO36" s="71"/>
+      <c r="AP36" s="71"/>
+      <c r="AQ36" s="71"/>
+      <c r="AR36" s="71"/>
+      <c r="AS36" s="71"/>
+      <c r="AT36" s="71"/>
+      <c r="AU36" s="71"/>
+      <c r="AV36" s="71"/>
+      <c r="AW36" s="71"/>
+      <c r="AX36" s="71"/>
+      <c r="AY36" s="71"/>
+      <c r="AZ36" s="71"/>
+      <c r="BA36" s="71"/>
+      <c r="BB36" s="71"/>
+      <c r="BC36" s="71"/>
+      <c r="BD36" s="71"/>
+      <c r="BE36" s="71"/>
+      <c r="BF36" s="71"/>
+      <c r="BG36" s="71"/>
+      <c r="BH36" s="71"/>
+      <c r="BI36" s="71"/>
+      <c r="BJ36" s="71"/>
+      <c r="BK36" s="71"/>
+      <c r="BL36" s="71"/>
+      <c r="BM36" s="71"/>
     </row>
     <row r="37" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C37" s="37"/>
@@ -41114,13 +41114,13 @@
     </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="Z8:BD8"/>
+    <mergeCell ref="BE8:BM8"/>
     <mergeCell ref="D2:J2"/>
     <mergeCell ref="D3:J3"/>
     <mergeCell ref="D4:J4"/>
     <mergeCell ref="D5:J5"/>
     <mergeCell ref="F8:Y8"/>
-    <mergeCell ref="Z8:BD8"/>
-    <mergeCell ref="BE8:BM8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
@@ -41131,7 +41131,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:G1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
@@ -41144,13 +41146,13 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C2" s="43" t="s">
+      <c r="C2" s="75" t="s">
         <v>102</v>
       </c>
-      <c r="D2" s="44"/>
-      <c r="E2" s="44"/>
-      <c r="F2" s="44"/>
-      <c r="G2" s="45"/>
+      <c r="D2" s="76"/>
+      <c r="E2" s="76"/>
+      <c r="F2" s="76"/>
+      <c r="G2" s="77"/>
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
@@ -41207,11 +41209,11 @@
         <v>111</v>
       </c>
       <c r="F5" s="25">
-        <v>40000</v>
+        <v>50000</v>
       </c>
       <c r="G5" s="26">
         <f t="shared" si="0"/>
-        <v>120000</v>
+        <v>150000</v>
       </c>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.25">
@@ -41249,11 +41251,11 @@
         <v>113</v>
       </c>
       <c r="F7" s="25">
-        <v>40000</v>
+        <v>100000</v>
       </c>
       <c r="G7" s="26">
         <f t="shared" si="0"/>
-        <v>40000</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.25">
@@ -41269,12 +41271,12 @@
       <c r="E8" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="F8" s="25">
-        <v>30000</v>
+      <c r="F8" s="26">
+        <v>100000</v>
       </c>
       <c r="G8" s="26">
         <f t="shared" si="0"/>
-        <v>30000</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.25">
@@ -41290,12 +41292,12 @@
       <c r="E9" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="F9" s="25">
-        <v>30000</v>
+      <c r="F9" s="26">
+        <v>100000</v>
       </c>
       <c r="G9" s="26">
         <f t="shared" si="0"/>
-        <v>30000</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.25">
@@ -41311,12 +41313,12 @@
       <c r="E10" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="F10" s="25">
-        <v>30000</v>
+      <c r="F10" s="26">
+        <v>100000</v>
       </c>
       <c r="G10" s="26">
         <f t="shared" si="0"/>
-        <v>30000</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.25">
@@ -41332,12 +41334,12 @@
       <c r="E11" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="F11" s="25">
-        <v>20000</v>
+      <c r="F11" s="26">
+        <v>100000</v>
       </c>
       <c r="G11" s="26">
         <f t="shared" si="0"/>
-        <v>20000</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.25">
@@ -41354,11 +41356,11 @@
         <v>116</v>
       </c>
       <c r="F12" s="25">
-        <v>30000</v>
+        <v>50000</v>
       </c>
       <c r="G12" s="26">
         <f t="shared" si="0"/>
-        <v>30000</v>
+        <v>50000</v>
       </c>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.25">
@@ -41375,11 +41377,11 @@
         <v>116</v>
       </c>
       <c r="F13" s="25">
-        <v>30000</v>
+        <v>100000</v>
       </c>
       <c r="G13" s="26">
         <f t="shared" si="0"/>
-        <v>30000</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.25">
@@ -41396,21 +41398,21 @@
         <v>123</v>
       </c>
       <c r="F14" s="25">
-        <v>20000</v>
+        <v>50000</v>
       </c>
       <c r="G14" s="26">
         <f t="shared" si="0"/>
-        <v>60000</v>
+        <v>150000</v>
       </c>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C15" s="46"/>
-      <c r="D15" s="44"/>
-      <c r="E15" s="44"/>
-      <c r="F15" s="45"/>
+      <c r="C15" s="83"/>
+      <c r="D15" s="76"/>
+      <c r="E15" s="76"/>
+      <c r="F15" s="77"/>
       <c r="G15" s="39">
         <f>SUM(G4:G13)</f>
-        <v>630000</v>
+        <v>1100000</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -42420,11 +42422,11 @@
   </cols>
   <sheetData>
     <row r="2" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C2" s="43" t="s">
+      <c r="C2" s="75" t="s">
         <v>124</v>
       </c>
-      <c r="D2" s="44"/>
-      <c r="E2" s="45"/>
+      <c r="D2" s="76"/>
+      <c r="E2" s="77"/>
     </row>
     <row r="3" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C3" s="40" t="s">
@@ -42456,17 +42458,17 @@
         <v>126</v>
       </c>
       <c r="E5" s="25">
-        <v>630000</v>
+        <v>1100000</v>
       </c>
     </row>
     <row r="6" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C6" s="43" t="s">
+      <c r="C6" s="75" t="s">
         <v>127</v>
       </c>
-      <c r="D6" s="45"/>
+      <c r="D6" s="77"/>
       <c r="E6" s="39">
         <f>SUM(E4:E5)</f>
-        <v>15520920</v>
+        <v>15990920</v>
       </c>
     </row>
     <row r="7" spans="3:5" x14ac:dyDescent="0.25">
@@ -42478,17 +42480,17 @@
       </c>
       <c r="E7" s="26">
         <f>10/100*E6</f>
-        <v>1552092</v>
+        <v>1599092</v>
       </c>
     </row>
     <row r="8" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C8" s="43" t="s">
+      <c r="C8" s="75" t="s">
         <v>129</v>
       </c>
-      <c r="D8" s="45"/>
+      <c r="D8" s="77"/>
       <c r="E8" s="39">
         <f>SUM(E6:E7)</f>
-        <v>17073012</v>
+        <v>17590012</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -43479,5 +43481,8 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <ignoredErrors>
+    <ignoredError sqref="E7" formula="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>
--- a/RAB AKSATA.xlsx
+++ b/RAB AKSATA.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7800"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7800" firstSheet="3" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="RUMUSAN BIAYA ANGGARAN BIAYA" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="135">
   <si>
     <t>RUMUSAN ANGGARAN BIAYA PERSONIL</t>
   </si>
@@ -136,9 +136,6 @@
   </si>
   <si>
     <t>GAJI PROYEK</t>
-  </si>
-  <si>
-    <t>...............</t>
   </si>
   <si>
     <t>LEAD ?</t>
@@ -442,7 +439,8 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="1">
+  <numFmts count="2">
+    <numFmt numFmtId="42" formatCode="_-&quot;Rp&quot;* #,##0_-;\-&quot;Rp&quot;* #,##0_-;_-&quot;Rp&quot;* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="&quot;Rp&quot;#,##0"/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
@@ -491,18 +489,12 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor theme="0"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -559,7 +551,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -698,11 +690,35 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="84">
+  <cellXfs count="94">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -720,14 +736,8 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -736,10 +746,7 @@
     <xf numFmtId="164" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -749,7 +756,7 @@
     <xf numFmtId="164" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -762,59 +769,59 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -825,14 +832,14 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -844,21 +851,19 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -868,9 +873,32 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1088,7 +1116,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView topLeftCell="C4" workbookViewId="0">
+      <selection activeCell="I23" sqref="I23"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1118,15 +1148,15 @@
       </c>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="E3" s="73" t="s">
+      <c r="E3" s="70" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="74"/>
+      <c r="F3" s="71"/>
       <c r="G3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H3" s="1">
-        <v>0.85299999999999998</v>
+      <c r="H3" s="3">
+        <v>0.92600000000000005</v>
       </c>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.25">
@@ -1199,19 +1229,19 @@
       </c>
       <c r="I6" s="7">
         <f>G17+G18</f>
-        <v>1010378.5</v>
+        <v>1096847</v>
       </c>
       <c r="J6" s="7">
         <f t="shared" ref="J6:J10" si="0">I6/4.1</f>
-        <v>246433.78048780491</v>
+        <v>267523.6585365854</v>
       </c>
       <c r="K6" s="7">
         <f t="shared" ref="K6:K10" si="1">(I6/22)*1.1</f>
-        <v>50518.925000000003</v>
+        <v>54842.350000000006</v>
       </c>
       <c r="L6" s="7">
         <f t="shared" ref="L6:L10" si="2">(K6/8)*1.3</f>
-        <v>8209.325312500001</v>
+        <v>8911.8818750000009</v>
       </c>
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.25">
@@ -1241,32 +1271,32 @@
       </c>
       <c r="I7" s="7">
         <f>H17+H18</f>
-        <v>980950</v>
+        <v>1064900</v>
       </c>
       <c r="J7" s="7">
         <f t="shared" si="0"/>
-        <v>239256.09756097564</v>
+        <v>259731.70731707319</v>
       </c>
       <c r="K7" s="7">
         <f t="shared" si="1"/>
-        <v>49047.5</v>
+        <v>53245.000000000007</v>
       </c>
       <c r="L7" s="7">
         <f t="shared" si="2"/>
-        <v>7970.21875</v>
+        <v>8652.3125000000018</v>
       </c>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A8" s="5">
+      <c r="A8" s="10">
         <v>3</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="8" t="s">
         <v>23</v>
       </c>
       <c r="C8" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="8" t="s">
         <v>19</v>
       </c>
       <c r="E8" s="3" t="s">
@@ -1283,132 +1313,132 @@
       </c>
       <c r="I8" s="7">
         <f>I17+I18</f>
-        <v>980950</v>
+        <v>1064900</v>
       </c>
       <c r="J8" s="7">
         <f t="shared" si="0"/>
-        <v>239256.09756097564</v>
+        <v>259731.70731707319</v>
       </c>
       <c r="K8" s="7">
         <f t="shared" si="1"/>
-        <v>49047.5</v>
+        <v>53245.000000000007</v>
       </c>
       <c r="L8" s="7">
         <f t="shared" si="2"/>
-        <v>7970.21875</v>
+        <v>8652.3125000000018</v>
       </c>
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A9" s="5">
+      <c r="A9" s="69">
         <v>4</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="87" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="87" t="s">
         <v>25</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D9" s="87" t="s">
         <v>19</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="E9" s="91" t="s">
         <v>20</v>
       </c>
-      <c r="F9" s="3" t="s">
+      <c r="F9" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="G9" s="3">
+      <c r="G9" s="8">
         <v>0.92600000000000005</v>
       </c>
-      <c r="H9" s="9">
+      <c r="H9" s="81">
         <v>0.03</v>
       </c>
-      <c r="I9" s="7">
+      <c r="I9" s="11">
         <f>J17+J18</f>
-        <v>1010378.5</v>
+        <v>1096847</v>
       </c>
-      <c r="J9" s="7">
+      <c r="J9" s="11">
         <f t="shared" si="0"/>
-        <v>246433.78048780491</v>
+        <v>267523.6585365854</v>
       </c>
-      <c r="K9" s="7">
+      <c r="K9" s="11">
         <f t="shared" si="1"/>
-        <v>50518.925000000003</v>
+        <v>54842.350000000006</v>
       </c>
-      <c r="L9" s="7">
+      <c r="L9" s="11">
         <f t="shared" si="2"/>
-        <v>8209.325312500001</v>
+        <v>8911.8818750000009</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A10" s="10">
+    <row r="10" spans="1:26" s="86" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="69">
         <v>5</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="87" t="s">
         <v>26</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="87" t="s">
         <v>27</v>
       </c>
-      <c r="D10" s="8" t="s">
+      <c r="D10" s="87" t="s">
         <v>19</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="E10" s="92" t="s">
         <v>20</v>
       </c>
-      <c r="F10" s="3" t="s">
+      <c r="F10" s="87" t="s">
         <v>3</v>
       </c>
-      <c r="G10" s="3">
+      <c r="G10" s="87">
         <v>0.92600000000000005</v>
       </c>
-      <c r="H10" s="11">
+      <c r="H10" s="88">
         <v>0</v>
       </c>
-      <c r="I10" s="12">
+      <c r="I10" s="89">
         <f>K17+K18</f>
-        <v>980950</v>
+        <v>1064900</v>
       </c>
-      <c r="J10" s="12">
+      <c r="J10" s="89">
         <f t="shared" si="0"/>
-        <v>239256.09756097564</v>
+        <v>259731.70731707319</v>
       </c>
-      <c r="K10" s="12">
+      <c r="K10" s="89">
         <f t="shared" si="1"/>
-        <v>49047.5</v>
+        <v>53245.000000000007</v>
       </c>
-      <c r="L10" s="12">
+      <c r="L10" s="89">
         <f t="shared" si="2"/>
-        <v>7970.21875</v>
+        <v>8652.3125000000018</v>
       </c>
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A11" s="13"/>
-      <c r="B11" s="14"/>
-      <c r="C11" s="14"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="14"/>
-      <c r="G11" s="14"/>
-      <c r="H11" s="15"/>
-      <c r="I11" s="16"/>
-      <c r="J11" s="16"/>
-      <c r="K11" s="16"/>
-      <c r="L11" s="16"/>
-      <c r="M11" s="14"/>
-      <c r="N11" s="14"/>
-      <c r="O11" s="14"/>
-      <c r="P11" s="14"/>
-      <c r="Q11" s="14"/>
-      <c r="R11" s="14"/>
-      <c r="S11" s="14"/>
-      <c r="T11" s="14"/>
-      <c r="U11" s="14"/>
-      <c r="V11" s="14"/>
-      <c r="W11" s="14"/>
-      <c r="X11" s="14"/>
-      <c r="Y11" s="14"/>
-      <c r="Z11" s="14"/>
+      <c r="A11" s="82"/>
+      <c r="B11" s="83"/>
+      <c r="C11" s="83"/>
+      <c r="D11" s="83"/>
+      <c r="E11" s="83"/>
+      <c r="F11" s="83"/>
+      <c r="G11" s="83"/>
+      <c r="H11" s="84"/>
+      <c r="I11" s="85"/>
+      <c r="J11" s="85"/>
+      <c r="K11" s="85"/>
+      <c r="L11" s="85"/>
+      <c r="M11" s="83"/>
+      <c r="N11" s="83"/>
+      <c r="O11" s="83"/>
+      <c r="P11" s="83"/>
+      <c r="Q11" s="83"/>
+      <c r="R11" s="83"/>
+      <c r="S11" s="83"/>
+      <c r="T11" s="83"/>
+      <c r="U11" s="83"/>
+      <c r="V11" s="83"/>
+      <c r="W11" s="83"/>
+      <c r="X11" s="83"/>
+      <c r="Y11" s="83"/>
+      <c r="Z11" s="83"/>
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.25">
       <c r="G15" s="1" t="s">
@@ -1431,22 +1461,22 @@
       <c r="F16" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="G16" s="17">
+      <c r="G16" s="13">
         <v>1150000</v>
       </c>
-      <c r="H16" s="17">
+      <c r="H16" s="13">
         <v>1150000</v>
       </c>
-      <c r="I16" s="17">
+      <c r="I16" s="13">
         <v>1150000</v>
       </c>
-      <c r="J16" s="17">
+      <c r="J16" s="13">
         <v>1150000</v>
       </c>
-      <c r="K16" s="17">
+      <c r="K16" s="13">
         <v>1150000</v>
       </c>
-      <c r="L16" s="18"/>
+      <c r="L16" s="14"/>
     </row>
     <row r="17" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D17" s="1" t="s">
@@ -1456,37 +1486,37 @@
         <v>35</v>
       </c>
       <c r="G17" s="7">
-        <f t="shared" ref="G17:I17" si="3">G16*$H$3</f>
-        <v>980950</v>
+        <f>G16*$H$3</f>
+        <v>1064900</v>
       </c>
       <c r="H17" s="7">
-        <f t="shared" si="3"/>
-        <v>980950</v>
+        <f t="shared" ref="G17:I17" si="3">H16*$H$3</f>
+        <v>1064900</v>
       </c>
       <c r="I17" s="7">
         <f t="shared" si="3"/>
-        <v>980950</v>
+        <v>1064900</v>
       </c>
       <c r="J17" s="7">
         <f>J16*H3</f>
-        <v>980950</v>
+        <v>1064900</v>
       </c>
-      <c r="K17" s="19">
+      <c r="K17" s="15">
         <f>K16*H3</f>
-        <v>980950</v>
+        <v>1064900</v>
       </c>
-      <c r="L17" s="20"/>
+      <c r="L17" s="16"/>
     </row>
     <row r="18" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="D18" s="21" t="s">
-        <v>36</v>
+      <c r="D18" s="93">
+        <v>1150000</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G18" s="7">
         <f>G17*H6</f>
-        <v>29428.5</v>
+        <v>31947</v>
       </c>
       <c r="H18" s="7">
         <f>H17*H7</f>
@@ -1498,21 +1528,21 @@
       </c>
       <c r="J18" s="7">
         <f>J17*H9</f>
-        <v>29428.5</v>
+        <v>31947</v>
       </c>
       <c r="K18" s="7">
         <f>K17*H10</f>
         <v>0</v>
       </c>
-      <c r="L18" s="22"/>
+      <c r="L18" s="18"/>
     </row>
     <row r="21" spans="4:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G21" s="23"/>
+      <c r="G21" s="90"/>
     </row>
     <row r="22" spans="4:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="23" spans="4:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D23" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="24" spans="4:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2497,7 +2527,7 @@
     <mergeCell ref="E3:F3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2506,7 +2536,7 @@
   <dimension ref="B2:G1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="G13" sqref="G13:G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2521,31 +2551,31 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="D2" s="75" t="s">
-        <v>39</v>
+      <c r="D2" s="72" t="s">
+        <v>38</v>
       </c>
-      <c r="E2" s="76"/>
-      <c r="F2" s="76"/>
-      <c r="G2" s="77"/>
+      <c r="E2" s="73"/>
+      <c r="F2" s="73"/>
+      <c r="G2" s="74"/>
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D3" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="D3" s="24" t="s">
+      <c r="E3" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="E3" s="24" t="s">
-        <v>42</v>
-      </c>
-      <c r="F3" s="24" t="s">
+      <c r="F3" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="G3" s="24" t="s">
-        <v>43</v>
+      <c r="G3" s="19" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.25">
@@ -2561,12 +2591,12 @@
       <c r="E4" s="5">
         <v>60</v>
       </c>
-      <c r="F4" s="25">
-        <v>50519</v>
+      <c r="F4" s="20">
+        <v>54842</v>
       </c>
-      <c r="G4" s="26">
+      <c r="G4" s="21">
         <f t="shared" ref="G4:G8" si="0">E4*F4</f>
-        <v>3031140</v>
+        <v>3290520</v>
       </c>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.25">
@@ -2582,12 +2612,12 @@
       <c r="E5" s="5">
         <v>60</v>
       </c>
-      <c r="F5" s="25">
-        <v>50519</v>
+      <c r="F5" s="21">
+        <v>54842</v>
       </c>
-      <c r="G5" s="26">
+      <c r="G5" s="21">
         <f t="shared" si="0"/>
-        <v>3031140</v>
+        <v>3290520</v>
       </c>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.25">
@@ -2603,12 +2633,12 @@
       <c r="E6" s="5">
         <v>60</v>
       </c>
-      <c r="F6" s="25">
-        <v>49048</v>
+      <c r="F6" s="20">
+        <v>53245</v>
       </c>
-      <c r="G6" s="26">
+      <c r="G6" s="21">
         <f t="shared" si="0"/>
-        <v>2942880</v>
+        <v>3194700</v>
       </c>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.25">
@@ -2624,12 +2654,12 @@
       <c r="E7" s="5">
         <v>60</v>
       </c>
-      <c r="F7" s="25">
-        <v>49048</v>
+      <c r="F7" s="21">
+        <v>53245</v>
       </c>
-      <c r="G7" s="26">
+      <c r="G7" s="21">
         <f t="shared" si="0"/>
-        <v>2942880</v>
+        <v>3194700</v>
       </c>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.25">
@@ -2645,31 +2675,28 @@
       <c r="E8" s="5">
         <v>60</v>
       </c>
-      <c r="F8" s="25">
-        <v>49048</v>
+      <c r="F8" s="21">
+        <v>53245</v>
       </c>
-      <c r="G8" s="26">
+      <c r="G8" s="21">
         <f t="shared" si="0"/>
-        <v>2942880</v>
+        <v>3194700</v>
       </c>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.25">
       <c r="D9" s="10"/>
-      <c r="E9" s="27"/>
-      <c r="F9" s="27"/>
-      <c r="G9" s="28">
+      <c r="E9" s="22"/>
+      <c r="F9" s="22"/>
+      <c r="G9" s="23">
         <f>SUM(G3:G8)</f>
-        <v>14890920</v>
+        <v>16165140</v>
       </c>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="D10" s="14"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="14"/>
-      <c r="G10" s="29"/>
-    </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="G13" s="21"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="24"/>
     </row>
     <row r="21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3664,7 +3691,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BM1000"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
@@ -3715,11 +3742,11 @@
       <c r="AM1" s="2"/>
     </row>
     <row r="2" spans="1:65" x14ac:dyDescent="0.25">
-      <c r="C2" s="30" t="s">
-        <v>44</v>
+      <c r="C2" s="25" t="s">
+        <v>43</v>
       </c>
       <c r="D2" s="78" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E2" s="78"/>
       <c r="F2" s="78"/>
@@ -3758,7 +3785,7 @@
       <c r="AM2" s="2"/>
     </row>
     <row r="3" spans="1:65" x14ac:dyDescent="0.25">
-      <c r="C3" s="30" t="s">
+      <c r="C3" s="25" t="s">
         <v>18</v>
       </c>
       <c r="D3" s="78" t="s">
@@ -3801,11 +3828,11 @@
       <c r="AM3" s="2"/>
     </row>
     <row r="4" spans="1:65" x14ac:dyDescent="0.25">
-      <c r="C4" s="30" t="s">
-        <v>46</v>
+      <c r="C4" s="25" t="s">
+        <v>45</v>
       </c>
       <c r="D4" s="78" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E4" s="78"/>
       <c r="F4" s="78"/>
@@ -3841,14 +3868,14 @@
       <c r="AJ4" s="2"/>
       <c r="AK4" s="2"/>
       <c r="AL4" s="2"/>
-      <c r="AM4" s="31"/>
+      <c r="AM4" s="26"/>
     </row>
     <row r="5" spans="1:65" x14ac:dyDescent="0.25">
-      <c r="C5" s="30" t="s">
-        <v>48</v>
+      <c r="C5" s="25" t="s">
+        <v>47</v>
       </c>
       <c r="D5" s="78" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E5" s="78"/>
       <c r="F5" s="78"/>
@@ -3923,86 +3950,86 @@
       <c r="AM6" s="2"/>
     </row>
     <row r="7" spans="1:65" x14ac:dyDescent="0.25">
-      <c r="A7" s="30"/>
+      <c r="A7" s="25"/>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
-      <c r="H7" s="31"/>
-      <c r="I7" s="31"/>
-      <c r="J7" s="31"/>
-      <c r="K7" s="31"/>
-      <c r="L7" s="31"/>
-      <c r="M7" s="31"/>
-      <c r="N7" s="31"/>
-      <c r="O7" s="31"/>
-      <c r="P7" s="31"/>
-      <c r="Q7" s="31"/>
-      <c r="R7" s="31"/>
-      <c r="S7" s="31"/>
-      <c r="T7" s="31"/>
-      <c r="U7" s="31"/>
-      <c r="V7" s="31"/>
-      <c r="W7" s="31"/>
-      <c r="X7" s="31"/>
-      <c r="Y7" s="31"/>
-      <c r="Z7" s="31"/>
-      <c r="AA7" s="31"/>
-      <c r="AB7" s="31"/>
-      <c r="AC7" s="31"/>
-      <c r="AD7" s="31"/>
-      <c r="AE7" s="31"/>
-      <c r="AF7" s="31"/>
-      <c r="AG7" s="31"/>
-      <c r="AH7" s="31"/>
-      <c r="AI7" s="31"/>
-      <c r="AJ7" s="31"/>
-      <c r="AK7" s="31"/>
-      <c r="AL7" s="31"/>
-      <c r="AM7" s="31"/>
-      <c r="AN7" s="31"/>
-      <c r="AO7" s="31"/>
-      <c r="AP7" s="31"/>
-      <c r="AQ7" s="31"/>
-      <c r="AR7" s="31"/>
-      <c r="AS7" s="31"/>
-      <c r="AT7" s="31"/>
-      <c r="AU7" s="31"/>
-      <c r="AV7" s="31"/>
-      <c r="AW7" s="31"/>
-      <c r="AX7" s="31"/>
-      <c r="AY7" s="31"/>
-      <c r="AZ7" s="31"/>
-      <c r="BA7" s="31"/>
-      <c r="BB7" s="31"/>
-      <c r="BC7" s="31"/>
-      <c r="BD7" s="31"/>
-      <c r="BE7" s="31"/>
-      <c r="BF7" s="31"/>
-      <c r="BG7" s="31"/>
-      <c r="BH7" s="31"/>
-      <c r="BI7" s="31"/>
-      <c r="BJ7" s="31"/>
-      <c r="BK7" s="31"/>
-      <c r="BL7" s="31"/>
-      <c r="BM7" s="31"/>
+      <c r="H7" s="26"/>
+      <c r="I7" s="26"/>
+      <c r="J7" s="26"/>
+      <c r="K7" s="26"/>
+      <c r="L7" s="26"/>
+      <c r="M7" s="26"/>
+      <c r="N7" s="26"/>
+      <c r="O7" s="26"/>
+      <c r="P7" s="26"/>
+      <c r="Q7" s="26"/>
+      <c r="R7" s="26"/>
+      <c r="S7" s="26"/>
+      <c r="T7" s="26"/>
+      <c r="U7" s="26"/>
+      <c r="V7" s="26"/>
+      <c r="W7" s="26"/>
+      <c r="X7" s="26"/>
+      <c r="Y7" s="26"/>
+      <c r="Z7" s="26"/>
+      <c r="AA7" s="26"/>
+      <c r="AB7" s="26"/>
+      <c r="AC7" s="26"/>
+      <c r="AD7" s="26"/>
+      <c r="AE7" s="26"/>
+      <c r="AF7" s="26"/>
+      <c r="AG7" s="26"/>
+      <c r="AH7" s="26"/>
+      <c r="AI7" s="26"/>
+      <c r="AJ7" s="26"/>
+      <c r="AK7" s="26"/>
+      <c r="AL7" s="26"/>
+      <c r="AM7" s="26"/>
+      <c r="AN7" s="26"/>
+      <c r="AO7" s="26"/>
+      <c r="AP7" s="26"/>
+      <c r="AQ7" s="26"/>
+      <c r="AR7" s="26"/>
+      <c r="AS7" s="26"/>
+      <c r="AT7" s="26"/>
+      <c r="AU7" s="26"/>
+      <c r="AV7" s="26"/>
+      <c r="AW7" s="26"/>
+      <c r="AX7" s="26"/>
+      <c r="AY7" s="26"/>
+      <c r="AZ7" s="26"/>
+      <c r="BA7" s="26"/>
+      <c r="BB7" s="26"/>
+      <c r="BC7" s="26"/>
+      <c r="BD7" s="26"/>
+      <c r="BE7" s="26"/>
+      <c r="BF7" s="26"/>
+      <c r="BG7" s="26"/>
+      <c r="BH7" s="26"/>
+      <c r="BI7" s="26"/>
+      <c r="BJ7" s="26"/>
+      <c r="BK7" s="26"/>
+      <c r="BL7" s="26"/>
+      <c r="BM7" s="26"/>
     </row>
     <row r="8" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B8" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="C8" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="D8" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="E8" s="40" t="s">
         <v>52</v>
       </c>
-      <c r="E8" s="45" t="s">
-        <v>53</v>
-      </c>
       <c r="F8" s="79" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G8" s="79"/>
       <c r="H8" s="79"/>
@@ -4023,2296 +4050,2296 @@
       <c r="W8" s="79"/>
       <c r="X8" s="79"/>
       <c r="Y8" s="79"/>
-      <c r="Z8" s="80" t="s">
+      <c r="Z8" s="75" t="s">
+        <v>131</v>
+      </c>
+      <c r="AA8" s="75"/>
+      <c r="AB8" s="75"/>
+      <c r="AC8" s="75"/>
+      <c r="AD8" s="75"/>
+      <c r="AE8" s="75"/>
+      <c r="AF8" s="75"/>
+      <c r="AG8" s="75"/>
+      <c r="AH8" s="75"/>
+      <c r="AI8" s="75"/>
+      <c r="AJ8" s="75"/>
+      <c r="AK8" s="75"/>
+      <c r="AL8" s="75"/>
+      <c r="AM8" s="75"/>
+      <c r="AN8" s="75"/>
+      <c r="AO8" s="75"/>
+      <c r="AP8" s="75"/>
+      <c r="AQ8" s="75"/>
+      <c r="AR8" s="75"/>
+      <c r="AS8" s="75"/>
+      <c r="AT8" s="75"/>
+      <c r="AU8" s="75"/>
+      <c r="AV8" s="75"/>
+      <c r="AW8" s="75"/>
+      <c r="AX8" s="75"/>
+      <c r="AY8" s="75"/>
+      <c r="AZ8" s="75"/>
+      <c r="BA8" s="75"/>
+      <c r="BB8" s="75"/>
+      <c r="BC8" s="75"/>
+      <c r="BD8" s="75"/>
+      <c r="BE8" s="76" t="s">
         <v>132</v>
       </c>
-      <c r="AA8" s="80"/>
-      <c r="AB8" s="80"/>
-      <c r="AC8" s="80"/>
-      <c r="AD8" s="80"/>
-      <c r="AE8" s="80"/>
-      <c r="AF8" s="80"/>
-      <c r="AG8" s="80"/>
-      <c r="AH8" s="80"/>
-      <c r="AI8" s="80"/>
-      <c r="AJ8" s="80"/>
-      <c r="AK8" s="80"/>
-      <c r="AL8" s="80"/>
-      <c r="AM8" s="80"/>
-      <c r="AN8" s="80"/>
-      <c r="AO8" s="80"/>
-      <c r="AP8" s="80"/>
-      <c r="AQ8" s="80"/>
-      <c r="AR8" s="80"/>
-      <c r="AS8" s="80"/>
-      <c r="AT8" s="80"/>
-      <c r="AU8" s="80"/>
-      <c r="AV8" s="80"/>
-      <c r="AW8" s="80"/>
-      <c r="AX8" s="80"/>
-      <c r="AY8" s="80"/>
-      <c r="AZ8" s="80"/>
-      <c r="BA8" s="80"/>
-      <c r="BB8" s="80"/>
-      <c r="BC8" s="80"/>
-      <c r="BD8" s="80"/>
-      <c r="BE8" s="81" t="s">
+      <c r="BF8" s="77"/>
+      <c r="BG8" s="77"/>
+      <c r="BH8" s="77"/>
+      <c r="BI8" s="77"/>
+      <c r="BJ8" s="77"/>
+      <c r="BK8" s="77"/>
+      <c r="BL8" s="77"/>
+      <c r="BM8" s="77"/>
+    </row>
+    <row r="9" spans="1:65" x14ac:dyDescent="0.25">
+      <c r="A9" s="28">
+        <v>1</v>
+      </c>
+      <c r="B9" s="29" t="s">
+        <v>53</v>
+      </c>
+      <c r="C9" s="30"/>
+      <c r="D9" s="30"/>
+      <c r="E9" s="41"/>
+      <c r="F9" s="42">
+        <v>11</v>
+      </c>
+      <c r="G9" s="42">
+        <v>12</v>
+      </c>
+      <c r="H9" s="42">
+        <v>13</v>
+      </c>
+      <c r="I9" s="42">
+        <v>14</v>
+      </c>
+      <c r="J9" s="42">
+        <v>15</v>
+      </c>
+      <c r="K9" s="42">
+        <v>16</v>
+      </c>
+      <c r="L9" s="42">
+        <v>17</v>
+      </c>
+      <c r="M9" s="42">
+        <v>18</v>
+      </c>
+      <c r="N9" s="42">
+        <v>19</v>
+      </c>
+      <c r="O9" s="42">
+        <v>20</v>
+      </c>
+      <c r="P9" s="42">
+        <v>21</v>
+      </c>
+      <c r="Q9" s="42">
+        <v>22</v>
+      </c>
+      <c r="R9" s="42">
+        <v>23</v>
+      </c>
+      <c r="S9" s="42">
+        <v>24</v>
+      </c>
+      <c r="T9" s="42">
+        <v>25</v>
+      </c>
+      <c r="U9" s="42">
+        <v>26</v>
+      </c>
+      <c r="V9" s="42">
+        <v>27</v>
+      </c>
+      <c r="W9" s="42">
+        <v>28</v>
+      </c>
+      <c r="X9" s="42">
+        <v>29</v>
+      </c>
+      <c r="Y9" s="42">
+        <v>30</v>
+      </c>
+      <c r="Z9" s="42">
+        <v>1</v>
+      </c>
+      <c r="AA9" s="42">
+        <v>2</v>
+      </c>
+      <c r="AB9" s="42">
+        <v>3</v>
+      </c>
+      <c r="AC9" s="42">
+        <v>4</v>
+      </c>
+      <c r="AD9" s="42">
+        <v>5</v>
+      </c>
+      <c r="AE9" s="42">
+        <v>6</v>
+      </c>
+      <c r="AF9" s="42">
+        <v>7</v>
+      </c>
+      <c r="AG9" s="42">
+        <v>8</v>
+      </c>
+      <c r="AH9" s="42">
+        <v>9</v>
+      </c>
+      <c r="AI9" s="42">
+        <v>10</v>
+      </c>
+      <c r="AJ9" s="42">
+        <v>11</v>
+      </c>
+      <c r="AK9" s="42">
+        <v>12</v>
+      </c>
+      <c r="AL9" s="42">
+        <v>13</v>
+      </c>
+      <c r="AM9" s="42">
+        <v>14</v>
+      </c>
+      <c r="AN9" s="42">
+        <v>15</v>
+      </c>
+      <c r="AO9" s="42">
+        <v>16</v>
+      </c>
+      <c r="AP9" s="42">
+        <v>17</v>
+      </c>
+      <c r="AQ9" s="42">
+        <v>18</v>
+      </c>
+      <c r="AR9" s="42">
+        <v>19</v>
+      </c>
+      <c r="AS9" s="42">
+        <v>20</v>
+      </c>
+      <c r="AT9" s="42">
+        <v>21</v>
+      </c>
+      <c r="AU9" s="42">
+        <v>22</v>
+      </c>
+      <c r="AV9" s="42">
+        <v>23</v>
+      </c>
+      <c r="AW9" s="42">
+        <v>24</v>
+      </c>
+      <c r="AX9" s="42">
+        <v>25</v>
+      </c>
+      <c r="AY9" s="42">
+        <v>26</v>
+      </c>
+      <c r="AZ9" s="42">
+        <v>27</v>
+      </c>
+      <c r="BA9" s="42">
+        <v>28</v>
+      </c>
+      <c r="BB9" s="42">
+        <v>29</v>
+      </c>
+      <c r="BC9" s="42">
+        <v>30</v>
+      </c>
+      <c r="BD9" s="42">
+        <v>31</v>
+      </c>
+      <c r="BE9" s="42">
+        <v>1</v>
+      </c>
+      <c r="BF9" s="42">
+        <v>2</v>
+      </c>
+      <c r="BG9" s="42">
+        <v>3</v>
+      </c>
+      <c r="BH9" s="42">
+        <v>4</v>
+      </c>
+      <c r="BI9" s="42">
+        <v>5</v>
+      </c>
+      <c r="BJ9" s="42">
+        <v>6</v>
+      </c>
+      <c r="BK9" s="42">
+        <v>7</v>
+      </c>
+      <c r="BL9" s="42">
+        <v>8</v>
+      </c>
+      <c r="BM9" s="42">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:65" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C10" s="31">
+        <v>44662</v>
+      </c>
+      <c r="D10" s="31">
+        <v>44664</v>
+      </c>
+      <c r="E10" s="27">
+        <v>3</v>
+      </c>
+      <c r="F10" s="43"/>
+      <c r="G10" s="43"/>
+      <c r="H10" s="43"/>
+      <c r="I10" s="44"/>
+      <c r="J10" s="44"/>
+      <c r="K10" s="44"/>
+      <c r="L10" s="45"/>
+      <c r="M10" s="44"/>
+      <c r="N10" s="44"/>
+      <c r="O10" s="44"/>
+      <c r="P10" s="44"/>
+      <c r="Q10" s="44"/>
+      <c r="R10" s="44"/>
+      <c r="S10" s="45"/>
+      <c r="T10" s="44"/>
+      <c r="U10" s="44"/>
+      <c r="V10" s="44"/>
+      <c r="W10" s="44"/>
+      <c r="X10" s="44"/>
+      <c r="Y10" s="44"/>
+      <c r="Z10" s="45"/>
+      <c r="AA10" s="44"/>
+      <c r="AB10" s="44"/>
+      <c r="AC10" s="44"/>
+      <c r="AD10" s="44"/>
+      <c r="AE10" s="44"/>
+      <c r="AF10" s="44"/>
+      <c r="AG10" s="45"/>
+      <c r="AH10" s="44"/>
+      <c r="AI10" s="44"/>
+      <c r="AJ10" s="44"/>
+      <c r="AK10" s="44"/>
+      <c r="AL10" s="44"/>
+      <c r="AM10" s="44"/>
+      <c r="AN10" s="45"/>
+      <c r="AO10" s="46"/>
+      <c r="AP10" s="46"/>
+      <c r="AQ10" s="46"/>
+      <c r="AR10" s="46"/>
+      <c r="AS10" s="46"/>
+      <c r="AT10" s="46"/>
+      <c r="AU10" s="45"/>
+      <c r="AV10" s="46"/>
+      <c r="AW10" s="46"/>
+      <c r="AX10" s="46"/>
+      <c r="AY10" s="46"/>
+      <c r="AZ10" s="46"/>
+      <c r="BA10" s="46"/>
+      <c r="BB10" s="45"/>
+      <c r="BC10" s="46"/>
+      <c r="BD10" s="46"/>
+      <c r="BE10" s="46"/>
+      <c r="BF10" s="46"/>
+      <c r="BG10" s="46"/>
+      <c r="BH10" s="46"/>
+      <c r="BI10" s="45"/>
+      <c r="BJ10" s="46"/>
+      <c r="BK10" s="46"/>
+      <c r="BL10" s="46"/>
+      <c r="BM10" s="46"/>
+    </row>
+    <row r="11" spans="1:65" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C11" s="31">
+        <v>44664</v>
+      </c>
+      <c r="D11" s="31">
+        <v>44666</v>
+      </c>
+      <c r="E11" s="27">
+        <v>3</v>
+      </c>
+      <c r="F11" s="44"/>
+      <c r="G11" s="44"/>
+      <c r="H11" s="43"/>
+      <c r="I11" s="43"/>
+      <c r="J11" s="43"/>
+      <c r="L11" s="45"/>
+      <c r="M11" s="44"/>
+      <c r="N11" s="44"/>
+      <c r="O11" s="44"/>
+      <c r="P11" s="44"/>
+      <c r="Q11" s="44"/>
+      <c r="R11" s="44"/>
+      <c r="S11" s="45"/>
+      <c r="T11" s="44"/>
+      <c r="U11" s="44"/>
+      <c r="V11" s="44"/>
+      <c r="W11" s="44"/>
+      <c r="X11" s="44"/>
+      <c r="Y11" s="44"/>
+      <c r="Z11" s="45"/>
+      <c r="AA11" s="44"/>
+      <c r="AB11" s="44"/>
+      <c r="AC11" s="44"/>
+      <c r="AD11" s="44"/>
+      <c r="AE11" s="44"/>
+      <c r="AF11" s="44"/>
+      <c r="AG11" s="45"/>
+      <c r="AH11" s="44"/>
+      <c r="AI11" s="44"/>
+      <c r="AJ11" s="44"/>
+      <c r="AK11" s="44"/>
+      <c r="AL11" s="44"/>
+      <c r="AM11" s="44"/>
+      <c r="AN11" s="45"/>
+      <c r="AO11" s="46"/>
+      <c r="AP11" s="46"/>
+      <c r="AQ11" s="46"/>
+      <c r="AR11" s="46"/>
+      <c r="AS11" s="46"/>
+      <c r="AT11" s="46"/>
+      <c r="AU11" s="45"/>
+      <c r="AV11" s="46"/>
+      <c r="AW11" s="46"/>
+      <c r="AX11" s="46"/>
+      <c r="AY11" s="46"/>
+      <c r="AZ11" s="46"/>
+      <c r="BA11" s="46"/>
+      <c r="BB11" s="45"/>
+      <c r="BC11" s="46"/>
+      <c r="BD11" s="46"/>
+      <c r="BE11" s="46"/>
+      <c r="BF11" s="46"/>
+      <c r="BG11" s="46"/>
+      <c r="BH11" s="46"/>
+      <c r="BI11" s="45"/>
+      <c r="BJ11" s="46"/>
+      <c r="BK11" s="46"/>
+      <c r="BL11" s="46"/>
+      <c r="BM11" s="46"/>
+    </row>
+    <row r="12" spans="1:65" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B12" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="C12" s="31">
+        <v>44666</v>
+      </c>
+      <c r="D12" s="31">
+        <v>44669</v>
+      </c>
+      <c r="E12" s="27">
+        <v>3</v>
+      </c>
+      <c r="F12" s="44"/>
+      <c r="G12" s="44"/>
+      <c r="H12" s="44"/>
+      <c r="I12" s="44"/>
+      <c r="J12" s="53"/>
+      <c r="K12" s="53"/>
+      <c r="L12" s="45"/>
+      <c r="M12" s="43"/>
+      <c r="N12" s="50"/>
+      <c r="O12" s="50"/>
+      <c r="P12" s="50"/>
+      <c r="Q12" s="44"/>
+      <c r="R12" s="44"/>
+      <c r="S12" s="45"/>
+      <c r="T12" s="44"/>
+      <c r="U12" s="44"/>
+      <c r="V12" s="44"/>
+      <c r="W12" s="44"/>
+      <c r="X12" s="44"/>
+      <c r="Y12" s="44"/>
+      <c r="Z12" s="45"/>
+      <c r="AA12" s="44"/>
+      <c r="AB12" s="44"/>
+      <c r="AC12" s="44"/>
+      <c r="AD12" s="44"/>
+      <c r="AE12" s="44"/>
+      <c r="AF12" s="44"/>
+      <c r="AG12" s="45"/>
+      <c r="AH12" s="44"/>
+      <c r="AI12" s="44"/>
+      <c r="AJ12" s="44"/>
+      <c r="AK12" s="44"/>
+      <c r="AL12" s="44"/>
+      <c r="AM12" s="44"/>
+      <c r="AN12" s="45"/>
+      <c r="AO12" s="46"/>
+      <c r="AP12" s="46"/>
+      <c r="AQ12" s="46"/>
+      <c r="AR12" s="46"/>
+      <c r="AS12" s="46"/>
+      <c r="AT12" s="46"/>
+      <c r="AU12" s="45"/>
+      <c r="AV12" s="46"/>
+      <c r="AW12" s="46"/>
+      <c r="AX12" s="46"/>
+      <c r="AY12" s="46"/>
+      <c r="AZ12" s="46"/>
+      <c r="BA12" s="46"/>
+      <c r="BB12" s="45"/>
+      <c r="BC12" s="46"/>
+      <c r="BD12" s="46"/>
+      <c r="BE12" s="46"/>
+      <c r="BF12" s="46"/>
+      <c r="BG12" s="46"/>
+      <c r="BH12" s="46"/>
+      <c r="BI12" s="45"/>
+      <c r="BJ12" s="46"/>
+      <c r="BK12" s="46"/>
+      <c r="BL12" s="46"/>
+      <c r="BM12" s="46"/>
+    </row>
+    <row r="13" spans="1:65" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C13" s="31">
+        <v>44669</v>
+      </c>
+      <c r="D13" s="31">
+        <v>44671</v>
+      </c>
+      <c r="E13" s="27">
+        <v>3</v>
+      </c>
+      <c r="F13" s="44"/>
+      <c r="G13" s="44"/>
+      <c r="H13" s="44"/>
+      <c r="I13" s="44"/>
+      <c r="J13" s="44"/>
+      <c r="K13" s="44"/>
+      <c r="L13" s="45"/>
+      <c r="M13" s="54"/>
+      <c r="N13" s="53"/>
+      <c r="O13" s="53"/>
+      <c r="P13" s="44"/>
+      <c r="Q13" s="44"/>
+      <c r="R13" s="44"/>
+      <c r="S13" s="45"/>
+      <c r="T13" s="44"/>
+      <c r="U13" s="44"/>
+      <c r="V13" s="44"/>
+      <c r="W13" s="44"/>
+      <c r="X13" s="44"/>
+      <c r="Y13" s="44"/>
+      <c r="Z13" s="45"/>
+      <c r="AA13" s="44"/>
+      <c r="AB13" s="44"/>
+      <c r="AC13" s="44"/>
+      <c r="AD13" s="44"/>
+      <c r="AE13" s="44"/>
+      <c r="AF13" s="44"/>
+      <c r="AG13" s="45"/>
+      <c r="AH13" s="44"/>
+      <c r="AI13" s="44"/>
+      <c r="AJ13" s="44"/>
+      <c r="AK13" s="44"/>
+      <c r="AL13" s="44"/>
+      <c r="AM13" s="44"/>
+      <c r="AN13" s="45"/>
+      <c r="AO13" s="46"/>
+      <c r="AP13" s="46"/>
+      <c r="AQ13" s="46"/>
+      <c r="AR13" s="46"/>
+      <c r="AS13" s="46"/>
+      <c r="AT13" s="46"/>
+      <c r="AU13" s="45"/>
+      <c r="AV13" s="46"/>
+      <c r="AW13" s="46"/>
+      <c r="AX13" s="46"/>
+      <c r="AY13" s="46"/>
+      <c r="AZ13" s="46"/>
+      <c r="BA13" s="46"/>
+      <c r="BB13" s="45"/>
+      <c r="BC13" s="46"/>
+      <c r="BD13" s="46"/>
+      <c r="BE13" s="46"/>
+      <c r="BF13" s="46"/>
+      <c r="BG13" s="46"/>
+      <c r="BH13" s="46"/>
+      <c r="BI13" s="45"/>
+      <c r="BJ13" s="46"/>
+      <c r="BK13" s="46"/>
+      <c r="BL13" s="46"/>
+      <c r="BM13" s="46"/>
+    </row>
+    <row r="14" spans="1:65" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="B14" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="C14" s="31">
+        <v>44670</v>
+      </c>
+      <c r="D14" s="31">
+        <v>44672</v>
+      </c>
+      <c r="E14" s="27">
+        <v>3</v>
+      </c>
+      <c r="F14" s="44"/>
+      <c r="G14" s="44"/>
+      <c r="H14" s="44"/>
+      <c r="I14" s="44"/>
+      <c r="J14" s="44"/>
+      <c r="K14" s="44"/>
+      <c r="L14" s="45"/>
+      <c r="M14" s="44"/>
+      <c r="N14" s="50"/>
+      <c r="O14" s="54"/>
+      <c r="P14" s="53"/>
+      <c r="Q14" s="53"/>
+      <c r="R14" s="44"/>
+      <c r="S14" s="45"/>
+      <c r="T14" s="44"/>
+      <c r="U14" s="44"/>
+      <c r="V14" s="44"/>
+      <c r="W14" s="44"/>
+      <c r="X14" s="44"/>
+      <c r="Y14" s="44"/>
+      <c r="Z14" s="45"/>
+      <c r="AA14" s="44"/>
+      <c r="AB14" s="44"/>
+      <c r="AC14" s="44"/>
+      <c r="AD14" s="44"/>
+      <c r="AE14" s="44"/>
+      <c r="AF14" s="44"/>
+      <c r="AG14" s="45"/>
+      <c r="AH14" s="44"/>
+      <c r="AI14" s="44"/>
+      <c r="AJ14" s="44"/>
+      <c r="AK14" s="44"/>
+      <c r="AL14" s="44"/>
+      <c r="AM14" s="44"/>
+      <c r="AN14" s="45"/>
+      <c r="AO14" s="46"/>
+      <c r="AP14" s="46"/>
+      <c r="AQ14" s="46"/>
+      <c r="AR14" s="46"/>
+      <c r="AS14" s="46"/>
+      <c r="AT14" s="46"/>
+      <c r="AU14" s="45"/>
+      <c r="AV14" s="46"/>
+      <c r="AW14" s="46"/>
+      <c r="AX14" s="46"/>
+      <c r="AY14" s="46"/>
+      <c r="AZ14" s="46"/>
+      <c r="BA14" s="46"/>
+      <c r="BB14" s="45"/>
+      <c r="BC14" s="46"/>
+      <c r="BD14" s="46"/>
+      <c r="BE14" s="46"/>
+      <c r="BF14" s="46"/>
+      <c r="BG14" s="46"/>
+      <c r="BH14" s="46"/>
+      <c r="BI14" s="45"/>
+      <c r="BJ14" s="46"/>
+      <c r="BK14" s="46"/>
+      <c r="BL14" s="46"/>
+      <c r="BM14" s="46"/>
+    </row>
+    <row r="15" spans="1:65" x14ac:dyDescent="0.25">
+      <c r="A15" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C15" s="31">
+        <v>44673</v>
+      </c>
+      <c r="D15" s="31">
+        <v>44676</v>
+      </c>
+      <c r="E15" s="27">
+        <v>3</v>
+      </c>
+      <c r="F15" s="44"/>
+      <c r="G15" s="44"/>
+      <c r="H15" s="44"/>
+      <c r="I15" s="44"/>
+      <c r="J15" s="44"/>
+      <c r="K15" s="44"/>
+      <c r="L15" s="45"/>
+      <c r="M15" s="44"/>
+      <c r="N15" s="44"/>
+      <c r="O15" s="50"/>
+      <c r="P15" s="50"/>
+      <c r="Q15" s="53"/>
+      <c r="R15" s="53"/>
+      <c r="S15" s="45"/>
+      <c r="T15" s="53"/>
+      <c r="U15" s="44"/>
+      <c r="V15" s="44"/>
+      <c r="W15" s="44"/>
+      <c r="X15" s="44"/>
+      <c r="Y15" s="44"/>
+      <c r="Z15" s="45"/>
+      <c r="AA15" s="44"/>
+      <c r="AB15" s="44"/>
+      <c r="AC15" s="44"/>
+      <c r="AD15" s="44"/>
+      <c r="AE15" s="44"/>
+      <c r="AF15" s="44"/>
+      <c r="AG15" s="45"/>
+      <c r="AH15" s="44"/>
+      <c r="AI15" s="44"/>
+      <c r="AJ15" s="44"/>
+      <c r="AK15" s="44"/>
+      <c r="AL15" s="44"/>
+      <c r="AM15" s="44"/>
+      <c r="AN15" s="45"/>
+      <c r="AO15" s="46"/>
+      <c r="AP15" s="46"/>
+      <c r="AQ15" s="46"/>
+      <c r="AR15" s="46"/>
+      <c r="AS15" s="46"/>
+      <c r="AT15" s="46"/>
+      <c r="AU15" s="45"/>
+      <c r="AV15" s="46"/>
+      <c r="AW15" s="46"/>
+      <c r="AX15" s="46"/>
+      <c r="AY15" s="46"/>
+      <c r="AZ15" s="46"/>
+      <c r="BA15" s="46"/>
+      <c r="BB15" s="45"/>
+      <c r="BC15" s="46"/>
+      <c r="BD15" s="46"/>
+      <c r="BE15" s="46"/>
+      <c r="BF15" s="46"/>
+      <c r="BG15" s="46"/>
+      <c r="BH15" s="46"/>
+      <c r="BI15" s="45"/>
+      <c r="BJ15" s="46"/>
+      <c r="BK15" s="46"/>
+      <c r="BL15" s="46"/>
+      <c r="BM15" s="46"/>
+    </row>
+    <row r="16" spans="1:65" s="36" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="28">
+        <v>2</v>
+      </c>
+      <c r="B16" s="29" t="s">
+        <v>134</v>
+      </c>
+      <c r="E16" s="47"/>
+      <c r="F16" s="47"/>
+      <c r="G16" s="47"/>
+      <c r="H16" s="47"/>
+      <c r="I16" s="47"/>
+      <c r="J16" s="47"/>
+      <c r="K16" s="47"/>
+      <c r="L16" s="45"/>
+      <c r="M16" s="47"/>
+      <c r="N16" s="47"/>
+      <c r="O16" s="47"/>
+      <c r="P16" s="48"/>
+      <c r="Q16" s="48"/>
+      <c r="R16" s="47"/>
+      <c r="S16" s="45"/>
+      <c r="T16" s="47"/>
+      <c r="U16" s="47"/>
+      <c r="V16" s="47"/>
+      <c r="W16" s="47"/>
+      <c r="X16" s="47"/>
+      <c r="Y16" s="47"/>
+      <c r="Z16" s="45"/>
+      <c r="AA16" s="47"/>
+      <c r="AB16" s="47"/>
+      <c r="AC16" s="47"/>
+      <c r="AD16" s="47"/>
+      <c r="AE16" s="47"/>
+      <c r="AF16" s="47"/>
+      <c r="AG16" s="45"/>
+      <c r="AH16" s="47"/>
+      <c r="AI16" s="47"/>
+      <c r="AJ16" s="47"/>
+      <c r="AK16" s="47"/>
+      <c r="AL16" s="47"/>
+      <c r="AM16" s="47"/>
+      <c r="AN16" s="45"/>
+      <c r="AO16" s="49"/>
+      <c r="AP16" s="49"/>
+      <c r="AQ16" s="49"/>
+      <c r="AR16" s="49"/>
+      <c r="AS16" s="49"/>
+      <c r="AT16" s="49"/>
+      <c r="AU16" s="45"/>
+      <c r="AV16" s="49"/>
+      <c r="AW16" s="49"/>
+      <c r="AX16" s="49"/>
+      <c r="AY16" s="49"/>
+      <c r="AZ16" s="49"/>
+      <c r="BA16" s="49"/>
+      <c r="BB16" s="45"/>
+      <c r="BC16" s="49"/>
+      <c r="BD16" s="49"/>
+      <c r="BE16" s="49"/>
+      <c r="BF16" s="49"/>
+      <c r="BG16" s="49"/>
+      <c r="BH16" s="49"/>
+      <c r="BI16" s="45"/>
+      <c r="BJ16" s="49"/>
+      <c r="BK16" s="49"/>
+      <c r="BL16" s="49"/>
+      <c r="BM16" s="49"/>
+    </row>
+    <row r="17" spans="1:65" x14ac:dyDescent="0.25">
+      <c r="A17" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C17" s="31">
+        <v>44676</v>
+      </c>
+      <c r="D17" s="31">
+        <v>44678</v>
+      </c>
+      <c r="E17" s="27">
+        <v>3</v>
+      </c>
+      <c r="F17" s="44"/>
+      <c r="G17" s="44"/>
+      <c r="H17" s="44"/>
+      <c r="I17" s="44"/>
+      <c r="J17" s="44"/>
+      <c r="K17" s="44"/>
+      <c r="L17" s="45"/>
+      <c r="M17" s="44"/>
+      <c r="N17" s="44"/>
+      <c r="O17" s="44"/>
+      <c r="P17" s="44"/>
+      <c r="Q17" s="44"/>
+      <c r="R17" s="44"/>
+      <c r="S17" s="45"/>
+      <c r="T17" s="53"/>
+      <c r="U17" s="53"/>
+      <c r="V17" s="53"/>
+      <c r="W17" s="44"/>
+      <c r="X17" s="44"/>
+      <c r="Y17" s="44"/>
+      <c r="Z17" s="45"/>
+      <c r="AA17" s="44"/>
+      <c r="AB17" s="44"/>
+      <c r="AC17" s="44"/>
+      <c r="AD17" s="44"/>
+      <c r="AE17" s="44"/>
+      <c r="AF17" s="44"/>
+      <c r="AG17" s="45"/>
+      <c r="AH17" s="44"/>
+      <c r="AI17" s="44"/>
+      <c r="AJ17" s="44"/>
+      <c r="AK17" s="44"/>
+      <c r="AL17" s="44"/>
+      <c r="AM17" s="44"/>
+      <c r="AN17" s="45"/>
+      <c r="AO17" s="46"/>
+      <c r="AP17" s="46"/>
+      <c r="AQ17" s="46"/>
+      <c r="AR17" s="46"/>
+      <c r="AS17" s="46"/>
+      <c r="AT17" s="46"/>
+      <c r="AU17" s="45"/>
+      <c r="AV17" s="46"/>
+      <c r="AW17" s="46"/>
+      <c r="AX17" s="46"/>
+      <c r="AY17" s="46"/>
+      <c r="AZ17" s="46"/>
+      <c r="BA17" s="46"/>
+      <c r="BB17" s="45"/>
+      <c r="BC17" s="46"/>
+      <c r="BD17" s="46"/>
+      <c r="BE17" s="46"/>
+      <c r="BF17" s="46"/>
+      <c r="BG17" s="46"/>
+      <c r="BH17" s="46"/>
+      <c r="BI17" s="45"/>
+      <c r="BJ17" s="46"/>
+      <c r="BK17" s="46"/>
+      <c r="BL17" s="46"/>
+      <c r="BM17" s="46"/>
+    </row>
+    <row r="18" spans="1:65" x14ac:dyDescent="0.25">
+      <c r="A18" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C18" s="31">
+        <v>44678</v>
+      </c>
+      <c r="D18" s="31">
+        <v>44680</v>
+      </c>
+      <c r="E18" s="27">
+        <v>3</v>
+      </c>
+      <c r="F18" s="44"/>
+      <c r="G18" s="44"/>
+      <c r="H18" s="44"/>
+      <c r="I18" s="44"/>
+      <c r="J18" s="44"/>
+      <c r="K18" s="44"/>
+      <c r="L18" s="45"/>
+      <c r="M18" s="44"/>
+      <c r="N18" s="44"/>
+      <c r="O18" s="44"/>
+      <c r="P18" s="44"/>
+      <c r="Q18" s="44"/>
+      <c r="R18" s="44"/>
+      <c r="S18" s="45"/>
+      <c r="T18" s="44"/>
+      <c r="U18" s="44"/>
+      <c r="V18" s="53"/>
+      <c r="W18" s="53"/>
+      <c r="X18" s="53"/>
+      <c r="Y18" s="44"/>
+      <c r="Z18" s="45"/>
+      <c r="AA18" s="44"/>
+      <c r="AB18" s="44"/>
+      <c r="AC18" s="44"/>
+      <c r="AD18" s="44"/>
+      <c r="AE18" s="44"/>
+      <c r="AF18" s="44"/>
+      <c r="AG18" s="45"/>
+      <c r="AH18" s="44"/>
+      <c r="AI18" s="44"/>
+      <c r="AJ18" s="44"/>
+      <c r="AK18" s="44"/>
+      <c r="AL18" s="44"/>
+      <c r="AM18" s="44"/>
+      <c r="AN18" s="45"/>
+      <c r="AO18" s="46"/>
+      <c r="AP18" s="46"/>
+      <c r="AQ18" s="46"/>
+      <c r="AR18" s="46"/>
+      <c r="AS18" s="46"/>
+      <c r="AT18" s="46"/>
+      <c r="AU18" s="45"/>
+      <c r="AV18" s="46"/>
+      <c r="AW18" s="46"/>
+      <c r="AX18" s="46"/>
+      <c r="AY18" s="46"/>
+      <c r="AZ18" s="46"/>
+      <c r="BA18" s="46"/>
+      <c r="BB18" s="45"/>
+      <c r="BC18" s="46"/>
+      <c r="BD18" s="46"/>
+      <c r="BE18" s="46"/>
+      <c r="BF18" s="46"/>
+      <c r="BG18" s="46"/>
+      <c r="BH18" s="46"/>
+      <c r="BI18" s="45"/>
+      <c r="BJ18" s="46"/>
+      <c r="BK18" s="46"/>
+      <c r="BL18" s="46"/>
+      <c r="BM18" s="46"/>
+    </row>
+    <row r="19" spans="1:65" s="39" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="37" t="s">
+        <v>70</v>
+      </c>
+      <c r="B19" s="38" t="s">
+        <v>71</v>
+      </c>
+      <c r="C19" s="31">
+        <v>44680</v>
+      </c>
+      <c r="D19" s="31">
+        <v>44683</v>
+      </c>
+      <c r="E19" s="27">
+        <v>3</v>
+      </c>
+      <c r="F19" s="50"/>
+      <c r="G19" s="50"/>
+      <c r="H19" s="50"/>
+      <c r="I19" s="50"/>
+      <c r="J19" s="50"/>
+      <c r="K19" s="50"/>
+      <c r="L19" s="51"/>
+      <c r="M19" s="50"/>
+      <c r="N19" s="50"/>
+      <c r="O19" s="50"/>
+      <c r="P19" s="44"/>
+      <c r="Q19" s="44"/>
+      <c r="R19" s="44"/>
+      <c r="S19" s="51"/>
+      <c r="T19" s="44"/>
+      <c r="U19" s="44"/>
+      <c r="V19" s="44"/>
+      <c r="W19" s="44"/>
+      <c r="X19" s="53"/>
+      <c r="Y19" s="53"/>
+      <c r="Z19" s="51"/>
+      <c r="AA19" s="53"/>
+      <c r="AB19" s="50"/>
+      <c r="AC19" s="50"/>
+      <c r="AD19" s="50"/>
+      <c r="AE19" s="50"/>
+      <c r="AF19" s="50"/>
+      <c r="AG19" s="51"/>
+      <c r="AH19" s="50"/>
+      <c r="AI19" s="50"/>
+      <c r="AJ19" s="50"/>
+      <c r="AK19" s="50"/>
+      <c r="AL19" s="50"/>
+      <c r="AM19" s="50"/>
+      <c r="AN19" s="51"/>
+      <c r="AO19" s="52"/>
+      <c r="AP19" s="52"/>
+      <c r="AQ19" s="52"/>
+      <c r="AR19" s="52"/>
+      <c r="AS19" s="52"/>
+      <c r="AT19" s="52"/>
+      <c r="AU19" s="51"/>
+      <c r="AV19" s="52"/>
+      <c r="AW19" s="52"/>
+      <c r="AX19" s="52"/>
+      <c r="AY19" s="52"/>
+      <c r="AZ19" s="52"/>
+      <c r="BA19" s="52"/>
+      <c r="BB19" s="51"/>
+      <c r="BC19" s="52"/>
+      <c r="BD19" s="52"/>
+      <c r="BE19" s="52"/>
+      <c r="BF19" s="52"/>
+      <c r="BG19" s="52"/>
+      <c r="BH19" s="52"/>
+      <c r="BI19" s="51"/>
+      <c r="BJ19" s="52"/>
+      <c r="BK19" s="52"/>
+      <c r="BL19" s="52"/>
+      <c r="BM19" s="52"/>
+    </row>
+    <row r="20" spans="1:65" x14ac:dyDescent="0.25">
+      <c r="A20" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C20" s="31">
+        <v>44683</v>
+      </c>
+      <c r="D20" s="31">
+        <v>44685</v>
+      </c>
+      <c r="E20" s="27">
+        <v>3</v>
+      </c>
+      <c r="F20" s="44"/>
+      <c r="G20" s="44"/>
+      <c r="H20" s="44"/>
+      <c r="I20" s="44"/>
+      <c r="J20" s="44"/>
+      <c r="K20" s="44"/>
+      <c r="L20" s="45"/>
+      <c r="M20" s="44"/>
+      <c r="N20" s="44"/>
+      <c r="O20" s="44"/>
+      <c r="P20" s="44"/>
+      <c r="Q20" s="44"/>
+      <c r="R20" s="44"/>
+      <c r="S20" s="45"/>
+      <c r="T20" s="44"/>
+      <c r="U20" s="44"/>
+      <c r="V20" s="44"/>
+      <c r="W20" s="44"/>
+      <c r="X20" s="44"/>
+      <c r="Y20" s="44"/>
+      <c r="Z20" s="45"/>
+      <c r="AA20" s="54"/>
+      <c r="AB20" s="53"/>
+      <c r="AC20" s="53"/>
+      <c r="AD20" s="44"/>
+      <c r="AE20" s="44"/>
+      <c r="AF20" s="44"/>
+      <c r="AG20" s="45"/>
+      <c r="AH20" s="44"/>
+      <c r="AI20" s="44"/>
+      <c r="AJ20" s="44"/>
+      <c r="AK20" s="44"/>
+      <c r="AL20" s="44"/>
+      <c r="AM20" s="44"/>
+      <c r="AN20" s="45"/>
+      <c r="AO20" s="46"/>
+      <c r="AP20" s="46"/>
+      <c r="AQ20" s="46"/>
+      <c r="AR20" s="46"/>
+      <c r="AS20" s="46"/>
+      <c r="AT20" s="46"/>
+      <c r="AU20" s="45"/>
+      <c r="AV20" s="46"/>
+      <c r="AW20" s="46"/>
+      <c r="AX20" s="46"/>
+      <c r="AY20" s="46"/>
+      <c r="AZ20" s="46"/>
+      <c r="BA20" s="46"/>
+      <c r="BB20" s="45"/>
+      <c r="BC20" s="46"/>
+      <c r="BD20" s="46"/>
+      <c r="BE20" s="46"/>
+      <c r="BF20" s="46"/>
+      <c r="BG20" s="46"/>
+      <c r="BH20" s="46"/>
+      <c r="BI20" s="45"/>
+      <c r="BJ20" s="46"/>
+      <c r="BK20" s="46"/>
+      <c r="BL20" s="46"/>
+      <c r="BM20" s="46"/>
+    </row>
+    <row r="21" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C21" s="31">
+        <v>44685</v>
+      </c>
+      <c r="D21" s="31">
+        <v>44687</v>
+      </c>
+      <c r="E21" s="27">
+        <v>3</v>
+      </c>
+      <c r="F21" s="44"/>
+      <c r="G21" s="44"/>
+      <c r="H21" s="44"/>
+      <c r="I21" s="44"/>
+      <c r="J21" s="44"/>
+      <c r="K21" s="44"/>
+      <c r="L21" s="45"/>
+      <c r="M21" s="44"/>
+      <c r="N21" s="44"/>
+      <c r="O21" s="44"/>
+      <c r="P21" s="44"/>
+      <c r="Q21" s="44"/>
+      <c r="R21" s="44"/>
+      <c r="S21" s="45"/>
+      <c r="T21" s="44"/>
+      <c r="U21" s="44"/>
+      <c r="V21" s="44"/>
+      <c r="W21" s="44"/>
+      <c r="X21" s="44"/>
+      <c r="Y21" s="44"/>
+      <c r="Z21" s="45"/>
+      <c r="AA21" s="44"/>
+      <c r="AB21" s="44"/>
+      <c r="AC21" s="54"/>
+      <c r="AD21" s="53"/>
+      <c r="AE21" s="53"/>
+      <c r="AF21" s="44"/>
+      <c r="AG21" s="45"/>
+      <c r="AH21" s="44"/>
+      <c r="AI21" s="44"/>
+      <c r="AJ21" s="44"/>
+      <c r="AK21" s="44"/>
+      <c r="AL21" s="44"/>
+      <c r="AM21" s="44"/>
+      <c r="AN21" s="45"/>
+      <c r="AO21" s="46"/>
+      <c r="AP21" s="46"/>
+      <c r="AQ21" s="46"/>
+      <c r="AR21" s="46"/>
+      <c r="AS21" s="46"/>
+      <c r="AT21" s="46"/>
+      <c r="AU21" s="45"/>
+      <c r="AV21" s="46"/>
+      <c r="AW21" s="46"/>
+      <c r="AX21" s="46"/>
+      <c r="AY21" s="46"/>
+      <c r="AZ21" s="46"/>
+      <c r="BA21" s="46"/>
+      <c r="BB21" s="45"/>
+      <c r="BC21" s="46"/>
+      <c r="BD21" s="46"/>
+      <c r="BE21" s="46"/>
+      <c r="BF21" s="46"/>
+      <c r="BG21" s="46"/>
+      <c r="BH21" s="46"/>
+      <c r="BI21" s="45"/>
+      <c r="BJ21" s="46"/>
+      <c r="BK21" s="46"/>
+      <c r="BL21" s="46"/>
+      <c r="BM21" s="46"/>
+    </row>
+    <row r="22" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C22" s="31">
+        <v>44687</v>
+      </c>
+      <c r="D22" s="31">
+        <v>44690</v>
+      </c>
+      <c r="E22" s="27">
+        <v>3</v>
+      </c>
+      <c r="F22" s="44"/>
+      <c r="G22" s="44"/>
+      <c r="H22" s="44"/>
+      <c r="I22" s="44"/>
+      <c r="J22" s="44"/>
+      <c r="K22" s="44"/>
+      <c r="L22" s="45"/>
+      <c r="M22" s="44"/>
+      <c r="N22" s="44"/>
+      <c r="O22" s="44"/>
+      <c r="P22" s="44"/>
+      <c r="Q22" s="44"/>
+      <c r="R22" s="44"/>
+      <c r="S22" s="45"/>
+      <c r="T22" s="44"/>
+      <c r="U22" s="44"/>
+      <c r="V22" s="44"/>
+      <c r="W22" s="44"/>
+      <c r="X22" s="44"/>
+      <c r="Y22" s="44"/>
+      <c r="Z22" s="45"/>
+      <c r="AA22" s="44"/>
+      <c r="AB22" s="44"/>
+      <c r="AC22" s="44"/>
+      <c r="AD22" s="44"/>
+      <c r="AE22" s="53"/>
+      <c r="AF22" s="53"/>
+      <c r="AG22" s="45"/>
+      <c r="AH22" s="53"/>
+      <c r="AI22" s="44"/>
+      <c r="AJ22" s="44"/>
+      <c r="AK22" s="44"/>
+      <c r="AL22" s="44"/>
+      <c r="AM22" s="44"/>
+      <c r="AN22" s="45"/>
+      <c r="AO22" s="46"/>
+      <c r="AP22" s="46"/>
+      <c r="AQ22" s="46"/>
+      <c r="AR22" s="46"/>
+      <c r="AS22" s="46"/>
+      <c r="AT22" s="46"/>
+      <c r="AU22" s="45"/>
+      <c r="AV22" s="46"/>
+      <c r="AW22" s="46"/>
+      <c r="AX22" s="46"/>
+      <c r="AY22" s="46"/>
+      <c r="AZ22" s="46"/>
+      <c r="BA22" s="46"/>
+      <c r="BB22" s="45"/>
+      <c r="BC22" s="46"/>
+      <c r="BD22" s="46"/>
+      <c r="BE22" s="46"/>
+      <c r="BF22" s="46"/>
+      <c r="BG22" s="46"/>
+      <c r="BH22" s="46"/>
+      <c r="BI22" s="45"/>
+      <c r="BJ22" s="46"/>
+      <c r="BK22" s="46"/>
+      <c r="BL22" s="46"/>
+      <c r="BM22" s="46"/>
+    </row>
+    <row r="23" spans="1:65" s="36" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="28">
+        <v>3</v>
+      </c>
+      <c r="B23" s="29" t="s">
         <v>133</v>
       </c>
-      <c r="BF8" s="82"/>
-      <c r="BG8" s="82"/>
-      <c r="BH8" s="82"/>
-      <c r="BI8" s="82"/>
-      <c r="BJ8" s="82"/>
-      <c r="BK8" s="82"/>
-      <c r="BL8" s="82"/>
-      <c r="BM8" s="82"/>
-    </row>
-    <row r="9" spans="1:65" x14ac:dyDescent="0.25">
-      <c r="A9" s="33">
-        <v>1</v>
+      <c r="E23" s="47"/>
+      <c r="F23" s="47"/>
+      <c r="G23" s="47"/>
+      <c r="H23" s="47"/>
+      <c r="I23" s="47"/>
+      <c r="J23" s="47"/>
+      <c r="K23" s="47"/>
+      <c r="L23" s="45"/>
+      <c r="M23" s="47"/>
+      <c r="N23" s="47"/>
+      <c r="O23" s="47"/>
+      <c r="P23" s="47"/>
+      <c r="Q23" s="47"/>
+      <c r="R23" s="47"/>
+      <c r="S23" s="45"/>
+      <c r="T23" s="47"/>
+      <c r="U23" s="47"/>
+      <c r="V23" s="48"/>
+      <c r="W23" s="48"/>
+      <c r="X23" s="47"/>
+      <c r="Y23" s="47"/>
+      <c r="Z23" s="45"/>
+      <c r="AA23" s="47"/>
+      <c r="AB23" s="47"/>
+      <c r="AC23" s="47"/>
+      <c r="AD23" s="47"/>
+      <c r="AE23" s="47"/>
+      <c r="AF23" s="47"/>
+      <c r="AG23" s="45"/>
+      <c r="AH23" s="47"/>
+      <c r="AI23" s="47"/>
+      <c r="AJ23" s="47"/>
+      <c r="AK23" s="47"/>
+      <c r="AL23" s="47"/>
+      <c r="AM23" s="47"/>
+      <c r="AN23" s="45"/>
+      <c r="AO23" s="49"/>
+      <c r="AP23" s="49"/>
+      <c r="AQ23" s="49"/>
+      <c r="AR23" s="49"/>
+      <c r="AS23" s="49"/>
+      <c r="AT23" s="49"/>
+      <c r="AU23" s="45"/>
+      <c r="AV23" s="49"/>
+      <c r="AW23" s="49"/>
+      <c r="AX23" s="49"/>
+      <c r="AY23" s="49"/>
+      <c r="AZ23" s="49"/>
+      <c r="BA23" s="49"/>
+      <c r="BB23" s="45"/>
+      <c r="BC23" s="49"/>
+      <c r="BD23" s="49"/>
+      <c r="BE23" s="49"/>
+      <c r="BF23" s="49"/>
+      <c r="BG23" s="49"/>
+      <c r="BH23" s="49"/>
+      <c r="BI23" s="45"/>
+      <c r="BJ23" s="49"/>
+      <c r="BK23" s="49"/>
+      <c r="BL23" s="49"/>
+      <c r="BM23" s="49"/>
+    </row>
+    <row r="24" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="5" t="s">
+        <v>78</v>
       </c>
-      <c r="B9" s="34" t="s">
-        <v>54</v>
+      <c r="B24" s="4" t="s">
+        <v>79</v>
       </c>
-      <c r="C9" s="35"/>
-      <c r="D9" s="35"/>
-      <c r="E9" s="46"/>
-      <c r="F9" s="47">
-        <v>11</v>
+      <c r="C24" s="31">
+        <v>44690</v>
       </c>
-      <c r="G9" s="47">
-        <v>12</v>
+      <c r="D24" s="31">
+        <v>44692</v>
       </c>
-      <c r="H9" s="47">
-        <v>13</v>
-      </c>
-      <c r="I9" s="47">
-        <v>14</v>
-      </c>
-      <c r="J9" s="47">
-        <v>15</v>
-      </c>
-      <c r="K9" s="47">
-        <v>16</v>
-      </c>
-      <c r="L9" s="47">
-        <v>17</v>
-      </c>
-      <c r="M9" s="47">
-        <v>18</v>
-      </c>
-      <c r="N9" s="47">
-        <v>19</v>
-      </c>
-      <c r="O9" s="47">
-        <v>20</v>
-      </c>
-      <c r="P9" s="47">
-        <v>21</v>
-      </c>
-      <c r="Q9" s="47">
-        <v>22</v>
-      </c>
-      <c r="R9" s="47">
-        <v>23</v>
-      </c>
-      <c r="S9" s="47">
-        <v>24</v>
-      </c>
-      <c r="T9" s="47">
-        <v>25</v>
-      </c>
-      <c r="U9" s="47">
-        <v>26</v>
-      </c>
-      <c r="V9" s="47">
-        <v>27</v>
-      </c>
-      <c r="W9" s="47">
-        <v>28</v>
-      </c>
-      <c r="X9" s="47">
-        <v>29</v>
-      </c>
-      <c r="Y9" s="47">
-        <v>30</v>
-      </c>
-      <c r="Z9" s="47">
-        <v>1</v>
-      </c>
-      <c r="AA9" s="47">
-        <v>2</v>
-      </c>
-      <c r="AB9" s="47">
+      <c r="E24" s="27">
         <v>3</v>
       </c>
-      <c r="AC9" s="47">
-        <v>4</v>
+      <c r="F24" s="44"/>
+      <c r="G24" s="44"/>
+      <c r="H24" s="44"/>
+      <c r="I24" s="44"/>
+      <c r="J24" s="44"/>
+      <c r="K24" s="44"/>
+      <c r="L24" s="45"/>
+      <c r="M24" s="44"/>
+      <c r="N24" s="44"/>
+      <c r="O24" s="44"/>
+      <c r="P24" s="44"/>
+      <c r="Q24" s="44"/>
+      <c r="R24" s="44"/>
+      <c r="S24" s="45"/>
+      <c r="T24" s="44"/>
+      <c r="U24" s="44"/>
+      <c r="V24" s="44"/>
+      <c r="W24" s="44"/>
+      <c r="X24" s="44"/>
+      <c r="Y24" s="44"/>
+      <c r="Z24" s="45"/>
+      <c r="AA24" s="50"/>
+      <c r="AB24" s="50"/>
+      <c r="AC24" s="50"/>
+      <c r="AD24" s="50"/>
+      <c r="AE24" s="50"/>
+      <c r="AF24" s="50"/>
+      <c r="AG24" s="45"/>
+      <c r="AH24" s="53"/>
+      <c r="AI24" s="53"/>
+      <c r="AJ24" s="53"/>
+      <c r="AK24" s="44"/>
+      <c r="AL24" s="44"/>
+      <c r="AM24" s="44"/>
+      <c r="AN24" s="45"/>
+      <c r="AO24" s="46"/>
+      <c r="AP24" s="46"/>
+      <c r="AQ24" s="46"/>
+      <c r="AR24" s="46"/>
+      <c r="AS24" s="46"/>
+      <c r="AT24" s="46"/>
+      <c r="AU24" s="45"/>
+      <c r="AV24" s="46"/>
+      <c r="AW24" s="46"/>
+      <c r="AX24" s="46"/>
+      <c r="AY24" s="46"/>
+      <c r="AZ24" s="46"/>
+      <c r="BA24" s="46"/>
+      <c r="BB24" s="45"/>
+      <c r="BC24" s="46"/>
+      <c r="BD24" s="46"/>
+      <c r="BE24" s="46"/>
+      <c r="BF24" s="46"/>
+      <c r="BG24" s="46"/>
+      <c r="BH24" s="46"/>
+      <c r="BI24" s="45"/>
+      <c r="BJ24" s="46"/>
+      <c r="BK24" s="46"/>
+      <c r="BL24" s="46"/>
+      <c r="BM24" s="46"/>
+    </row>
+    <row r="25" spans="1:65" s="39" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="37" t="s">
+        <v>80</v>
       </c>
-      <c r="AD9" s="47">
+      <c r="B25" s="38" t="s">
+        <v>81</v>
+      </c>
+      <c r="C25" s="31">
+        <v>44692</v>
+      </c>
+      <c r="D25" s="31">
+        <v>44694</v>
+      </c>
+      <c r="E25" s="27">
+        <v>3</v>
+      </c>
+      <c r="F25" s="50"/>
+      <c r="G25" s="50"/>
+      <c r="H25" s="50"/>
+      <c r="I25" s="50"/>
+      <c r="J25" s="50"/>
+      <c r="K25" s="50"/>
+      <c r="L25" s="51"/>
+      <c r="M25" s="50"/>
+      <c r="N25" s="50"/>
+      <c r="O25" s="50"/>
+      <c r="P25" s="50"/>
+      <c r="Q25" s="50"/>
+      <c r="R25" s="50"/>
+      <c r="S25" s="51"/>
+      <c r="T25" s="50"/>
+      <c r="U25" s="50"/>
+      <c r="V25" s="50"/>
+      <c r="W25" s="50"/>
+      <c r="X25" s="50"/>
+      <c r="Y25" s="50"/>
+      <c r="Z25" s="51"/>
+      <c r="AA25" s="50"/>
+      <c r="AB25" s="50"/>
+      <c r="AC25" s="50"/>
+      <c r="AD25" s="50"/>
+      <c r="AE25" s="50"/>
+      <c r="AF25" s="50"/>
+      <c r="AG25" s="51"/>
+      <c r="AH25" s="50"/>
+      <c r="AI25" s="50"/>
+      <c r="AJ25" s="53"/>
+      <c r="AK25" s="53"/>
+      <c r="AL25" s="53"/>
+      <c r="AM25" s="50"/>
+      <c r="AN25" s="51"/>
+      <c r="AO25" s="52"/>
+      <c r="AP25" s="52"/>
+      <c r="AQ25" s="52"/>
+      <c r="AR25" s="52"/>
+      <c r="AS25" s="52"/>
+      <c r="AT25" s="52"/>
+      <c r="AU25" s="51"/>
+      <c r="AV25" s="52"/>
+      <c r="AW25" s="52"/>
+      <c r="AX25" s="52"/>
+      <c r="AY25" s="52"/>
+      <c r="AZ25" s="52"/>
+      <c r="BA25" s="52"/>
+      <c r="BB25" s="51"/>
+      <c r="BC25" s="52"/>
+      <c r="BD25" s="52"/>
+      <c r="BE25" s="52"/>
+      <c r="BF25" s="52"/>
+      <c r="BG25" s="52"/>
+      <c r="BH25" s="52"/>
+      <c r="BI25" s="51"/>
+      <c r="BJ25" s="52"/>
+      <c r="BK25" s="52"/>
+      <c r="BL25" s="52"/>
+      <c r="BM25" s="52"/>
+    </row>
+    <row r="26" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C26" s="31">
+        <v>44694</v>
+      </c>
+      <c r="D26" s="31">
+        <v>44699</v>
+      </c>
+      <c r="E26" s="27">
         <v>5</v>
       </c>
-      <c r="AE9" s="47">
-        <v>6</v>
-      </c>
-      <c r="AF9" s="47">
-        <v>7</v>
-      </c>
-      <c r="AG9" s="47">
-        <v>8</v>
-      </c>
-      <c r="AH9" s="47">
-        <v>9</v>
-      </c>
-      <c r="AI9" s="47">
-        <v>10</v>
-      </c>
-      <c r="AJ9" s="47">
-        <v>11</v>
-      </c>
-      <c r="AK9" s="47">
-        <v>12</v>
-      </c>
-      <c r="AL9" s="47">
-        <v>13</v>
-      </c>
-      <c r="AM9" s="47">
-        <v>14</v>
-      </c>
-      <c r="AN9" s="47">
-        <v>15</v>
-      </c>
-      <c r="AO9" s="47">
-        <v>16</v>
-      </c>
-      <c r="AP9" s="47">
-        <v>17</v>
-      </c>
-      <c r="AQ9" s="47">
-        <v>18</v>
-      </c>
-      <c r="AR9" s="47">
-        <v>19</v>
-      </c>
-      <c r="AS9" s="47">
-        <v>20</v>
-      </c>
-      <c r="AT9" s="47">
-        <v>21</v>
-      </c>
-      <c r="AU9" s="47">
-        <v>22</v>
-      </c>
-      <c r="AV9" s="47">
-        <v>23</v>
-      </c>
-      <c r="AW9" s="47">
-        <v>24</v>
-      </c>
-      <c r="AX9" s="47">
-        <v>25</v>
-      </c>
-      <c r="AY9" s="47">
-        <v>26</v>
-      </c>
-      <c r="AZ9" s="47">
-        <v>27</v>
-      </c>
-      <c r="BA9" s="47">
-        <v>28</v>
-      </c>
-      <c r="BB9" s="47">
-        <v>29</v>
-      </c>
-      <c r="BC9" s="47">
-        <v>30</v>
-      </c>
-      <c r="BD9" s="47">
-        <v>31</v>
-      </c>
-      <c r="BE9" s="47">
-        <v>1</v>
-      </c>
-      <c r="BF9" s="47">
-        <v>2</v>
-      </c>
-      <c r="BG9" s="47">
-        <v>3</v>
-      </c>
-      <c r="BH9" s="47">
-        <v>4</v>
-      </c>
-      <c r="BI9" s="47">
-        <v>5</v>
-      </c>
-      <c r="BJ9" s="47">
-        <v>6</v>
-      </c>
-      <c r="BK9" s="47">
-        <v>7</v>
-      </c>
-      <c r="BL9" s="47">
-        <v>8</v>
-      </c>
-      <c r="BM9" s="47">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:65" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="C10" s="36">
-        <v>44662</v>
-      </c>
-      <c r="D10" s="36">
-        <v>44664</v>
-      </c>
-      <c r="E10" s="32">
-        <v>3</v>
-      </c>
-      <c r="F10" s="48"/>
-      <c r="G10" s="48"/>
-      <c r="H10" s="48"/>
-      <c r="I10" s="49"/>
-      <c r="J10" s="49"/>
-      <c r="K10" s="49"/>
-      <c r="L10" s="50"/>
-      <c r="M10" s="49"/>
-      <c r="N10" s="49"/>
-      <c r="O10" s="49"/>
-      <c r="P10" s="49"/>
-      <c r="Q10" s="49"/>
-      <c r="R10" s="49"/>
-      <c r="S10" s="50"/>
-      <c r="T10" s="49"/>
-      <c r="U10" s="49"/>
-      <c r="V10" s="49"/>
-      <c r="W10" s="49"/>
-      <c r="X10" s="49"/>
-      <c r="Y10" s="49"/>
-      <c r="Z10" s="50"/>
-      <c r="AA10" s="49"/>
-      <c r="AB10" s="49"/>
-      <c r="AC10" s="49"/>
-      <c r="AD10" s="49"/>
-      <c r="AE10" s="49"/>
-      <c r="AF10" s="49"/>
-      <c r="AG10" s="50"/>
-      <c r="AH10" s="49"/>
-      <c r="AI10" s="49"/>
-      <c r="AJ10" s="49"/>
-      <c r="AK10" s="49"/>
-      <c r="AL10" s="49"/>
-      <c r="AM10" s="49"/>
-      <c r="AN10" s="50"/>
-      <c r="AO10" s="51"/>
-      <c r="AP10" s="51"/>
-      <c r="AQ10" s="51"/>
-      <c r="AR10" s="51"/>
-      <c r="AS10" s="51"/>
-      <c r="AT10" s="51"/>
-      <c r="AU10" s="50"/>
-      <c r="AV10" s="51"/>
-      <c r="AW10" s="51"/>
-      <c r="AX10" s="51"/>
-      <c r="AY10" s="51"/>
-      <c r="AZ10" s="51"/>
-      <c r="BA10" s="51"/>
-      <c r="BB10" s="50"/>
-      <c r="BC10" s="51"/>
-      <c r="BD10" s="51"/>
-      <c r="BE10" s="51"/>
-      <c r="BF10" s="51"/>
-      <c r="BG10" s="51"/>
-      <c r="BH10" s="51"/>
-      <c r="BI10" s="50"/>
-      <c r="BJ10" s="51"/>
-      <c r="BK10" s="51"/>
-      <c r="BL10" s="51"/>
-      <c r="BM10" s="51"/>
-    </row>
-    <row r="11" spans="1:65" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="C11" s="36">
-        <v>44664</v>
-      </c>
-      <c r="D11" s="36">
-        <v>44666</v>
-      </c>
-      <c r="E11" s="32">
-        <v>3</v>
-      </c>
-      <c r="F11" s="49"/>
-      <c r="G11" s="49"/>
-      <c r="H11" s="48"/>
-      <c r="I11" s="48"/>
-      <c r="J11" s="48"/>
-      <c r="L11" s="50"/>
-      <c r="M11" s="49"/>
-      <c r="N11" s="49"/>
-      <c r="O11" s="49"/>
-      <c r="P11" s="49"/>
-      <c r="Q11" s="49"/>
-      <c r="R11" s="49"/>
-      <c r="S11" s="50"/>
-      <c r="T11" s="49"/>
-      <c r="U11" s="49"/>
-      <c r="V11" s="49"/>
-      <c r="W11" s="49"/>
-      <c r="X11" s="49"/>
-      <c r="Y11" s="49"/>
-      <c r="Z11" s="50"/>
-      <c r="AA11" s="49"/>
-      <c r="AB11" s="49"/>
-      <c r="AC11" s="49"/>
-      <c r="AD11" s="49"/>
-      <c r="AE11" s="49"/>
-      <c r="AF11" s="49"/>
-      <c r="AG11" s="50"/>
-      <c r="AH11" s="49"/>
-      <c r="AI11" s="49"/>
-      <c r="AJ11" s="49"/>
-      <c r="AK11" s="49"/>
-      <c r="AL11" s="49"/>
-      <c r="AM11" s="49"/>
-      <c r="AN11" s="50"/>
-      <c r="AO11" s="51"/>
-      <c r="AP11" s="51"/>
-      <c r="AQ11" s="51"/>
-      <c r="AR11" s="51"/>
-      <c r="AS11" s="51"/>
-      <c r="AT11" s="51"/>
-      <c r="AU11" s="50"/>
-      <c r="AV11" s="51"/>
-      <c r="AW11" s="51"/>
-      <c r="AX11" s="51"/>
-      <c r="AY11" s="51"/>
-      <c r="AZ11" s="51"/>
-      <c r="BA11" s="51"/>
-      <c r="BB11" s="50"/>
-      <c r="BC11" s="51"/>
-      <c r="BD11" s="51"/>
-      <c r="BE11" s="51"/>
-      <c r="BF11" s="51"/>
-      <c r="BG11" s="51"/>
-      <c r="BH11" s="51"/>
-      <c r="BI11" s="50"/>
-      <c r="BJ11" s="51"/>
-      <c r="BK11" s="51"/>
-      <c r="BL11" s="51"/>
-      <c r="BM11" s="51"/>
-    </row>
-    <row r="12" spans="1:65" x14ac:dyDescent="0.25">
-      <c r="A12" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="B12" s="21" t="s">
-        <v>60</v>
-      </c>
-      <c r="C12" s="36">
-        <v>44666</v>
-      </c>
-      <c r="D12" s="36">
-        <v>44669</v>
-      </c>
-      <c r="E12" s="32">
-        <v>3</v>
-      </c>
-      <c r="F12" s="49"/>
-      <c r="G12" s="49"/>
-      <c r="H12" s="49"/>
-      <c r="I12" s="49"/>
-      <c r="J12" s="58"/>
-      <c r="K12" s="58"/>
-      <c r="L12" s="50"/>
-      <c r="M12" s="48"/>
-      <c r="N12" s="55"/>
-      <c r="O12" s="55"/>
-      <c r="P12" s="55"/>
-      <c r="Q12" s="49"/>
-      <c r="R12" s="49"/>
-      <c r="S12" s="50"/>
-      <c r="T12" s="49"/>
-      <c r="U12" s="49"/>
-      <c r="V12" s="49"/>
-      <c r="W12" s="49"/>
-      <c r="X12" s="49"/>
-      <c r="Y12" s="49"/>
-      <c r="Z12" s="50"/>
-      <c r="AA12" s="49"/>
-      <c r="AB12" s="49"/>
-      <c r="AC12" s="49"/>
-      <c r="AD12" s="49"/>
-      <c r="AE12" s="49"/>
-      <c r="AF12" s="49"/>
-      <c r="AG12" s="50"/>
-      <c r="AH12" s="49"/>
-      <c r="AI12" s="49"/>
-      <c r="AJ12" s="49"/>
-      <c r="AK12" s="49"/>
-      <c r="AL12" s="49"/>
-      <c r="AM12" s="49"/>
-      <c r="AN12" s="50"/>
-      <c r="AO12" s="51"/>
-      <c r="AP12" s="51"/>
-      <c r="AQ12" s="51"/>
-      <c r="AR12" s="51"/>
-      <c r="AS12" s="51"/>
-      <c r="AT12" s="51"/>
-      <c r="AU12" s="50"/>
-      <c r="AV12" s="51"/>
-      <c r="AW12" s="51"/>
-      <c r="AX12" s="51"/>
-      <c r="AY12" s="51"/>
-      <c r="AZ12" s="51"/>
-      <c r="BA12" s="51"/>
-      <c r="BB12" s="50"/>
-      <c r="BC12" s="51"/>
-      <c r="BD12" s="51"/>
-      <c r="BE12" s="51"/>
-      <c r="BF12" s="51"/>
-      <c r="BG12" s="51"/>
-      <c r="BH12" s="51"/>
-      <c r="BI12" s="50"/>
-      <c r="BJ12" s="51"/>
-      <c r="BK12" s="51"/>
-      <c r="BL12" s="51"/>
-      <c r="BM12" s="51"/>
-    </row>
-    <row r="13" spans="1:65" x14ac:dyDescent="0.25">
-      <c r="A13" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="C13" s="36">
-        <v>44669</v>
-      </c>
-      <c r="D13" s="36">
-        <v>44671</v>
-      </c>
-      <c r="E13" s="32">
-        <v>3</v>
-      </c>
-      <c r="F13" s="49"/>
-      <c r="G13" s="49"/>
-      <c r="H13" s="49"/>
-      <c r="I13" s="49"/>
-      <c r="J13" s="49"/>
-      <c r="K13" s="49"/>
-      <c r="L13" s="50"/>
-      <c r="M13" s="59"/>
-      <c r="N13" s="58"/>
-      <c r="O13" s="58"/>
-      <c r="P13" s="49"/>
-      <c r="Q13" s="49"/>
-      <c r="R13" s="49"/>
-      <c r="S13" s="50"/>
-      <c r="T13" s="49"/>
-      <c r="U13" s="49"/>
-      <c r="V13" s="49"/>
-      <c r="W13" s="49"/>
-      <c r="X13" s="49"/>
-      <c r="Y13" s="49"/>
-      <c r="Z13" s="50"/>
-      <c r="AA13" s="49"/>
-      <c r="AB13" s="49"/>
-      <c r="AC13" s="49"/>
-      <c r="AD13" s="49"/>
-      <c r="AE13" s="49"/>
-      <c r="AF13" s="49"/>
-      <c r="AG13" s="50"/>
-      <c r="AH13" s="49"/>
-      <c r="AI13" s="49"/>
-      <c r="AJ13" s="49"/>
-      <c r="AK13" s="49"/>
-      <c r="AL13" s="49"/>
-      <c r="AM13" s="49"/>
-      <c r="AN13" s="50"/>
-      <c r="AO13" s="51"/>
-      <c r="AP13" s="51"/>
-      <c r="AQ13" s="51"/>
-      <c r="AR13" s="51"/>
-      <c r="AS13" s="51"/>
-      <c r="AT13" s="51"/>
-      <c r="AU13" s="50"/>
-      <c r="AV13" s="51"/>
-      <c r="AW13" s="51"/>
-      <c r="AX13" s="51"/>
-      <c r="AY13" s="51"/>
-      <c r="AZ13" s="51"/>
-      <c r="BA13" s="51"/>
-      <c r="BB13" s="50"/>
-      <c r="BC13" s="51"/>
-      <c r="BD13" s="51"/>
-      <c r="BE13" s="51"/>
-      <c r="BF13" s="51"/>
-      <c r="BG13" s="51"/>
-      <c r="BH13" s="51"/>
-      <c r="BI13" s="50"/>
-      <c r="BJ13" s="51"/>
-      <c r="BK13" s="51"/>
-      <c r="BL13" s="51"/>
-      <c r="BM13" s="51"/>
-    </row>
-    <row r="14" spans="1:65" x14ac:dyDescent="0.25">
-      <c r="A14" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="B14" s="21" t="s">
-        <v>64</v>
-      </c>
-      <c r="C14" s="36">
-        <v>44670</v>
-      </c>
-      <c r="D14" s="36">
-        <v>44672</v>
-      </c>
-      <c r="E14" s="32">
-        <v>3</v>
-      </c>
-      <c r="F14" s="49"/>
-      <c r="G14" s="49"/>
-      <c r="H14" s="49"/>
-      <c r="I14" s="49"/>
-      <c r="J14" s="49"/>
-      <c r="K14" s="49"/>
-      <c r="L14" s="50"/>
-      <c r="M14" s="49"/>
-      <c r="N14" s="55"/>
-      <c r="O14" s="59"/>
-      <c r="P14" s="58"/>
-      <c r="Q14" s="58"/>
-      <c r="R14" s="49"/>
-      <c r="S14" s="50"/>
-      <c r="T14" s="49"/>
-      <c r="U14" s="49"/>
-      <c r="V14" s="49"/>
-      <c r="W14" s="49"/>
-      <c r="X14" s="49"/>
-      <c r="Y14" s="49"/>
-      <c r="Z14" s="50"/>
-      <c r="AA14" s="49"/>
-      <c r="AB14" s="49"/>
-      <c r="AC14" s="49"/>
-      <c r="AD14" s="49"/>
-      <c r="AE14" s="49"/>
-      <c r="AF14" s="49"/>
-      <c r="AG14" s="50"/>
-      <c r="AH14" s="49"/>
-      <c r="AI14" s="49"/>
-      <c r="AJ14" s="49"/>
-      <c r="AK14" s="49"/>
-      <c r="AL14" s="49"/>
-      <c r="AM14" s="49"/>
-      <c r="AN14" s="50"/>
-      <c r="AO14" s="51"/>
-      <c r="AP14" s="51"/>
-      <c r="AQ14" s="51"/>
-      <c r="AR14" s="51"/>
-      <c r="AS14" s="51"/>
-      <c r="AT14" s="51"/>
-      <c r="AU14" s="50"/>
-      <c r="AV14" s="51"/>
-      <c r="AW14" s="51"/>
-      <c r="AX14" s="51"/>
-      <c r="AY14" s="51"/>
-      <c r="AZ14" s="51"/>
-      <c r="BA14" s="51"/>
-      <c r="BB14" s="50"/>
-      <c r="BC14" s="51"/>
-      <c r="BD14" s="51"/>
-      <c r="BE14" s="51"/>
-      <c r="BF14" s="51"/>
-      <c r="BG14" s="51"/>
-      <c r="BH14" s="51"/>
-      <c r="BI14" s="50"/>
-      <c r="BJ14" s="51"/>
-      <c r="BK14" s="51"/>
-      <c r="BL14" s="51"/>
-      <c r="BM14" s="51"/>
-    </row>
-    <row r="15" spans="1:65" x14ac:dyDescent="0.25">
-      <c r="A15" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="C15" s="36">
-        <v>44673</v>
-      </c>
-      <c r="D15" s="36">
-        <v>44676</v>
-      </c>
-      <c r="E15" s="32">
-        <v>3</v>
-      </c>
-      <c r="F15" s="49"/>
-      <c r="G15" s="49"/>
-      <c r="H15" s="49"/>
-      <c r="I15" s="49"/>
-      <c r="J15" s="49"/>
-      <c r="K15" s="49"/>
-      <c r="L15" s="50"/>
-      <c r="M15" s="49"/>
-      <c r="N15" s="49"/>
-      <c r="O15" s="55"/>
-      <c r="P15" s="55"/>
-      <c r="Q15" s="58"/>
-      <c r="R15" s="58"/>
-      <c r="S15" s="50"/>
-      <c r="T15" s="58"/>
-      <c r="U15" s="49"/>
-      <c r="V15" s="49"/>
-      <c r="W15" s="49"/>
-      <c r="X15" s="49"/>
-      <c r="Y15" s="49"/>
-      <c r="Z15" s="50"/>
-      <c r="AA15" s="49"/>
-      <c r="AB15" s="49"/>
-      <c r="AC15" s="49"/>
-      <c r="AD15" s="49"/>
-      <c r="AE15" s="49"/>
-      <c r="AF15" s="49"/>
-      <c r="AG15" s="50"/>
-      <c r="AH15" s="49"/>
-      <c r="AI15" s="49"/>
-      <c r="AJ15" s="49"/>
-      <c r="AK15" s="49"/>
-      <c r="AL15" s="49"/>
-      <c r="AM15" s="49"/>
-      <c r="AN15" s="50"/>
-      <c r="AO15" s="51"/>
-      <c r="AP15" s="51"/>
-      <c r="AQ15" s="51"/>
-      <c r="AR15" s="51"/>
-      <c r="AS15" s="51"/>
-      <c r="AT15" s="51"/>
-      <c r="AU15" s="50"/>
-      <c r="AV15" s="51"/>
-      <c r="AW15" s="51"/>
-      <c r="AX15" s="51"/>
-      <c r="AY15" s="51"/>
-      <c r="AZ15" s="51"/>
-      <c r="BA15" s="51"/>
-      <c r="BB15" s="50"/>
-      <c r="BC15" s="51"/>
-      <c r="BD15" s="51"/>
-      <c r="BE15" s="51"/>
-      <c r="BF15" s="51"/>
-      <c r="BG15" s="51"/>
-      <c r="BH15" s="51"/>
-      <c r="BI15" s="50"/>
-      <c r="BJ15" s="51"/>
-      <c r="BK15" s="51"/>
-      <c r="BL15" s="51"/>
-      <c r="BM15" s="51"/>
-    </row>
-    <row r="16" spans="1:65" s="41" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="33">
-        <v>2</v>
-      </c>
-      <c r="B16" s="34" t="s">
-        <v>135</v>
-      </c>
-      <c r="E16" s="52"/>
-      <c r="F16" s="52"/>
-      <c r="G16" s="52"/>
-      <c r="H16" s="52"/>
-      <c r="I16" s="52"/>
-      <c r="J16" s="52"/>
-      <c r="K16" s="52"/>
-      <c r="L16" s="50"/>
-      <c r="M16" s="52"/>
-      <c r="N16" s="52"/>
-      <c r="O16" s="52"/>
-      <c r="P16" s="53"/>
-      <c r="Q16" s="53"/>
-      <c r="R16" s="52"/>
-      <c r="S16" s="50"/>
-      <c r="T16" s="52"/>
-      <c r="U16" s="52"/>
-      <c r="V16" s="52"/>
-      <c r="W16" s="52"/>
-      <c r="X16" s="52"/>
-      <c r="Y16" s="52"/>
-      <c r="Z16" s="50"/>
-      <c r="AA16" s="52"/>
-      <c r="AB16" s="52"/>
-      <c r="AC16" s="52"/>
-      <c r="AD16" s="52"/>
-      <c r="AE16" s="52"/>
-      <c r="AF16" s="52"/>
-      <c r="AG16" s="50"/>
-      <c r="AH16" s="52"/>
-      <c r="AI16" s="52"/>
-      <c r="AJ16" s="52"/>
-      <c r="AK16" s="52"/>
-      <c r="AL16" s="52"/>
-      <c r="AM16" s="52"/>
-      <c r="AN16" s="50"/>
-      <c r="AO16" s="54"/>
-      <c r="AP16" s="54"/>
-      <c r="AQ16" s="54"/>
-      <c r="AR16" s="54"/>
-      <c r="AS16" s="54"/>
-      <c r="AT16" s="54"/>
-      <c r="AU16" s="50"/>
-      <c r="AV16" s="54"/>
-      <c r="AW16" s="54"/>
-      <c r="AX16" s="54"/>
-      <c r="AY16" s="54"/>
-      <c r="AZ16" s="54"/>
-      <c r="BA16" s="54"/>
-      <c r="BB16" s="50"/>
-      <c r="BC16" s="54"/>
-      <c r="BD16" s="54"/>
-      <c r="BE16" s="54"/>
-      <c r="BF16" s="54"/>
-      <c r="BG16" s="54"/>
-      <c r="BH16" s="54"/>
-      <c r="BI16" s="50"/>
-      <c r="BJ16" s="54"/>
-      <c r="BK16" s="54"/>
-      <c r="BL16" s="54"/>
-      <c r="BM16" s="54"/>
-    </row>
-    <row r="17" spans="1:65" x14ac:dyDescent="0.25">
-      <c r="A17" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="C17" s="36">
-        <v>44676</v>
-      </c>
-      <c r="D17" s="36">
-        <v>44678</v>
-      </c>
-      <c r="E17" s="32">
-        <v>3</v>
-      </c>
-      <c r="F17" s="49"/>
-      <c r="G17" s="49"/>
-      <c r="H17" s="49"/>
-      <c r="I17" s="49"/>
-      <c r="J17" s="49"/>
-      <c r="K17" s="49"/>
-      <c r="L17" s="50"/>
-      <c r="M17" s="49"/>
-      <c r="N17" s="49"/>
-      <c r="O17" s="49"/>
-      <c r="P17" s="49"/>
-      <c r="Q17" s="49"/>
-      <c r="R17" s="49"/>
-      <c r="S17" s="50"/>
-      <c r="T17" s="58"/>
-      <c r="U17" s="58"/>
-      <c r="V17" s="58"/>
-      <c r="W17" s="49"/>
-      <c r="X17" s="49"/>
-      <c r="Y17" s="49"/>
-      <c r="Z17" s="50"/>
-      <c r="AA17" s="49"/>
-      <c r="AB17" s="49"/>
-      <c r="AC17" s="49"/>
-      <c r="AD17" s="49"/>
-      <c r="AE17" s="49"/>
-      <c r="AF17" s="49"/>
-      <c r="AG17" s="50"/>
-      <c r="AH17" s="49"/>
-      <c r="AI17" s="49"/>
-      <c r="AJ17" s="49"/>
-      <c r="AK17" s="49"/>
-      <c r="AL17" s="49"/>
-      <c r="AM17" s="49"/>
-      <c r="AN17" s="50"/>
-      <c r="AO17" s="51"/>
-      <c r="AP17" s="51"/>
-      <c r="AQ17" s="51"/>
-      <c r="AR17" s="51"/>
-      <c r="AS17" s="51"/>
-      <c r="AT17" s="51"/>
-      <c r="AU17" s="50"/>
-      <c r="AV17" s="51"/>
-      <c r="AW17" s="51"/>
-      <c r="AX17" s="51"/>
-      <c r="AY17" s="51"/>
-      <c r="AZ17" s="51"/>
-      <c r="BA17" s="51"/>
-      <c r="BB17" s="50"/>
-      <c r="BC17" s="51"/>
-      <c r="BD17" s="51"/>
-      <c r="BE17" s="51"/>
-      <c r="BF17" s="51"/>
-      <c r="BG17" s="51"/>
-      <c r="BH17" s="51"/>
-      <c r="BI17" s="50"/>
-      <c r="BJ17" s="51"/>
-      <c r="BK17" s="51"/>
-      <c r="BL17" s="51"/>
-      <c r="BM17" s="51"/>
-    </row>
-    <row r="18" spans="1:65" x14ac:dyDescent="0.25">
-      <c r="A18" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="C18" s="36">
-        <v>44678</v>
-      </c>
-      <c r="D18" s="36">
-        <v>44680</v>
-      </c>
-      <c r="E18" s="32">
-        <v>3</v>
-      </c>
-      <c r="F18" s="49"/>
-      <c r="G18" s="49"/>
-      <c r="H18" s="49"/>
-      <c r="I18" s="49"/>
-      <c r="J18" s="49"/>
-      <c r="K18" s="49"/>
-      <c r="L18" s="50"/>
-      <c r="M18" s="49"/>
-      <c r="N18" s="49"/>
-      <c r="O18" s="49"/>
-      <c r="P18" s="49"/>
-      <c r="Q18" s="49"/>
-      <c r="R18" s="49"/>
-      <c r="S18" s="50"/>
-      <c r="T18" s="49"/>
-      <c r="U18" s="49"/>
-      <c r="V18" s="58"/>
-      <c r="W18" s="58"/>
-      <c r="X18" s="58"/>
-      <c r="Y18" s="49"/>
-      <c r="Z18" s="50"/>
-      <c r="AA18" s="49"/>
-      <c r="AB18" s="49"/>
-      <c r="AC18" s="49"/>
-      <c r="AD18" s="49"/>
-      <c r="AE18" s="49"/>
-      <c r="AF18" s="49"/>
-      <c r="AG18" s="50"/>
-      <c r="AH18" s="49"/>
-      <c r="AI18" s="49"/>
-      <c r="AJ18" s="49"/>
-      <c r="AK18" s="49"/>
-      <c r="AL18" s="49"/>
-      <c r="AM18" s="49"/>
-      <c r="AN18" s="50"/>
-      <c r="AO18" s="51"/>
-      <c r="AP18" s="51"/>
-      <c r="AQ18" s="51"/>
-      <c r="AR18" s="51"/>
-      <c r="AS18" s="51"/>
-      <c r="AT18" s="51"/>
-      <c r="AU18" s="50"/>
-      <c r="AV18" s="51"/>
-      <c r="AW18" s="51"/>
-      <c r="AX18" s="51"/>
-      <c r="AY18" s="51"/>
-      <c r="AZ18" s="51"/>
-      <c r="BA18" s="51"/>
-      <c r="BB18" s="50"/>
-      <c r="BC18" s="51"/>
-      <c r="BD18" s="51"/>
-      <c r="BE18" s="51"/>
-      <c r="BF18" s="51"/>
-      <c r="BG18" s="51"/>
-      <c r="BH18" s="51"/>
-      <c r="BI18" s="50"/>
-      <c r="BJ18" s="51"/>
-      <c r="BK18" s="51"/>
-      <c r="BL18" s="51"/>
-      <c r="BM18" s="51"/>
-    </row>
-    <row r="19" spans="1:65" s="44" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="42" t="s">
-        <v>71</v>
-      </c>
-      <c r="B19" s="43" t="s">
-        <v>72</v>
-      </c>
-      <c r="C19" s="36">
-        <v>44680</v>
-      </c>
-      <c r="D19" s="36">
-        <v>44683</v>
-      </c>
-      <c r="E19" s="32">
-        <v>3</v>
-      </c>
-      <c r="F19" s="55"/>
-      <c r="G19" s="55"/>
-      <c r="H19" s="55"/>
-      <c r="I19" s="55"/>
-      <c r="J19" s="55"/>
-      <c r="K19" s="55"/>
-      <c r="L19" s="56"/>
-      <c r="M19" s="55"/>
-      <c r="N19" s="55"/>
-      <c r="O19" s="55"/>
-      <c r="P19" s="49"/>
-      <c r="Q19" s="49"/>
-      <c r="R19" s="49"/>
-      <c r="S19" s="56"/>
-      <c r="T19" s="49"/>
-      <c r="U19" s="49"/>
-      <c r="V19" s="49"/>
-      <c r="W19" s="49"/>
-      <c r="X19" s="58"/>
-      <c r="Y19" s="58"/>
-      <c r="Z19" s="56"/>
-      <c r="AA19" s="58"/>
-      <c r="AB19" s="55"/>
-      <c r="AC19" s="55"/>
-      <c r="AD19" s="55"/>
-      <c r="AE19" s="55"/>
-      <c r="AF19" s="55"/>
-      <c r="AG19" s="56"/>
-      <c r="AH19" s="55"/>
-      <c r="AI19" s="55"/>
-      <c r="AJ19" s="55"/>
-      <c r="AK19" s="55"/>
-      <c r="AL19" s="55"/>
-      <c r="AM19" s="55"/>
-      <c r="AN19" s="56"/>
-      <c r="AO19" s="57"/>
-      <c r="AP19" s="57"/>
-      <c r="AQ19" s="57"/>
-      <c r="AR19" s="57"/>
-      <c r="AS19" s="57"/>
-      <c r="AT19" s="57"/>
-      <c r="AU19" s="56"/>
-      <c r="AV19" s="57"/>
-      <c r="AW19" s="57"/>
-      <c r="AX19" s="57"/>
-      <c r="AY19" s="57"/>
-      <c r="AZ19" s="57"/>
-      <c r="BA19" s="57"/>
-      <c r="BB19" s="56"/>
-      <c r="BC19" s="57"/>
-      <c r="BD19" s="57"/>
-      <c r="BE19" s="57"/>
-      <c r="BF19" s="57"/>
-      <c r="BG19" s="57"/>
-      <c r="BH19" s="57"/>
-      <c r="BI19" s="56"/>
-      <c r="BJ19" s="57"/>
-      <c r="BK19" s="57"/>
-      <c r="BL19" s="57"/>
-      <c r="BM19" s="57"/>
-    </row>
-    <row r="20" spans="1:65" x14ac:dyDescent="0.25">
-      <c r="A20" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="C20" s="36">
-        <v>44683</v>
-      </c>
-      <c r="D20" s="36">
-        <v>44685</v>
-      </c>
-      <c r="E20" s="32">
-        <v>3</v>
-      </c>
-      <c r="F20" s="49"/>
-      <c r="G20" s="49"/>
-      <c r="H20" s="49"/>
-      <c r="I20" s="49"/>
-      <c r="J20" s="49"/>
-      <c r="K20" s="49"/>
-      <c r="L20" s="50"/>
-      <c r="M20" s="49"/>
-      <c r="N20" s="49"/>
-      <c r="O20" s="49"/>
-      <c r="P20" s="49"/>
-      <c r="Q20" s="49"/>
-      <c r="R20" s="49"/>
-      <c r="S20" s="50"/>
-      <c r="T20" s="49"/>
-      <c r="U20" s="49"/>
-      <c r="V20" s="49"/>
-      <c r="W20" s="49"/>
-      <c r="X20" s="49"/>
-      <c r="Y20" s="49"/>
-      <c r="Z20" s="50"/>
-      <c r="AA20" s="59"/>
-      <c r="AB20" s="58"/>
-      <c r="AC20" s="58"/>
-      <c r="AD20" s="49"/>
-      <c r="AE20" s="49"/>
-      <c r="AF20" s="49"/>
-      <c r="AG20" s="50"/>
-      <c r="AH20" s="49"/>
-      <c r="AI20" s="49"/>
-      <c r="AJ20" s="49"/>
-      <c r="AK20" s="49"/>
-      <c r="AL20" s="49"/>
-      <c r="AM20" s="49"/>
-      <c r="AN20" s="50"/>
-      <c r="AO20" s="51"/>
-      <c r="AP20" s="51"/>
-      <c r="AQ20" s="51"/>
-      <c r="AR20" s="51"/>
-      <c r="AS20" s="51"/>
-      <c r="AT20" s="51"/>
-      <c r="AU20" s="50"/>
-      <c r="AV20" s="51"/>
-      <c r="AW20" s="51"/>
-      <c r="AX20" s="51"/>
-      <c r="AY20" s="51"/>
-      <c r="AZ20" s="51"/>
-      <c r="BA20" s="51"/>
-      <c r="BB20" s="50"/>
-      <c r="BC20" s="51"/>
-      <c r="BD20" s="51"/>
-      <c r="BE20" s="51"/>
-      <c r="BF20" s="51"/>
-      <c r="BG20" s="51"/>
-      <c r="BH20" s="51"/>
-      <c r="BI20" s="50"/>
-      <c r="BJ20" s="51"/>
-      <c r="BK20" s="51"/>
-      <c r="BL20" s="51"/>
-      <c r="BM20" s="51"/>
-    </row>
-    <row r="21" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="C21" s="36">
-        <v>44685</v>
-      </c>
-      <c r="D21" s="36">
-        <v>44687</v>
-      </c>
-      <c r="E21" s="32">
-        <v>3</v>
-      </c>
-      <c r="F21" s="49"/>
-      <c r="G21" s="49"/>
-      <c r="H21" s="49"/>
-      <c r="I21" s="49"/>
-      <c r="J21" s="49"/>
-      <c r="K21" s="49"/>
-      <c r="L21" s="50"/>
-      <c r="M21" s="49"/>
-      <c r="N21" s="49"/>
-      <c r="O21" s="49"/>
-      <c r="P21" s="49"/>
-      <c r="Q21" s="49"/>
-      <c r="R21" s="49"/>
-      <c r="S21" s="50"/>
-      <c r="T21" s="49"/>
-      <c r="U21" s="49"/>
-      <c r="V21" s="49"/>
-      <c r="W21" s="49"/>
-      <c r="X21" s="49"/>
-      <c r="Y21" s="49"/>
-      <c r="Z21" s="50"/>
-      <c r="AA21" s="49"/>
-      <c r="AB21" s="49"/>
-      <c r="AC21" s="59"/>
-      <c r="AD21" s="58"/>
-      <c r="AE21" s="58"/>
-      <c r="AF21" s="49"/>
-      <c r="AG21" s="50"/>
-      <c r="AH21" s="49"/>
-      <c r="AI21" s="49"/>
-      <c r="AJ21" s="49"/>
-      <c r="AK21" s="49"/>
-      <c r="AL21" s="49"/>
-      <c r="AM21" s="49"/>
-      <c r="AN21" s="50"/>
-      <c r="AO21" s="51"/>
-      <c r="AP21" s="51"/>
-      <c r="AQ21" s="51"/>
-      <c r="AR21" s="51"/>
-      <c r="AS21" s="51"/>
-      <c r="AT21" s="51"/>
-      <c r="AU21" s="50"/>
-      <c r="AV21" s="51"/>
-      <c r="AW21" s="51"/>
-      <c r="AX21" s="51"/>
-      <c r="AY21" s="51"/>
-      <c r="AZ21" s="51"/>
-      <c r="BA21" s="51"/>
-      <c r="BB21" s="50"/>
-      <c r="BC21" s="51"/>
-      <c r="BD21" s="51"/>
-      <c r="BE21" s="51"/>
-      <c r="BF21" s="51"/>
-      <c r="BG21" s="51"/>
-      <c r="BH21" s="51"/>
-      <c r="BI21" s="50"/>
-      <c r="BJ21" s="51"/>
-      <c r="BK21" s="51"/>
-      <c r="BL21" s="51"/>
-      <c r="BM21" s="51"/>
-    </row>
-    <row r="22" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="C22" s="36">
-        <v>44687</v>
-      </c>
-      <c r="D22" s="36">
-        <v>44690</v>
-      </c>
-      <c r="E22" s="32">
-        <v>3</v>
-      </c>
-      <c r="F22" s="49"/>
-      <c r="G22" s="49"/>
-      <c r="H22" s="49"/>
-      <c r="I22" s="49"/>
-      <c r="J22" s="49"/>
-      <c r="K22" s="49"/>
-      <c r="L22" s="50"/>
-      <c r="M22" s="49"/>
-      <c r="N22" s="49"/>
-      <c r="O22" s="49"/>
-      <c r="P22" s="49"/>
-      <c r="Q22" s="49"/>
-      <c r="R22" s="49"/>
-      <c r="S22" s="50"/>
-      <c r="T22" s="49"/>
-      <c r="U22" s="49"/>
-      <c r="V22" s="49"/>
-      <c r="W22" s="49"/>
-      <c r="X22" s="49"/>
-      <c r="Y22" s="49"/>
-      <c r="Z22" s="50"/>
-      <c r="AA22" s="49"/>
-      <c r="AB22" s="49"/>
-      <c r="AC22" s="49"/>
-      <c r="AD22" s="49"/>
-      <c r="AE22" s="58"/>
-      <c r="AF22" s="58"/>
-      <c r="AG22" s="50"/>
-      <c r="AH22" s="58"/>
-      <c r="AI22" s="49"/>
-      <c r="AJ22" s="49"/>
-      <c r="AK22" s="49"/>
-      <c r="AL22" s="49"/>
-      <c r="AM22" s="49"/>
-      <c r="AN22" s="50"/>
-      <c r="AO22" s="51"/>
-      <c r="AP22" s="51"/>
-      <c r="AQ22" s="51"/>
-      <c r="AR22" s="51"/>
-      <c r="AS22" s="51"/>
-      <c r="AT22" s="51"/>
-      <c r="AU22" s="50"/>
-      <c r="AV22" s="51"/>
-      <c r="AW22" s="51"/>
-      <c r="AX22" s="51"/>
-      <c r="AY22" s="51"/>
-      <c r="AZ22" s="51"/>
-      <c r="BA22" s="51"/>
-      <c r="BB22" s="50"/>
-      <c r="BC22" s="51"/>
-      <c r="BD22" s="51"/>
-      <c r="BE22" s="51"/>
-      <c r="BF22" s="51"/>
-      <c r="BG22" s="51"/>
-      <c r="BH22" s="51"/>
-      <c r="BI22" s="50"/>
-      <c r="BJ22" s="51"/>
-      <c r="BK22" s="51"/>
-      <c r="BL22" s="51"/>
-      <c r="BM22" s="51"/>
-    </row>
-    <row r="23" spans="1:65" s="41" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="33">
-        <v>3</v>
-      </c>
-      <c r="B23" s="34" t="s">
-        <v>134</v>
-      </c>
-      <c r="E23" s="52"/>
-      <c r="F23" s="52"/>
-      <c r="G23" s="52"/>
-      <c r="H23" s="52"/>
-      <c r="I23" s="52"/>
-      <c r="J23" s="52"/>
-      <c r="K23" s="52"/>
-      <c r="L23" s="50"/>
-      <c r="M23" s="52"/>
-      <c r="N23" s="52"/>
-      <c r="O23" s="52"/>
-      <c r="P23" s="52"/>
-      <c r="Q23" s="52"/>
-      <c r="R23" s="52"/>
-      <c r="S23" s="50"/>
-      <c r="T23" s="52"/>
-      <c r="U23" s="52"/>
-      <c r="V23" s="53"/>
-      <c r="W23" s="53"/>
-      <c r="X23" s="52"/>
-      <c r="Y23" s="52"/>
-      <c r="Z23" s="50"/>
-      <c r="AA23" s="52"/>
-      <c r="AB23" s="52"/>
-      <c r="AC23" s="52"/>
-      <c r="AD23" s="52"/>
-      <c r="AE23" s="52"/>
-      <c r="AF23" s="52"/>
-      <c r="AG23" s="50"/>
-      <c r="AH23" s="52"/>
-      <c r="AI23" s="52"/>
-      <c r="AJ23" s="52"/>
-      <c r="AK23" s="52"/>
-      <c r="AL23" s="52"/>
-      <c r="AM23" s="52"/>
-      <c r="AN23" s="50"/>
-      <c r="AO23" s="54"/>
-      <c r="AP23" s="54"/>
-      <c r="AQ23" s="54"/>
-      <c r="AR23" s="54"/>
-      <c r="AS23" s="54"/>
-      <c r="AT23" s="54"/>
-      <c r="AU23" s="50"/>
-      <c r="AV23" s="54"/>
-      <c r="AW23" s="54"/>
-      <c r="AX23" s="54"/>
-      <c r="AY23" s="54"/>
-      <c r="AZ23" s="54"/>
-      <c r="BA23" s="54"/>
-      <c r="BB23" s="50"/>
-      <c r="BC23" s="54"/>
-      <c r="BD23" s="54"/>
-      <c r="BE23" s="54"/>
-      <c r="BF23" s="54"/>
-      <c r="BG23" s="54"/>
-      <c r="BH23" s="54"/>
-      <c r="BI23" s="50"/>
-      <c r="BJ23" s="54"/>
-      <c r="BK23" s="54"/>
-      <c r="BL23" s="54"/>
-      <c r="BM23" s="54"/>
-    </row>
-    <row r="24" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="C24" s="36">
-        <v>44690</v>
-      </c>
-      <c r="D24" s="36">
-        <v>44692</v>
-      </c>
-      <c r="E24" s="32">
-        <v>3</v>
-      </c>
-      <c r="F24" s="49"/>
-      <c r="G24" s="49"/>
-      <c r="H24" s="49"/>
-      <c r="I24" s="49"/>
-      <c r="J24" s="49"/>
-      <c r="K24" s="49"/>
-      <c r="L24" s="50"/>
-      <c r="M24" s="49"/>
-      <c r="N24" s="49"/>
-      <c r="O24" s="49"/>
-      <c r="P24" s="49"/>
-      <c r="Q24" s="49"/>
-      <c r="R24" s="49"/>
-      <c r="S24" s="50"/>
-      <c r="T24" s="49"/>
-      <c r="U24" s="49"/>
-      <c r="V24" s="49"/>
-      <c r="W24" s="49"/>
-      <c r="X24" s="49"/>
-      <c r="Y24" s="49"/>
-      <c r="Z24" s="50"/>
-      <c r="AA24" s="55"/>
-      <c r="AB24" s="55"/>
-      <c r="AC24" s="55"/>
-      <c r="AD24" s="55"/>
-      <c r="AE24" s="55"/>
-      <c r="AF24" s="55"/>
-      <c r="AG24" s="50"/>
-      <c r="AH24" s="58"/>
-      <c r="AI24" s="58"/>
-      <c r="AJ24" s="58"/>
-      <c r="AK24" s="49"/>
-      <c r="AL24" s="49"/>
-      <c r="AM24" s="49"/>
-      <c r="AN24" s="50"/>
-      <c r="AO24" s="51"/>
-      <c r="AP24" s="51"/>
-      <c r="AQ24" s="51"/>
-      <c r="AR24" s="51"/>
-      <c r="AS24" s="51"/>
-      <c r="AT24" s="51"/>
-      <c r="AU24" s="50"/>
-      <c r="AV24" s="51"/>
-      <c r="AW24" s="51"/>
-      <c r="AX24" s="51"/>
-      <c r="AY24" s="51"/>
-      <c r="AZ24" s="51"/>
-      <c r="BA24" s="51"/>
-      <c r="BB24" s="50"/>
-      <c r="BC24" s="51"/>
-      <c r="BD24" s="51"/>
-      <c r="BE24" s="51"/>
-      <c r="BF24" s="51"/>
-      <c r="BG24" s="51"/>
-      <c r="BH24" s="51"/>
-      <c r="BI24" s="50"/>
-      <c r="BJ24" s="51"/>
-      <c r="BK24" s="51"/>
-      <c r="BL24" s="51"/>
-      <c r="BM24" s="51"/>
-    </row>
-    <row r="25" spans="1:65" s="44" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="42" t="s">
-        <v>81</v>
-      </c>
-      <c r="B25" s="43" t="s">
-        <v>82</v>
-      </c>
-      <c r="C25" s="36">
-        <v>44692</v>
-      </c>
-      <c r="D25" s="36">
-        <v>44694</v>
-      </c>
-      <c r="E25" s="32">
-        <v>3</v>
-      </c>
-      <c r="F25" s="55"/>
-      <c r="G25" s="55"/>
-      <c r="H25" s="55"/>
-      <c r="I25" s="55"/>
-      <c r="J25" s="55"/>
-      <c r="K25" s="55"/>
-      <c r="L25" s="56"/>
-      <c r="M25" s="55"/>
-      <c r="N25" s="55"/>
-      <c r="O25" s="55"/>
-      <c r="P25" s="55"/>
-      <c r="Q25" s="55"/>
-      <c r="R25" s="55"/>
-      <c r="S25" s="56"/>
-      <c r="T25" s="55"/>
-      <c r="U25" s="55"/>
-      <c r="V25" s="55"/>
-      <c r="W25" s="55"/>
-      <c r="X25" s="55"/>
-      <c r="Y25" s="55"/>
-      <c r="Z25" s="56"/>
-      <c r="AA25" s="55"/>
-      <c r="AB25" s="55"/>
-      <c r="AC25" s="55"/>
-      <c r="AD25" s="55"/>
-      <c r="AE25" s="55"/>
-      <c r="AF25" s="55"/>
-      <c r="AG25" s="56"/>
-      <c r="AH25" s="55"/>
-      <c r="AI25" s="55"/>
-      <c r="AJ25" s="58"/>
-      <c r="AK25" s="58"/>
-      <c r="AL25" s="58"/>
-      <c r="AM25" s="55"/>
-      <c r="AN25" s="56"/>
-      <c r="AO25" s="57"/>
-      <c r="AP25" s="57"/>
-      <c r="AQ25" s="57"/>
-      <c r="AR25" s="57"/>
-      <c r="AS25" s="57"/>
-      <c r="AT25" s="57"/>
-      <c r="AU25" s="56"/>
-      <c r="AV25" s="57"/>
-      <c r="AW25" s="57"/>
-      <c r="AX25" s="57"/>
-      <c r="AY25" s="57"/>
-      <c r="AZ25" s="57"/>
-      <c r="BA25" s="57"/>
-      <c r="BB25" s="56"/>
-      <c r="BC25" s="57"/>
-      <c r="BD25" s="57"/>
-      <c r="BE25" s="57"/>
-      <c r="BF25" s="57"/>
-      <c r="BG25" s="57"/>
-      <c r="BH25" s="57"/>
-      <c r="BI25" s="56"/>
-      <c r="BJ25" s="57"/>
-      <c r="BK25" s="57"/>
-      <c r="BL25" s="57"/>
-      <c r="BM25" s="57"/>
-    </row>
-    <row r="26" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="B26" s="4" t="s">
+      <c r="F26" s="44"/>
+      <c r="G26" s="44"/>
+      <c r="H26" s="44"/>
+      <c r="I26" s="44"/>
+      <c r="J26" s="44"/>
+      <c r="K26" s="44"/>
+      <c r="L26" s="45"/>
+      <c r="M26" s="44"/>
+      <c r="N26" s="44"/>
+      <c r="O26" s="44"/>
+      <c r="P26" s="44"/>
+      <c r="Q26" s="44"/>
+      <c r="R26" s="44"/>
+      <c r="S26" s="45"/>
+      <c r="T26" s="44"/>
+      <c r="U26" s="44"/>
+      <c r="V26" s="44"/>
+      <c r="W26" s="44"/>
+      <c r="X26" s="44"/>
+      <c r="Y26" s="44"/>
+      <c r="Z26" s="45"/>
+      <c r="AA26" s="50"/>
+      <c r="AB26" s="50"/>
+      <c r="AC26" s="50"/>
+      <c r="AD26" s="50"/>
+      <c r="AE26" s="50"/>
+      <c r="AF26" s="50"/>
+      <c r="AG26" s="45"/>
+      <c r="AH26" s="44"/>
+      <c r="AI26" s="44"/>
+      <c r="AJ26" s="44"/>
+      <c r="AK26" s="44"/>
+      <c r="AL26" s="53"/>
+      <c r="AM26" s="53"/>
+      <c r="AN26" s="45"/>
+      <c r="AO26" s="53"/>
+      <c r="AP26" s="53"/>
+      <c r="AQ26" s="53"/>
+      <c r="AR26" s="46"/>
+      <c r="AS26" s="46"/>
+      <c r="AT26" s="46"/>
+      <c r="AU26" s="45"/>
+      <c r="AV26" s="46"/>
+      <c r="AW26" s="46"/>
+      <c r="AX26" s="46"/>
+      <c r="AY26" s="46"/>
+      <c r="AZ26" s="46"/>
+      <c r="BA26" s="46"/>
+      <c r="BB26" s="45"/>
+      <c r="BC26" s="46"/>
+      <c r="BD26" s="46"/>
+      <c r="BE26" s="46"/>
+      <c r="BF26" s="46"/>
+      <c r="BG26" s="46"/>
+      <c r="BH26" s="46"/>
+      <c r="BI26" s="45"/>
+      <c r="BJ26" s="46"/>
+      <c r="BK26" s="46"/>
+      <c r="BL26" s="46"/>
+      <c r="BM26" s="46"/>
+    </row>
+    <row r="27" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="C26" s="36">
-        <v>44694</v>
-      </c>
-      <c r="D26" s="36">
-        <v>44699</v>
-      </c>
-      <c r="E26" s="32">
-        <v>5</v>
-      </c>
-      <c r="F26" s="49"/>
-      <c r="G26" s="49"/>
-      <c r="H26" s="49"/>
-      <c r="I26" s="49"/>
-      <c r="J26" s="49"/>
-      <c r="K26" s="49"/>
-      <c r="L26" s="50"/>
-      <c r="M26" s="49"/>
-      <c r="N26" s="49"/>
-      <c r="O26" s="49"/>
-      <c r="P26" s="49"/>
-      <c r="Q26" s="49"/>
-      <c r="R26" s="49"/>
-      <c r="S26" s="50"/>
-      <c r="T26" s="49"/>
-      <c r="U26" s="49"/>
-      <c r="V26" s="49"/>
-      <c r="W26" s="49"/>
-      <c r="X26" s="49"/>
-      <c r="Y26" s="49"/>
-      <c r="Z26" s="50"/>
-      <c r="AA26" s="55"/>
-      <c r="AB26" s="55"/>
-      <c r="AC26" s="55"/>
-      <c r="AD26" s="55"/>
-      <c r="AE26" s="55"/>
-      <c r="AF26" s="55"/>
-      <c r="AG26" s="50"/>
-      <c r="AH26" s="49"/>
-      <c r="AI26" s="49"/>
-      <c r="AJ26" s="49"/>
-      <c r="AK26" s="49"/>
-      <c r="AL26" s="58"/>
-      <c r="AM26" s="58"/>
-      <c r="AN26" s="50"/>
-      <c r="AO26" s="58"/>
-      <c r="AP26" s="58"/>
-      <c r="AQ26" s="58"/>
-      <c r="AR26" s="51"/>
-      <c r="AS26" s="51"/>
-      <c r="AT26" s="51"/>
-      <c r="AU26" s="50"/>
-      <c r="AV26" s="51"/>
-      <c r="AW26" s="51"/>
-      <c r="AX26" s="51"/>
-      <c r="AY26" s="51"/>
-      <c r="AZ26" s="51"/>
-      <c r="BA26" s="51"/>
-      <c r="BB26" s="50"/>
-      <c r="BC26" s="51"/>
-      <c r="BD26" s="51"/>
-      <c r="BE26" s="51"/>
-      <c r="BF26" s="51"/>
-      <c r="BG26" s="51"/>
-      <c r="BH26" s="51"/>
-      <c r="BI26" s="50"/>
-      <c r="BJ26" s="51"/>
-      <c r="BK26" s="51"/>
-      <c r="BL26" s="51"/>
-      <c r="BM26" s="51"/>
-    </row>
-    <row r="27" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="5" t="s">
+      <c r="B27" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="B27" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="C27" s="36">
+      <c r="C27" s="31">
         <f>D26</f>
         <v>44699</v>
       </c>
-      <c r="D27" s="36">
+      <c r="D27" s="31">
         <v>44701</v>
       </c>
-      <c r="E27" s="32">
+      <c r="E27" s="27">
         <v>3</v>
       </c>
-      <c r="F27" s="49"/>
-      <c r="G27" s="49"/>
-      <c r="H27" s="49"/>
-      <c r="I27" s="49"/>
-      <c r="J27" s="49"/>
-      <c r="K27" s="49"/>
-      <c r="L27" s="50"/>
-      <c r="M27" s="49"/>
-      <c r="N27" s="49"/>
-      <c r="O27" s="49"/>
-      <c r="P27" s="49"/>
-      <c r="Q27" s="49"/>
-      <c r="R27" s="49"/>
-      <c r="S27" s="50"/>
-      <c r="T27" s="49"/>
-      <c r="U27" s="49"/>
-      <c r="V27" s="49"/>
-      <c r="W27" s="49"/>
-      <c r="X27" s="49"/>
-      <c r="Y27" s="49"/>
-      <c r="Z27" s="50"/>
-      <c r="AA27" s="55"/>
-      <c r="AB27" s="55"/>
-      <c r="AC27" s="55"/>
-      <c r="AD27" s="55"/>
-      <c r="AE27" s="55"/>
-      <c r="AF27" s="55"/>
-      <c r="AG27" s="50"/>
-      <c r="AH27" s="49"/>
-      <c r="AI27" s="49"/>
-      <c r="AJ27" s="49"/>
-      <c r="AK27" s="49"/>
-      <c r="AL27" s="49"/>
-      <c r="AM27" s="49"/>
-      <c r="AN27" s="50"/>
-      <c r="AO27" s="51"/>
-      <c r="AP27" s="51"/>
-      <c r="AQ27" s="58"/>
-      <c r="AR27" s="58"/>
-      <c r="AS27" s="58"/>
-      <c r="AT27" s="51"/>
-      <c r="AU27" s="50"/>
-      <c r="AV27" s="51"/>
-      <c r="AW27" s="51"/>
-      <c r="AX27" s="51"/>
-      <c r="AY27" s="51"/>
-      <c r="AZ27" s="51"/>
-      <c r="BA27" s="51"/>
-      <c r="BB27" s="50"/>
-      <c r="BC27" s="51"/>
-      <c r="BD27" s="51"/>
-      <c r="BE27" s="51"/>
-      <c r="BF27" s="51"/>
-      <c r="BG27" s="51"/>
-      <c r="BH27" s="51"/>
-      <c r="BI27" s="50"/>
-      <c r="BJ27" s="51"/>
-      <c r="BK27" s="51"/>
-      <c r="BL27" s="51"/>
-      <c r="BM27" s="51"/>
+      <c r="F27" s="44"/>
+      <c r="G27" s="44"/>
+      <c r="H27" s="44"/>
+      <c r="I27" s="44"/>
+      <c r="J27" s="44"/>
+      <c r="K27" s="44"/>
+      <c r="L27" s="45"/>
+      <c r="M27" s="44"/>
+      <c r="N27" s="44"/>
+      <c r="O27" s="44"/>
+      <c r="P27" s="44"/>
+      <c r="Q27" s="44"/>
+      <c r="R27" s="44"/>
+      <c r="S27" s="45"/>
+      <c r="T27" s="44"/>
+      <c r="U27" s="44"/>
+      <c r="V27" s="44"/>
+      <c r="W27" s="44"/>
+      <c r="X27" s="44"/>
+      <c r="Y27" s="44"/>
+      <c r="Z27" s="45"/>
+      <c r="AA27" s="50"/>
+      <c r="AB27" s="50"/>
+      <c r="AC27" s="50"/>
+      <c r="AD27" s="50"/>
+      <c r="AE27" s="50"/>
+      <c r="AF27" s="50"/>
+      <c r="AG27" s="45"/>
+      <c r="AH27" s="44"/>
+      <c r="AI27" s="44"/>
+      <c r="AJ27" s="44"/>
+      <c r="AK27" s="44"/>
+      <c r="AL27" s="44"/>
+      <c r="AM27" s="44"/>
+      <c r="AN27" s="45"/>
+      <c r="AO27" s="46"/>
+      <c r="AP27" s="46"/>
+      <c r="AQ27" s="53"/>
+      <c r="AR27" s="53"/>
+      <c r="AS27" s="53"/>
+      <c r="AT27" s="46"/>
+      <c r="AU27" s="45"/>
+      <c r="AV27" s="46"/>
+      <c r="AW27" s="46"/>
+      <c r="AX27" s="46"/>
+      <c r="AY27" s="46"/>
+      <c r="AZ27" s="46"/>
+      <c r="BA27" s="46"/>
+      <c r="BB27" s="45"/>
+      <c r="BC27" s="46"/>
+      <c r="BD27" s="46"/>
+      <c r="BE27" s="46"/>
+      <c r="BF27" s="46"/>
+      <c r="BG27" s="46"/>
+      <c r="BH27" s="46"/>
+      <c r="BI27" s="45"/>
+      <c r="BJ27" s="46"/>
+      <c r="BK27" s="46"/>
+      <c r="BL27" s="46"/>
+      <c r="BM27" s="46"/>
     </row>
     <row r="28" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="B28" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="B28" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="C28" s="36">
+      <c r="C28" s="31">
         <f t="shared" ref="C28:C35" si="0">D27</f>
         <v>44701</v>
       </c>
-      <c r="D28" s="36">
+      <c r="D28" s="31">
         <v>44704</v>
       </c>
-      <c r="E28" s="32">
+      <c r="E28" s="27">
         <v>3</v>
       </c>
-      <c r="F28" s="49"/>
-      <c r="G28" s="49"/>
-      <c r="H28" s="49"/>
-      <c r="I28" s="49"/>
-      <c r="J28" s="49"/>
-      <c r="K28" s="49"/>
-      <c r="L28" s="50"/>
-      <c r="M28" s="49"/>
-      <c r="N28" s="49"/>
-      <c r="O28" s="49"/>
-      <c r="P28" s="49"/>
-      <c r="Q28" s="49"/>
-      <c r="R28" s="49"/>
-      <c r="S28" s="50"/>
-      <c r="T28" s="49"/>
-      <c r="U28" s="49"/>
-      <c r="V28" s="49"/>
-      <c r="W28" s="49"/>
-      <c r="X28" s="49"/>
-      <c r="Y28" s="49"/>
-      <c r="Z28" s="50"/>
-      <c r="AA28" s="55"/>
-      <c r="AB28" s="55"/>
-      <c r="AC28" s="55"/>
-      <c r="AD28" s="55"/>
-      <c r="AE28" s="55"/>
-      <c r="AF28" s="55"/>
-      <c r="AG28" s="50"/>
-      <c r="AH28" s="49"/>
-      <c r="AI28" s="49"/>
-      <c r="AJ28" s="49"/>
-      <c r="AK28" s="49"/>
-      <c r="AL28" s="49"/>
-      <c r="AM28" s="49"/>
-      <c r="AN28" s="50"/>
-      <c r="AO28" s="51"/>
-      <c r="AP28" s="51"/>
-      <c r="AQ28" s="51"/>
-      <c r="AR28" s="51"/>
-      <c r="AS28" s="58"/>
-      <c r="AT28" s="58"/>
-      <c r="AU28" s="50"/>
-      <c r="AV28" s="58"/>
-      <c r="AW28" s="51"/>
-      <c r="AX28" s="51"/>
-      <c r="AY28" s="51"/>
-      <c r="AZ28" s="51"/>
-      <c r="BA28" s="51"/>
-      <c r="BB28" s="50"/>
-      <c r="BC28" s="51"/>
-      <c r="BD28" s="51"/>
-      <c r="BE28" s="51"/>
-      <c r="BF28" s="51"/>
-      <c r="BG28" s="51"/>
-      <c r="BH28" s="51"/>
-      <c r="BI28" s="50"/>
-      <c r="BJ28" s="51"/>
-      <c r="BK28" s="51"/>
-      <c r="BL28" s="51"/>
-      <c r="BM28" s="51"/>
+      <c r="F28" s="44"/>
+      <c r="G28" s="44"/>
+      <c r="H28" s="44"/>
+      <c r="I28" s="44"/>
+      <c r="J28" s="44"/>
+      <c r="K28" s="44"/>
+      <c r="L28" s="45"/>
+      <c r="M28" s="44"/>
+      <c r="N28" s="44"/>
+      <c r="O28" s="44"/>
+      <c r="P28" s="44"/>
+      <c r="Q28" s="44"/>
+      <c r="R28" s="44"/>
+      <c r="S28" s="45"/>
+      <c r="T28" s="44"/>
+      <c r="U28" s="44"/>
+      <c r="V28" s="44"/>
+      <c r="W28" s="44"/>
+      <c r="X28" s="44"/>
+      <c r="Y28" s="44"/>
+      <c r="Z28" s="45"/>
+      <c r="AA28" s="50"/>
+      <c r="AB28" s="50"/>
+      <c r="AC28" s="50"/>
+      <c r="AD28" s="50"/>
+      <c r="AE28" s="50"/>
+      <c r="AF28" s="50"/>
+      <c r="AG28" s="45"/>
+      <c r="AH28" s="44"/>
+      <c r="AI28" s="44"/>
+      <c r="AJ28" s="44"/>
+      <c r="AK28" s="44"/>
+      <c r="AL28" s="44"/>
+      <c r="AM28" s="44"/>
+      <c r="AN28" s="45"/>
+      <c r="AO28" s="46"/>
+      <c r="AP28" s="46"/>
+      <c r="AQ28" s="46"/>
+      <c r="AR28" s="46"/>
+      <c r="AS28" s="53"/>
+      <c r="AT28" s="53"/>
+      <c r="AU28" s="45"/>
+      <c r="AV28" s="53"/>
+      <c r="AW28" s="46"/>
+      <c r="AX28" s="46"/>
+      <c r="AY28" s="46"/>
+      <c r="AZ28" s="46"/>
+      <c r="BA28" s="46"/>
+      <c r="BB28" s="45"/>
+      <c r="BC28" s="46"/>
+      <c r="BD28" s="46"/>
+      <c r="BE28" s="46"/>
+      <c r="BF28" s="46"/>
+      <c r="BG28" s="46"/>
+      <c r="BH28" s="46"/>
+      <c r="BI28" s="45"/>
+      <c r="BJ28" s="46"/>
+      <c r="BK28" s="46"/>
+      <c r="BL28" s="46"/>
+      <c r="BM28" s="46"/>
     </row>
     <row r="29" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
-      <c r="C29" s="36">
+      <c r="C29" s="31">
         <f t="shared" si="0"/>
         <v>44704</v>
       </c>
-      <c r="D29" s="36">
+      <c r="D29" s="31">
         <v>44706</v>
       </c>
-      <c r="E29" s="32">
+      <c r="E29" s="27">
         <v>3</v>
       </c>
-      <c r="F29" s="49"/>
-      <c r="G29" s="49"/>
-      <c r="H29" s="49"/>
-      <c r="I29" s="49"/>
-      <c r="J29" s="49"/>
-      <c r="K29" s="49"/>
-      <c r="L29" s="50"/>
-      <c r="M29" s="49"/>
-      <c r="N29" s="49"/>
-      <c r="O29" s="49"/>
-      <c r="P29" s="49"/>
-      <c r="Q29" s="49"/>
-      <c r="R29" s="49"/>
-      <c r="S29" s="50"/>
-      <c r="T29" s="49"/>
-      <c r="U29" s="49"/>
-      <c r="V29" s="49"/>
-      <c r="W29" s="49"/>
-      <c r="X29" s="49"/>
-      <c r="Y29" s="49"/>
-      <c r="Z29" s="50"/>
-      <c r="AA29" s="55"/>
-      <c r="AB29" s="55"/>
-      <c r="AC29" s="55"/>
-      <c r="AD29" s="55"/>
-      <c r="AE29" s="55"/>
-      <c r="AF29" s="55"/>
-      <c r="AG29" s="50"/>
-      <c r="AH29" s="49"/>
-      <c r="AI29" s="49"/>
-      <c r="AJ29" s="49"/>
-      <c r="AK29" s="49"/>
-      <c r="AL29" s="49"/>
-      <c r="AM29" s="49"/>
-      <c r="AN29" s="50"/>
-      <c r="AO29" s="51"/>
-      <c r="AP29" s="51"/>
-      <c r="AQ29" s="51"/>
-      <c r="AR29" s="51"/>
-      <c r="AS29" s="51"/>
-      <c r="AT29" s="51"/>
-      <c r="AU29" s="50"/>
-      <c r="AV29" s="58"/>
-      <c r="AW29" s="58"/>
-      <c r="AX29" s="58"/>
-      <c r="AY29" s="51"/>
-      <c r="AZ29" s="51"/>
-      <c r="BA29" s="51"/>
-      <c r="BB29" s="50"/>
-      <c r="BC29" s="51"/>
-      <c r="BD29" s="51"/>
-      <c r="BE29" s="51"/>
-      <c r="BF29" s="51"/>
-      <c r="BG29" s="51"/>
-      <c r="BH29" s="51"/>
-      <c r="BI29" s="50"/>
-      <c r="BJ29" s="51"/>
-      <c r="BK29" s="51"/>
-      <c r="BL29" s="51"/>
-      <c r="BM29" s="51"/>
-    </row>
-    <row r="30" spans="1:65" s="41" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="33">
+      <c r="F29" s="44"/>
+      <c r="G29" s="44"/>
+      <c r="H29" s="44"/>
+      <c r="I29" s="44"/>
+      <c r="J29" s="44"/>
+      <c r="K29" s="44"/>
+      <c r="L29" s="45"/>
+      <c r="M29" s="44"/>
+      <c r="N29" s="44"/>
+      <c r="O29" s="44"/>
+      <c r="P29" s="44"/>
+      <c r="Q29" s="44"/>
+      <c r="R29" s="44"/>
+      <c r="S29" s="45"/>
+      <c r="T29" s="44"/>
+      <c r="U29" s="44"/>
+      <c r="V29" s="44"/>
+      <c r="W29" s="44"/>
+      <c r="X29" s="44"/>
+      <c r="Y29" s="44"/>
+      <c r="Z29" s="45"/>
+      <c r="AA29" s="50"/>
+      <c r="AB29" s="50"/>
+      <c r="AC29" s="50"/>
+      <c r="AD29" s="50"/>
+      <c r="AE29" s="50"/>
+      <c r="AF29" s="50"/>
+      <c r="AG29" s="45"/>
+      <c r="AH29" s="44"/>
+      <c r="AI29" s="44"/>
+      <c r="AJ29" s="44"/>
+      <c r="AK29" s="44"/>
+      <c r="AL29" s="44"/>
+      <c r="AM29" s="44"/>
+      <c r="AN29" s="45"/>
+      <c r="AO29" s="46"/>
+      <c r="AP29" s="46"/>
+      <c r="AQ29" s="46"/>
+      <c r="AR29" s="46"/>
+      <c r="AS29" s="46"/>
+      <c r="AT29" s="46"/>
+      <c r="AU29" s="45"/>
+      <c r="AV29" s="53"/>
+      <c r="AW29" s="53"/>
+      <c r="AX29" s="53"/>
+      <c r="AY29" s="46"/>
+      <c r="AZ29" s="46"/>
+      <c r="BA29" s="46"/>
+      <c r="BB29" s="45"/>
+      <c r="BC29" s="46"/>
+      <c r="BD29" s="46"/>
+      <c r="BE29" s="46"/>
+      <c r="BF29" s="46"/>
+      <c r="BG29" s="46"/>
+      <c r="BH29" s="46"/>
+      <c r="BI29" s="45"/>
+      <c r="BJ29" s="46"/>
+      <c r="BK29" s="46"/>
+      <c r="BL29" s="46"/>
+      <c r="BM29" s="46"/>
+    </row>
+    <row r="30" spans="1:65" s="36" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="28">
         <v>4</v>
       </c>
-      <c r="B30" s="34" t="s">
+      <c r="B30" s="29" t="s">
+        <v>90</v>
+      </c>
+      <c r="E30" s="47"/>
+      <c r="F30" s="42"/>
+      <c r="G30" s="42"/>
+      <c r="H30" s="42"/>
+      <c r="I30" s="42"/>
+      <c r="J30" s="42"/>
+      <c r="K30" s="42"/>
+      <c r="L30" s="45"/>
+      <c r="M30" s="42"/>
+      <c r="N30" s="42"/>
+      <c r="O30" s="42"/>
+      <c r="P30" s="42"/>
+      <c r="Q30" s="42"/>
+      <c r="R30" s="42"/>
+      <c r="S30" s="45"/>
+      <c r="T30" s="42"/>
+      <c r="U30" s="42"/>
+      <c r="V30" s="42"/>
+      <c r="W30" s="42"/>
+      <c r="X30" s="42"/>
+      <c r="Y30" s="42"/>
+      <c r="Z30" s="45"/>
+      <c r="AA30" s="42"/>
+      <c r="AB30" s="42"/>
+      <c r="AC30" s="42"/>
+      <c r="AD30" s="42"/>
+      <c r="AE30" s="42"/>
+      <c r="AF30" s="42"/>
+      <c r="AG30" s="45"/>
+      <c r="AH30" s="42"/>
+      <c r="AI30" s="42"/>
+      <c r="AJ30" s="42"/>
+      <c r="AK30" s="42"/>
+      <c r="AL30" s="42"/>
+      <c r="AM30" s="42"/>
+      <c r="AN30" s="45"/>
+      <c r="AO30" s="49"/>
+      <c r="AP30" s="49"/>
+      <c r="AQ30" s="49"/>
+      <c r="AR30" s="49"/>
+      <c r="AS30" s="49"/>
+      <c r="AT30" s="49"/>
+      <c r="AU30" s="45"/>
+      <c r="AV30" s="49"/>
+      <c r="AW30" s="49"/>
+      <c r="AX30" s="49"/>
+      <c r="AY30" s="49"/>
+      <c r="AZ30" s="49"/>
+      <c r="BA30" s="49"/>
+      <c r="BB30" s="45"/>
+      <c r="BC30" s="49"/>
+      <c r="BD30" s="49"/>
+      <c r="BE30" s="49"/>
+      <c r="BF30" s="49"/>
+      <c r="BG30" s="49"/>
+      <c r="BH30" s="49"/>
+      <c r="BI30" s="45"/>
+      <c r="BJ30" s="49"/>
+      <c r="BK30" s="49"/>
+      <c r="BL30" s="49"/>
+      <c r="BM30" s="49"/>
+    </row>
+    <row r="31" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="E30" s="52"/>
-      <c r="F30" s="47"/>
-      <c r="G30" s="47"/>
-      <c r="H30" s="47"/>
-      <c r="I30" s="47"/>
-      <c r="J30" s="47"/>
-      <c r="K30" s="47"/>
-      <c r="L30" s="50"/>
-      <c r="M30" s="47"/>
-      <c r="N30" s="47"/>
-      <c r="O30" s="47"/>
-      <c r="P30" s="47"/>
-      <c r="Q30" s="47"/>
-      <c r="R30" s="47"/>
-      <c r="S30" s="50"/>
-      <c r="T30" s="47"/>
-      <c r="U30" s="47"/>
-      <c r="V30" s="47"/>
-      <c r="W30" s="47"/>
-      <c r="X30" s="47"/>
-      <c r="Y30" s="47"/>
-      <c r="Z30" s="50"/>
-      <c r="AA30" s="47"/>
-      <c r="AB30" s="47"/>
-      <c r="AC30" s="47"/>
-      <c r="AD30" s="47"/>
-      <c r="AE30" s="47"/>
-      <c r="AF30" s="47"/>
-      <c r="AG30" s="50"/>
-      <c r="AH30" s="47"/>
-      <c r="AI30" s="47"/>
-      <c r="AJ30" s="47"/>
-      <c r="AK30" s="47"/>
-      <c r="AL30" s="47"/>
-      <c r="AM30" s="47"/>
-      <c r="AN30" s="50"/>
-      <c r="AO30" s="54"/>
-      <c r="AP30" s="54"/>
-      <c r="AQ30" s="54"/>
-      <c r="AR30" s="54"/>
-      <c r="AS30" s="54"/>
-      <c r="AT30" s="54"/>
-      <c r="AU30" s="50"/>
-      <c r="AV30" s="54"/>
-      <c r="AW30" s="54"/>
-      <c r="AX30" s="54"/>
-      <c r="AY30" s="54"/>
-      <c r="AZ30" s="54"/>
-      <c r="BA30" s="54"/>
-      <c r="BB30" s="50"/>
-      <c r="BC30" s="54"/>
-      <c r="BD30" s="54"/>
-      <c r="BE30" s="54"/>
-      <c r="BF30" s="54"/>
-      <c r="BG30" s="54"/>
-      <c r="BH30" s="54"/>
-      <c r="BI30" s="50"/>
-      <c r="BJ30" s="54"/>
-      <c r="BK30" s="54"/>
-      <c r="BL30" s="54"/>
-      <c r="BM30" s="54"/>
-    </row>
-    <row r="31" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="5" t="s">
-        <v>92</v>
+      <c r="B31" s="4" t="s">
+        <v>94</v>
       </c>
-      <c r="B31" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="C31" s="36">
+      <c r="C31" s="31">
         <f>D29</f>
         <v>44706</v>
       </c>
-      <c r="D31" s="36">
+      <c r="D31" s="31">
         <v>44708</v>
       </c>
-      <c r="E31" s="32">
+      <c r="E31" s="27">
         <v>3</v>
       </c>
-      <c r="F31" s="49"/>
-      <c r="G31" s="49"/>
-      <c r="H31" s="49"/>
-      <c r="I31" s="49"/>
-      <c r="J31" s="49"/>
-      <c r="K31" s="49"/>
-      <c r="L31" s="50"/>
-      <c r="M31" s="49"/>
-      <c r="N31" s="49"/>
-      <c r="O31" s="49"/>
-      <c r="P31" s="49"/>
-      <c r="Q31" s="49"/>
-      <c r="R31" s="49"/>
-      <c r="S31" s="50"/>
-      <c r="T31" s="49"/>
-      <c r="U31" s="49"/>
-      <c r="V31" s="49"/>
-      <c r="W31" s="49"/>
-      <c r="X31" s="49"/>
-      <c r="Y31" s="49"/>
-      <c r="Z31" s="50"/>
-      <c r="AA31" s="49"/>
-      <c r="AB31" s="49"/>
-      <c r="AC31" s="49"/>
-      <c r="AD31" s="49"/>
-      <c r="AE31" s="49"/>
-      <c r="AF31" s="49"/>
-      <c r="AG31" s="50"/>
-      <c r="AH31" s="55"/>
-      <c r="AI31" s="55"/>
-      <c r="AJ31" s="55"/>
-      <c r="AK31" s="55"/>
-      <c r="AL31" s="55"/>
-      <c r="AM31" s="55"/>
-      <c r="AN31" s="50"/>
-      <c r="AO31" s="51"/>
-      <c r="AP31" s="51"/>
-      <c r="AQ31" s="51"/>
-      <c r="AR31" s="51"/>
-      <c r="AS31" s="51"/>
-      <c r="AT31" s="51"/>
-      <c r="AU31" s="50"/>
-      <c r="AV31" s="51"/>
-      <c r="AW31" s="51"/>
-      <c r="AX31" s="58"/>
-      <c r="AY31" s="58"/>
-      <c r="AZ31" s="58"/>
-      <c r="BA31" s="51"/>
-      <c r="BB31" s="50"/>
-      <c r="BC31" s="51"/>
-      <c r="BD31" s="51"/>
-      <c r="BE31" s="51"/>
-      <c r="BF31" s="51"/>
-      <c r="BG31" s="51"/>
-      <c r="BH31" s="51"/>
-      <c r="BI31" s="50"/>
-      <c r="BJ31" s="51"/>
-      <c r="BK31" s="51"/>
-      <c r="BL31" s="51"/>
-      <c r="BM31" s="51"/>
+      <c r="F31" s="44"/>
+      <c r="G31" s="44"/>
+      <c r="H31" s="44"/>
+      <c r="I31" s="44"/>
+      <c r="J31" s="44"/>
+      <c r="K31" s="44"/>
+      <c r="L31" s="45"/>
+      <c r="M31" s="44"/>
+      <c r="N31" s="44"/>
+      <c r="O31" s="44"/>
+      <c r="P31" s="44"/>
+      <c r="Q31" s="44"/>
+      <c r="R31" s="44"/>
+      <c r="S31" s="45"/>
+      <c r="T31" s="44"/>
+      <c r="U31" s="44"/>
+      <c r="V31" s="44"/>
+      <c r="W31" s="44"/>
+      <c r="X31" s="44"/>
+      <c r="Y31" s="44"/>
+      <c r="Z31" s="45"/>
+      <c r="AA31" s="44"/>
+      <c r="AB31" s="44"/>
+      <c r="AC31" s="44"/>
+      <c r="AD31" s="44"/>
+      <c r="AE31" s="44"/>
+      <c r="AF31" s="44"/>
+      <c r="AG31" s="45"/>
+      <c r="AH31" s="50"/>
+      <c r="AI31" s="50"/>
+      <c r="AJ31" s="50"/>
+      <c r="AK31" s="50"/>
+      <c r="AL31" s="50"/>
+      <c r="AM31" s="50"/>
+      <c r="AN31" s="45"/>
+      <c r="AO31" s="46"/>
+      <c r="AP31" s="46"/>
+      <c r="AQ31" s="46"/>
+      <c r="AR31" s="46"/>
+      <c r="AS31" s="46"/>
+      <c r="AT31" s="46"/>
+      <c r="AU31" s="45"/>
+      <c r="AV31" s="46"/>
+      <c r="AW31" s="46"/>
+      <c r="AX31" s="53"/>
+      <c r="AY31" s="53"/>
+      <c r="AZ31" s="53"/>
+      <c r="BA31" s="46"/>
+      <c r="BB31" s="45"/>
+      <c r="BC31" s="46"/>
+      <c r="BD31" s="46"/>
+      <c r="BE31" s="46"/>
+      <c r="BF31" s="46"/>
+      <c r="BG31" s="46"/>
+      <c r="BH31" s="46"/>
+      <c r="BI31" s="45"/>
+      <c r="BJ31" s="46"/>
+      <c r="BK31" s="46"/>
+      <c r="BL31" s="46"/>
+      <c r="BM31" s="46"/>
     </row>
     <row r="32" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
-      <c r="C32" s="36">
+      <c r="C32" s="31">
         <f t="shared" si="0"/>
         <v>44708</v>
       </c>
-      <c r="D32" s="36">
+      <c r="D32" s="31">
         <v>44711</v>
       </c>
-      <c r="E32" s="32">
+      <c r="E32" s="27">
         <v>3</v>
       </c>
-      <c r="F32" s="49"/>
-      <c r="G32" s="49"/>
-      <c r="H32" s="49"/>
-      <c r="I32" s="49"/>
-      <c r="J32" s="49"/>
-      <c r="K32" s="49"/>
-      <c r="L32" s="50"/>
-      <c r="M32" s="49"/>
-      <c r="N32" s="49"/>
-      <c r="O32" s="49"/>
-      <c r="P32" s="49"/>
-      <c r="Q32" s="49"/>
-      <c r="R32" s="49"/>
-      <c r="S32" s="50"/>
-      <c r="T32" s="49"/>
-      <c r="U32" s="49"/>
-      <c r="V32" s="49"/>
-      <c r="W32" s="49"/>
-      <c r="X32" s="49"/>
-      <c r="Y32" s="49"/>
-      <c r="Z32" s="50"/>
-      <c r="AA32" s="49"/>
-      <c r="AB32" s="49"/>
-      <c r="AC32" s="49"/>
-      <c r="AD32" s="49"/>
-      <c r="AE32" s="49"/>
-      <c r="AF32" s="49"/>
-      <c r="AG32" s="50"/>
-      <c r="AH32" s="55"/>
-      <c r="AI32" s="55"/>
-      <c r="AJ32" s="55"/>
-      <c r="AK32" s="55"/>
-      <c r="AL32" s="55"/>
-      <c r="AM32" s="55"/>
-      <c r="AN32" s="50"/>
-      <c r="AO32" s="51"/>
-      <c r="AP32" s="51"/>
-      <c r="AQ32" s="51"/>
-      <c r="AR32" s="51"/>
-      <c r="AS32" s="51"/>
-      <c r="AT32" s="51"/>
-      <c r="AU32" s="50"/>
-      <c r="AV32" s="51"/>
-      <c r="AW32" s="51"/>
-      <c r="AX32" s="51"/>
-      <c r="AY32" s="51"/>
-      <c r="AZ32" s="58"/>
-      <c r="BA32" s="58"/>
-      <c r="BB32" s="50"/>
-      <c r="BC32" s="58"/>
-      <c r="BD32" s="51"/>
-      <c r="BE32" s="51"/>
-      <c r="BF32" s="51"/>
-      <c r="BG32" s="51"/>
-      <c r="BH32" s="51"/>
-      <c r="BI32" s="50"/>
-      <c r="BJ32" s="51"/>
-      <c r="BK32" s="51"/>
-      <c r="BL32" s="51"/>
-      <c r="BM32" s="51"/>
+      <c r="F32" s="44"/>
+      <c r="G32" s="44"/>
+      <c r="H32" s="44"/>
+      <c r="I32" s="44"/>
+      <c r="J32" s="44"/>
+      <c r="K32" s="44"/>
+      <c r="L32" s="45"/>
+      <c r="M32" s="44"/>
+      <c r="N32" s="44"/>
+      <c r="O32" s="44"/>
+      <c r="P32" s="44"/>
+      <c r="Q32" s="44"/>
+      <c r="R32" s="44"/>
+      <c r="S32" s="45"/>
+      <c r="T32" s="44"/>
+      <c r="U32" s="44"/>
+      <c r="V32" s="44"/>
+      <c r="W32" s="44"/>
+      <c r="X32" s="44"/>
+      <c r="Y32" s="44"/>
+      <c r="Z32" s="45"/>
+      <c r="AA32" s="44"/>
+      <c r="AB32" s="44"/>
+      <c r="AC32" s="44"/>
+      <c r="AD32" s="44"/>
+      <c r="AE32" s="44"/>
+      <c r="AF32" s="44"/>
+      <c r="AG32" s="45"/>
+      <c r="AH32" s="50"/>
+      <c r="AI32" s="50"/>
+      <c r="AJ32" s="50"/>
+      <c r="AK32" s="50"/>
+      <c r="AL32" s="50"/>
+      <c r="AM32" s="50"/>
+      <c r="AN32" s="45"/>
+      <c r="AO32" s="46"/>
+      <c r="AP32" s="46"/>
+      <c r="AQ32" s="46"/>
+      <c r="AR32" s="46"/>
+      <c r="AS32" s="46"/>
+      <c r="AT32" s="46"/>
+      <c r="AU32" s="45"/>
+      <c r="AV32" s="46"/>
+      <c r="AW32" s="46"/>
+      <c r="AX32" s="46"/>
+      <c r="AY32" s="46"/>
+      <c r="AZ32" s="53"/>
+      <c r="BA32" s="53"/>
+      <c r="BB32" s="45"/>
+      <c r="BC32" s="53"/>
+      <c r="BD32" s="46"/>
+      <c r="BE32" s="46"/>
+      <c r="BF32" s="46"/>
+      <c r="BG32" s="46"/>
+      <c r="BH32" s="46"/>
+      <c r="BI32" s="45"/>
+      <c r="BJ32" s="46"/>
+      <c r="BK32" s="46"/>
+      <c r="BL32" s="46"/>
+      <c r="BM32" s="46"/>
     </row>
     <row r="33" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="B33" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="B33" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="C33" s="36">
+      <c r="C33" s="31">
         <f t="shared" si="0"/>
         <v>44711</v>
       </c>
-      <c r="D33" s="36">
+      <c r="D33" s="31">
         <v>44713</v>
       </c>
-      <c r="E33" s="32">
+      <c r="E33" s="27">
         <v>3</v>
       </c>
-      <c r="F33" s="49"/>
-      <c r="G33" s="49"/>
-      <c r="H33" s="49"/>
-      <c r="I33" s="49"/>
-      <c r="J33" s="49"/>
-      <c r="K33" s="49"/>
-      <c r="L33" s="50"/>
-      <c r="M33" s="49"/>
-      <c r="N33" s="49"/>
-      <c r="O33" s="49"/>
-      <c r="P33" s="49"/>
-      <c r="Q33" s="49"/>
-      <c r="R33" s="49"/>
-      <c r="S33" s="50"/>
-      <c r="T33" s="49"/>
-      <c r="U33" s="49"/>
-      <c r="V33" s="49"/>
-      <c r="W33" s="49"/>
-      <c r="X33" s="49"/>
-      <c r="Y33" s="49"/>
-      <c r="Z33" s="50"/>
-      <c r="AA33" s="49"/>
-      <c r="AB33" s="49"/>
-      <c r="AC33" s="49"/>
-      <c r="AD33" s="49"/>
-      <c r="AE33" s="49"/>
-      <c r="AF33" s="49"/>
-      <c r="AG33" s="50"/>
-      <c r="AH33" s="55"/>
-      <c r="AI33" s="55"/>
-      <c r="AJ33" s="55"/>
-      <c r="AK33" s="55"/>
-      <c r="AL33" s="55"/>
-      <c r="AM33" s="55"/>
-      <c r="AN33" s="50"/>
-      <c r="AO33" s="51"/>
-      <c r="AP33" s="51"/>
-      <c r="AQ33" s="51"/>
-      <c r="AR33" s="51"/>
-      <c r="AS33" s="51"/>
-      <c r="AT33" s="51"/>
-      <c r="AU33" s="50"/>
-      <c r="AV33" s="51"/>
-      <c r="AW33" s="51"/>
-      <c r="AX33" s="51"/>
-      <c r="AY33" s="51"/>
-      <c r="AZ33" s="51"/>
-      <c r="BA33" s="51"/>
-      <c r="BB33" s="50"/>
-      <c r="BC33" s="58"/>
-      <c r="BD33" s="58"/>
-      <c r="BE33" s="58"/>
-      <c r="BF33" s="51"/>
-      <c r="BG33" s="51"/>
-      <c r="BH33" s="51"/>
-      <c r="BI33" s="50"/>
-      <c r="BJ33" s="51"/>
-      <c r="BK33" s="51"/>
-      <c r="BL33" s="51"/>
-      <c r="BM33" s="51"/>
+      <c r="F33" s="44"/>
+      <c r="G33" s="44"/>
+      <c r="H33" s="44"/>
+      <c r="I33" s="44"/>
+      <c r="J33" s="44"/>
+      <c r="K33" s="44"/>
+      <c r="L33" s="45"/>
+      <c r="M33" s="44"/>
+      <c r="N33" s="44"/>
+      <c r="O33" s="44"/>
+      <c r="P33" s="44"/>
+      <c r="Q33" s="44"/>
+      <c r="R33" s="44"/>
+      <c r="S33" s="45"/>
+      <c r="T33" s="44"/>
+      <c r="U33" s="44"/>
+      <c r="V33" s="44"/>
+      <c r="W33" s="44"/>
+      <c r="X33" s="44"/>
+      <c r="Y33" s="44"/>
+      <c r="Z33" s="45"/>
+      <c r="AA33" s="44"/>
+      <c r="AB33" s="44"/>
+      <c r="AC33" s="44"/>
+      <c r="AD33" s="44"/>
+      <c r="AE33" s="44"/>
+      <c r="AF33" s="44"/>
+      <c r="AG33" s="45"/>
+      <c r="AH33" s="50"/>
+      <c r="AI33" s="50"/>
+      <c r="AJ33" s="50"/>
+      <c r="AK33" s="50"/>
+      <c r="AL33" s="50"/>
+      <c r="AM33" s="50"/>
+      <c r="AN33" s="45"/>
+      <c r="AO33" s="46"/>
+      <c r="AP33" s="46"/>
+      <c r="AQ33" s="46"/>
+      <c r="AR33" s="46"/>
+      <c r="AS33" s="46"/>
+      <c r="AT33" s="46"/>
+      <c r="AU33" s="45"/>
+      <c r="AV33" s="46"/>
+      <c r="AW33" s="46"/>
+      <c r="AX33" s="46"/>
+      <c r="AY33" s="46"/>
+      <c r="AZ33" s="46"/>
+      <c r="BA33" s="46"/>
+      <c r="BB33" s="45"/>
+      <c r="BC33" s="53"/>
+      <c r="BD33" s="53"/>
+      <c r="BE33" s="53"/>
+      <c r="BF33" s="46"/>
+      <c r="BG33" s="46"/>
+      <c r="BH33" s="46"/>
+      <c r="BI33" s="45"/>
+      <c r="BJ33" s="46"/>
+      <c r="BK33" s="46"/>
+      <c r="BL33" s="46"/>
+      <c r="BM33" s="46"/>
     </row>
     <row r="34" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="B34" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="B34" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="C34" s="36">
+      <c r="C34" s="31">
         <f t="shared" si="0"/>
         <v>44713</v>
       </c>
-      <c r="D34" s="36">
+      <c r="D34" s="31">
         <v>44715</v>
       </c>
-      <c r="E34" s="32">
+      <c r="E34" s="27">
         <v>3</v>
       </c>
-      <c r="F34" s="49"/>
-      <c r="G34" s="49"/>
-      <c r="H34" s="49"/>
-      <c r="I34" s="49"/>
-      <c r="J34" s="49"/>
-      <c r="K34" s="49"/>
-      <c r="L34" s="50"/>
-      <c r="M34" s="49"/>
-      <c r="N34" s="49"/>
-      <c r="O34" s="49"/>
-      <c r="P34" s="49"/>
-      <c r="Q34" s="49"/>
-      <c r="R34" s="49"/>
-      <c r="S34" s="50"/>
-      <c r="T34" s="49"/>
-      <c r="U34" s="49"/>
-      <c r="V34" s="49"/>
-      <c r="W34" s="49"/>
-      <c r="X34" s="49"/>
-      <c r="Y34" s="49"/>
-      <c r="Z34" s="50"/>
-      <c r="AA34" s="49"/>
-      <c r="AB34" s="49"/>
-      <c r="AC34" s="49"/>
-      <c r="AD34" s="49"/>
-      <c r="AE34" s="49"/>
-      <c r="AF34" s="49"/>
-      <c r="AG34" s="50"/>
-      <c r="AH34" s="55"/>
-      <c r="AI34" s="55"/>
-      <c r="AJ34" s="55"/>
-      <c r="AK34" s="55"/>
-      <c r="AL34" s="55"/>
-      <c r="AM34" s="55"/>
-      <c r="AN34" s="50"/>
-      <c r="AO34" s="51"/>
-      <c r="AP34" s="51"/>
-      <c r="AQ34" s="51"/>
-      <c r="AR34" s="51"/>
-      <c r="AS34" s="51"/>
-      <c r="AT34" s="51"/>
-      <c r="AU34" s="50"/>
-      <c r="AV34" s="51"/>
-      <c r="AW34" s="51"/>
-      <c r="AX34" s="51"/>
-      <c r="AY34" s="51"/>
-      <c r="AZ34" s="51"/>
-      <c r="BA34" s="51"/>
-      <c r="BB34" s="50"/>
-      <c r="BC34" s="51"/>
-      <c r="BD34" s="51"/>
-      <c r="BE34" s="58"/>
-      <c r="BF34" s="58"/>
-      <c r="BG34" s="58"/>
-      <c r="BH34" s="51"/>
-      <c r="BI34" s="50"/>
-      <c r="BJ34" s="51"/>
-      <c r="BK34" s="51"/>
-      <c r="BL34" s="51"/>
-      <c r="BM34" s="51"/>
+      <c r="F34" s="44"/>
+      <c r="G34" s="44"/>
+      <c r="H34" s="44"/>
+      <c r="I34" s="44"/>
+      <c r="J34" s="44"/>
+      <c r="K34" s="44"/>
+      <c r="L34" s="45"/>
+      <c r="M34" s="44"/>
+      <c r="N34" s="44"/>
+      <c r="O34" s="44"/>
+      <c r="P34" s="44"/>
+      <c r="Q34" s="44"/>
+      <c r="R34" s="44"/>
+      <c r="S34" s="45"/>
+      <c r="T34" s="44"/>
+      <c r="U34" s="44"/>
+      <c r="V34" s="44"/>
+      <c r="W34" s="44"/>
+      <c r="X34" s="44"/>
+      <c r="Y34" s="44"/>
+      <c r="Z34" s="45"/>
+      <c r="AA34" s="44"/>
+      <c r="AB34" s="44"/>
+      <c r="AC34" s="44"/>
+      <c r="AD34" s="44"/>
+      <c r="AE34" s="44"/>
+      <c r="AF34" s="44"/>
+      <c r="AG34" s="45"/>
+      <c r="AH34" s="50"/>
+      <c r="AI34" s="50"/>
+      <c r="AJ34" s="50"/>
+      <c r="AK34" s="50"/>
+      <c r="AL34" s="50"/>
+      <c r="AM34" s="50"/>
+      <c r="AN34" s="45"/>
+      <c r="AO34" s="46"/>
+      <c r="AP34" s="46"/>
+      <c r="AQ34" s="46"/>
+      <c r="AR34" s="46"/>
+      <c r="AS34" s="46"/>
+      <c r="AT34" s="46"/>
+      <c r="AU34" s="45"/>
+      <c r="AV34" s="46"/>
+      <c r="AW34" s="46"/>
+      <c r="AX34" s="46"/>
+      <c r="AY34" s="46"/>
+      <c r="AZ34" s="46"/>
+      <c r="BA34" s="46"/>
+      <c r="BB34" s="45"/>
+      <c r="BC34" s="46"/>
+      <c r="BD34" s="46"/>
+      <c r="BE34" s="53"/>
+      <c r="BF34" s="53"/>
+      <c r="BG34" s="53"/>
+      <c r="BH34" s="46"/>
+      <c r="BI34" s="45"/>
+      <c r="BJ34" s="46"/>
+      <c r="BK34" s="46"/>
+      <c r="BL34" s="46"/>
+      <c r="BM34" s="46"/>
     </row>
     <row r="35" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="B35" s="55" t="s">
         <v>100</v>
       </c>
-      <c r="B35" s="60" t="s">
-        <v>101</v>
-      </c>
-      <c r="C35" s="61">
+      <c r="C35" s="56">
         <f t="shared" si="0"/>
         <v>44715</v>
       </c>
-      <c r="D35" s="36">
+      <c r="D35" s="31">
         <v>44718</v>
       </c>
-      <c r="E35" s="62">
+      <c r="E35" s="57">
         <v>3</v>
       </c>
-      <c r="F35" s="63"/>
-      <c r="G35" s="63"/>
-      <c r="H35" s="63"/>
-      <c r="I35" s="63"/>
-      <c r="J35" s="63"/>
-      <c r="K35" s="63"/>
-      <c r="L35" s="64"/>
-      <c r="M35" s="63"/>
-      <c r="N35" s="63"/>
-      <c r="O35" s="63"/>
-      <c r="P35" s="63"/>
-      <c r="Q35" s="63"/>
-      <c r="R35" s="63"/>
-      <c r="S35" s="64"/>
-      <c r="T35" s="63"/>
-      <c r="U35" s="63"/>
-      <c r="V35" s="63"/>
-      <c r="W35" s="63"/>
-      <c r="X35" s="63"/>
-      <c r="Y35" s="63"/>
-      <c r="Z35" s="64"/>
-      <c r="AA35" s="63"/>
-      <c r="AB35" s="63"/>
-      <c r="AC35" s="63"/>
-      <c r="AD35" s="63"/>
-      <c r="AE35" s="63"/>
-      <c r="AF35" s="63"/>
-      <c r="AG35" s="64"/>
-      <c r="AH35" s="65"/>
-      <c r="AI35" s="65"/>
-      <c r="AJ35" s="65"/>
-      <c r="AK35" s="65"/>
-      <c r="AL35" s="65"/>
-      <c r="AM35" s="65"/>
-      <c r="AN35" s="64"/>
-      <c r="AO35" s="66"/>
-      <c r="AP35" s="66"/>
-      <c r="AQ35" s="66"/>
-      <c r="AR35" s="66"/>
-      <c r="AS35" s="66"/>
-      <c r="AT35" s="66"/>
-      <c r="AU35" s="64"/>
-      <c r="AV35" s="66"/>
-      <c r="AW35" s="66"/>
-      <c r="AX35" s="66"/>
-      <c r="AY35" s="66"/>
-      <c r="AZ35" s="66"/>
-      <c r="BA35" s="66"/>
-      <c r="BB35" s="64"/>
-      <c r="BC35" s="66"/>
-      <c r="BD35" s="51"/>
-      <c r="BE35" s="51"/>
-      <c r="BF35" s="51"/>
-      <c r="BG35" s="67"/>
-      <c r="BH35" s="58"/>
-      <c r="BI35" s="64"/>
-      <c r="BJ35" s="58"/>
-      <c r="BK35" s="66"/>
-      <c r="BL35" s="66"/>
-      <c r="BM35" s="66"/>
-    </row>
-    <row r="36" spans="1:65" s="72" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="68"/>
-      <c r="B36" s="69"/>
-      <c r="C36" s="70"/>
-      <c r="D36" s="70"/>
-      <c r="E36" s="69"/>
-      <c r="F36" s="68"/>
-      <c r="G36" s="68"/>
-      <c r="H36" s="68"/>
-      <c r="I36" s="68"/>
-      <c r="J36" s="68"/>
-      <c r="K36" s="68"/>
-      <c r="L36" s="71"/>
-      <c r="M36" s="68"/>
-      <c r="N36" s="68"/>
-      <c r="O36" s="68"/>
-      <c r="P36" s="68"/>
-      <c r="Q36" s="68"/>
-      <c r="R36" s="68"/>
-      <c r="S36" s="71"/>
-      <c r="T36" s="68"/>
-      <c r="U36" s="68"/>
-      <c r="V36" s="68"/>
-      <c r="W36" s="68"/>
-      <c r="X36" s="68"/>
-      <c r="Y36" s="71"/>
-      <c r="Z36" s="71"/>
-      <c r="AA36" s="71"/>
-      <c r="AB36" s="71"/>
-      <c r="AC36" s="71"/>
-      <c r="AD36" s="71"/>
-      <c r="AE36" s="71"/>
-      <c r="AF36" s="71"/>
-      <c r="AG36" s="71"/>
-      <c r="AH36" s="71"/>
-      <c r="AI36" s="71"/>
-      <c r="AJ36" s="71"/>
-      <c r="AK36" s="71"/>
-      <c r="AL36" s="71"/>
-      <c r="AM36" s="71"/>
-      <c r="AN36" s="71"/>
-      <c r="AO36" s="71"/>
-      <c r="AP36" s="71"/>
-      <c r="AQ36" s="71"/>
-      <c r="AR36" s="71"/>
-      <c r="AS36" s="71"/>
-      <c r="AT36" s="71"/>
-      <c r="AU36" s="71"/>
-      <c r="AV36" s="71"/>
-      <c r="AW36" s="71"/>
-      <c r="AX36" s="71"/>
-      <c r="AY36" s="71"/>
-      <c r="AZ36" s="71"/>
-      <c r="BA36" s="71"/>
-      <c r="BB36" s="71"/>
-      <c r="BC36" s="71"/>
-      <c r="BD36" s="71"/>
-      <c r="BE36" s="71"/>
-      <c r="BF36" s="71"/>
-      <c r="BG36" s="71"/>
-      <c r="BH36" s="71"/>
-      <c r="BI36" s="71"/>
-      <c r="BJ36" s="71"/>
-      <c r="BK36" s="71"/>
-      <c r="BL36" s="71"/>
-      <c r="BM36" s="71"/>
+      <c r="F35" s="58"/>
+      <c r="G35" s="58"/>
+      <c r="H35" s="58"/>
+      <c r="I35" s="58"/>
+      <c r="J35" s="58"/>
+      <c r="K35" s="58"/>
+      <c r="L35" s="59"/>
+      <c r="M35" s="58"/>
+      <c r="N35" s="58"/>
+      <c r="O35" s="58"/>
+      <c r="P35" s="58"/>
+      <c r="Q35" s="58"/>
+      <c r="R35" s="58"/>
+      <c r="S35" s="59"/>
+      <c r="T35" s="58"/>
+      <c r="U35" s="58"/>
+      <c r="V35" s="58"/>
+      <c r="W35" s="58"/>
+      <c r="X35" s="58"/>
+      <c r="Y35" s="58"/>
+      <c r="Z35" s="59"/>
+      <c r="AA35" s="58"/>
+      <c r="AB35" s="58"/>
+      <c r="AC35" s="58"/>
+      <c r="AD35" s="58"/>
+      <c r="AE35" s="58"/>
+      <c r="AF35" s="58"/>
+      <c r="AG35" s="59"/>
+      <c r="AH35" s="60"/>
+      <c r="AI35" s="60"/>
+      <c r="AJ35" s="60"/>
+      <c r="AK35" s="60"/>
+      <c r="AL35" s="60"/>
+      <c r="AM35" s="60"/>
+      <c r="AN35" s="59"/>
+      <c r="AO35" s="61"/>
+      <c r="AP35" s="61"/>
+      <c r="AQ35" s="61"/>
+      <c r="AR35" s="61"/>
+      <c r="AS35" s="61"/>
+      <c r="AT35" s="61"/>
+      <c r="AU35" s="59"/>
+      <c r="AV35" s="61"/>
+      <c r="AW35" s="61"/>
+      <c r="AX35" s="61"/>
+      <c r="AY35" s="61"/>
+      <c r="AZ35" s="61"/>
+      <c r="BA35" s="61"/>
+      <c r="BB35" s="59"/>
+      <c r="BC35" s="61"/>
+      <c r="BD35" s="46"/>
+      <c r="BE35" s="46"/>
+      <c r="BF35" s="46"/>
+      <c r="BG35" s="62"/>
+      <c r="BH35" s="53"/>
+      <c r="BI35" s="59"/>
+      <c r="BJ35" s="53"/>
+      <c r="BK35" s="61"/>
+      <c r="BL35" s="61"/>
+      <c r="BM35" s="61"/>
+    </row>
+    <row r="36" spans="1:65" s="67" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="63"/>
+      <c r="B36" s="64"/>
+      <c r="C36" s="65"/>
+      <c r="D36" s="65"/>
+      <c r="E36" s="64"/>
+      <c r="F36" s="63"/>
+      <c r="G36" s="63"/>
+      <c r="H36" s="63"/>
+      <c r="I36" s="63"/>
+      <c r="J36" s="63"/>
+      <c r="K36" s="63"/>
+      <c r="L36" s="66"/>
+      <c r="M36" s="63"/>
+      <c r="N36" s="63"/>
+      <c r="O36" s="63"/>
+      <c r="P36" s="63"/>
+      <c r="Q36" s="63"/>
+      <c r="R36" s="63"/>
+      <c r="S36" s="66"/>
+      <c r="T36" s="63"/>
+      <c r="U36" s="63"/>
+      <c r="V36" s="63"/>
+      <c r="W36" s="63"/>
+      <c r="X36" s="63"/>
+      <c r="Y36" s="66"/>
+      <c r="Z36" s="66"/>
+      <c r="AA36" s="66"/>
+      <c r="AB36" s="66"/>
+      <c r="AC36" s="66"/>
+      <c r="AD36" s="66"/>
+      <c r="AE36" s="66"/>
+      <c r="AF36" s="66"/>
+      <c r="AG36" s="66"/>
+      <c r="AH36" s="66"/>
+      <c r="AI36" s="66"/>
+      <c r="AJ36" s="66"/>
+      <c r="AK36" s="66"/>
+      <c r="AL36" s="66"/>
+      <c r="AM36" s="66"/>
+      <c r="AN36" s="66"/>
+      <c r="AO36" s="66"/>
+      <c r="AP36" s="66"/>
+      <c r="AQ36" s="66"/>
+      <c r="AR36" s="66"/>
+      <c r="AS36" s="66"/>
+      <c r="AT36" s="66"/>
+      <c r="AU36" s="66"/>
+      <c r="AV36" s="66"/>
+      <c r="AW36" s="66"/>
+      <c r="AX36" s="66"/>
+      <c r="AY36" s="66"/>
+      <c r="AZ36" s="66"/>
+      <c r="BA36" s="66"/>
+      <c r="BB36" s="66"/>
+      <c r="BC36" s="66"/>
+      <c r="BD36" s="66"/>
+      <c r="BE36" s="66"/>
+      <c r="BF36" s="66"/>
+      <c r="BG36" s="66"/>
+      <c r="BH36" s="66"/>
+      <c r="BI36" s="66"/>
+      <c r="BJ36" s="66"/>
+      <c r="BK36" s="66"/>
+      <c r="BL36" s="66"/>
+      <c r="BM36" s="66"/>
     </row>
     <row r="37" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C37" s="37"/>
+      <c r="C37" s="32"/>
       <c r="F37" s="2"/>
       <c r="G37" s="2"/>
       <c r="H37" s="2"/>
@@ -6349,7 +6376,7 @@
       <c r="AM37" s="2"/>
     </row>
     <row r="38" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C38" s="37"/>
+      <c r="C38" s="32"/>
       <c r="F38" s="2"/>
       <c r="G38" s="2"/>
       <c r="H38" s="2"/>
@@ -6386,7 +6413,7 @@
       <c r="AM38" s="2"/>
     </row>
     <row r="39" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C39" s="37"/>
+      <c r="C39" s="32"/>
       <c r="F39" s="2"/>
       <c r="G39" s="2"/>
       <c r="H39" s="2"/>
@@ -6423,8 +6450,8 @@
       <c r="AM39" s="2"/>
     </row>
     <row r="40" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C40" s="37"/>
-      <c r="D40" s="37"/>
+      <c r="C40" s="32"/>
+      <c r="D40" s="32"/>
       <c r="F40" s="2"/>
       <c r="G40" s="2"/>
       <c r="H40" s="2"/>
@@ -6461,8 +6488,8 @@
       <c r="AM40" s="2"/>
     </row>
     <row r="41" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C41" s="37"/>
-      <c r="D41" s="37"/>
+      <c r="C41" s="32"/>
+      <c r="D41" s="32"/>
       <c r="F41" s="2"/>
       <c r="G41" s="2"/>
       <c r="H41" s="2"/>
@@ -6499,8 +6526,8 @@
       <c r="AM41" s="2"/>
     </row>
     <row r="42" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C42" s="37"/>
-      <c r="D42" s="37"/>
+      <c r="C42" s="32"/>
+      <c r="D42" s="32"/>
       <c r="F42" s="2"/>
       <c r="G42" s="2"/>
       <c r="H42" s="2"/>
@@ -6537,8 +6564,8 @@
       <c r="AM42" s="2"/>
     </row>
     <row r="43" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C43" s="37"/>
-      <c r="D43" s="37"/>
+      <c r="C43" s="32"/>
+      <c r="D43" s="32"/>
       <c r="F43" s="2"/>
       <c r="G43" s="2"/>
       <c r="H43" s="2"/>
@@ -6575,8 +6602,8 @@
       <c r="AM43" s="2"/>
     </row>
     <row r="44" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C44" s="37"/>
-      <c r="D44" s="37"/>
+      <c r="C44" s="32"/>
+      <c r="D44" s="32"/>
       <c r="F44" s="2"/>
       <c r="G44" s="2"/>
       <c r="H44" s="2"/>
@@ -6613,8 +6640,8 @@
       <c r="AM44" s="2"/>
     </row>
     <row r="45" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C45" s="37"/>
-      <c r="D45" s="37"/>
+      <c r="C45" s="32"/>
+      <c r="D45" s="32"/>
       <c r="F45" s="2"/>
       <c r="G45" s="2"/>
       <c r="H45" s="2"/>
@@ -6651,8 +6678,8 @@
       <c r="AM45" s="2"/>
     </row>
     <row r="46" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C46" s="37"/>
-      <c r="D46" s="37"/>
+      <c r="C46" s="32"/>
+      <c r="D46" s="32"/>
       <c r="F46" s="2"/>
       <c r="G46" s="2"/>
       <c r="H46" s="2"/>
@@ -6689,8 +6716,8 @@
       <c r="AM46" s="2"/>
     </row>
     <row r="47" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C47" s="37"/>
-      <c r="D47" s="37"/>
+      <c r="C47" s="32"/>
+      <c r="D47" s="32"/>
       <c r="F47" s="2"/>
       <c r="G47" s="2"/>
       <c r="H47" s="2"/>
@@ -6727,8 +6754,8 @@
       <c r="AM47" s="2"/>
     </row>
     <row r="48" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C48" s="37"/>
-      <c r="D48" s="37"/>
+      <c r="C48" s="32"/>
+      <c r="D48" s="32"/>
       <c r="F48" s="2"/>
       <c r="G48" s="2"/>
       <c r="H48" s="2"/>
@@ -6765,8 +6792,8 @@
       <c r="AM48" s="2"/>
     </row>
     <row r="49" spans="3:39" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C49" s="37"/>
-      <c r="D49" s="37"/>
+      <c r="C49" s="32"/>
+      <c r="D49" s="32"/>
       <c r="F49" s="2"/>
       <c r="G49" s="2"/>
       <c r="H49" s="2"/>
@@ -6803,8 +6830,8 @@
       <c r="AM49" s="2"/>
     </row>
     <row r="50" spans="3:39" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C50" s="37"/>
-      <c r="D50" s="37"/>
+      <c r="C50" s="32"/>
+      <c r="D50" s="32"/>
       <c r="F50" s="2"/>
       <c r="G50" s="2"/>
       <c r="H50" s="2"/>
@@ -6841,8 +6868,8 @@
       <c r="AM50" s="2"/>
     </row>
     <row r="51" spans="3:39" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C51" s="37"/>
-      <c r="D51" s="37"/>
+      <c r="C51" s="32"/>
+      <c r="D51" s="32"/>
       <c r="F51" s="2"/>
       <c r="G51" s="2"/>
       <c r="H51" s="2"/>
@@ -6879,8 +6906,8 @@
       <c r="AM51" s="2"/>
     </row>
     <row r="52" spans="3:39" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C52" s="37"/>
-      <c r="D52" s="37"/>
+      <c r="C52" s="32"/>
+      <c r="D52" s="32"/>
       <c r="F52" s="2"/>
       <c r="G52" s="2"/>
       <c r="H52" s="2"/>
@@ -6917,8 +6944,8 @@
       <c r="AM52" s="2"/>
     </row>
     <row r="53" spans="3:39" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C53" s="37"/>
-      <c r="D53" s="37"/>
+      <c r="C53" s="32"/>
+      <c r="D53" s="32"/>
       <c r="F53" s="2"/>
       <c r="G53" s="2"/>
       <c r="H53" s="2"/>
@@ -6955,8 +6982,8 @@
       <c r="AM53" s="2"/>
     </row>
     <row r="54" spans="3:39" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C54" s="37"/>
-      <c r="D54" s="37"/>
+      <c r="C54" s="32"/>
+      <c r="D54" s="32"/>
       <c r="F54" s="2"/>
       <c r="G54" s="2"/>
       <c r="H54" s="2"/>
@@ -6993,8 +7020,8 @@
       <c r="AM54" s="2"/>
     </row>
     <row r="55" spans="3:39" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C55" s="37"/>
-      <c r="D55" s="37"/>
+      <c r="C55" s="32"/>
+      <c r="D55" s="32"/>
       <c r="F55" s="2"/>
       <c r="G55" s="2"/>
       <c r="H55" s="2"/>
@@ -7031,8 +7058,8 @@
       <c r="AM55" s="2"/>
     </row>
     <row r="56" spans="3:39" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C56" s="37"/>
-      <c r="D56" s="37"/>
+      <c r="C56" s="32"/>
+      <c r="D56" s="32"/>
       <c r="F56" s="2"/>
       <c r="G56" s="2"/>
       <c r="H56" s="2"/>
@@ -7069,8 +7096,8 @@
       <c r="AM56" s="2"/>
     </row>
     <row r="57" spans="3:39" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C57" s="37"/>
-      <c r="D57" s="37"/>
+      <c r="C57" s="32"/>
+      <c r="D57" s="32"/>
       <c r="F57" s="2"/>
       <c r="G57" s="2"/>
       <c r="H57" s="2"/>
@@ -7107,8 +7134,8 @@
       <c r="AM57" s="2"/>
     </row>
     <row r="58" spans="3:39" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C58" s="37"/>
-      <c r="D58" s="37"/>
+      <c r="C58" s="32"/>
+      <c r="D58" s="32"/>
       <c r="F58" s="2"/>
       <c r="G58" s="2"/>
       <c r="H58" s="2"/>
@@ -7145,8 +7172,8 @@
       <c r="AM58" s="2"/>
     </row>
     <row r="59" spans="3:39" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C59" s="37"/>
-      <c r="D59" s="37"/>
+      <c r="C59" s="32"/>
+      <c r="D59" s="32"/>
       <c r="F59" s="2"/>
       <c r="G59" s="2"/>
       <c r="H59" s="2"/>
@@ -7183,8 +7210,8 @@
       <c r="AM59" s="2"/>
     </row>
     <row r="60" spans="3:39" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C60" s="37"/>
-      <c r="D60" s="37"/>
+      <c r="C60" s="32"/>
+      <c r="D60" s="32"/>
       <c r="F60" s="2"/>
       <c r="G60" s="2"/>
       <c r="H60" s="2"/>
@@ -7221,8 +7248,8 @@
       <c r="AM60" s="2"/>
     </row>
     <row r="61" spans="3:39" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C61" s="37"/>
-      <c r="D61" s="37"/>
+      <c r="C61" s="32"/>
+      <c r="D61" s="32"/>
       <c r="F61" s="2"/>
       <c r="G61" s="2"/>
       <c r="H61" s="2"/>
@@ -7259,8 +7286,8 @@
       <c r="AM61" s="2"/>
     </row>
     <row r="62" spans="3:39" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C62" s="37"/>
-      <c r="D62" s="37"/>
+      <c r="C62" s="32"/>
+      <c r="D62" s="32"/>
       <c r="F62" s="2"/>
       <c r="G62" s="2"/>
       <c r="H62" s="2"/>
@@ -7297,8 +7324,8 @@
       <c r="AM62" s="2"/>
     </row>
     <row r="63" spans="3:39" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C63" s="37"/>
-      <c r="D63" s="37"/>
+      <c r="C63" s="32"/>
+      <c r="D63" s="32"/>
       <c r="F63" s="2"/>
       <c r="G63" s="2"/>
       <c r="H63" s="2"/>
@@ -7335,8 +7362,8 @@
       <c r="AM63" s="2"/>
     </row>
     <row r="64" spans="3:39" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C64" s="37"/>
-      <c r="D64" s="37"/>
+      <c r="C64" s="32"/>
+      <c r="D64" s="32"/>
       <c r="F64" s="2"/>
       <c r="G64" s="2"/>
       <c r="H64" s="2"/>
@@ -7373,8 +7400,8 @@
       <c r="AM64" s="2"/>
     </row>
     <row r="65" spans="3:39" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C65" s="37"/>
-      <c r="D65" s="37"/>
+      <c r="C65" s="32"/>
+      <c r="D65" s="32"/>
       <c r="F65" s="2"/>
       <c r="G65" s="2"/>
       <c r="H65" s="2"/>
@@ -7411,8 +7438,8 @@
       <c r="AM65" s="2"/>
     </row>
     <row r="66" spans="3:39" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C66" s="37"/>
-      <c r="D66" s="37"/>
+      <c r="C66" s="32"/>
+      <c r="D66" s="32"/>
       <c r="F66" s="2"/>
       <c r="G66" s="2"/>
       <c r="H66" s="2"/>
@@ -7449,8 +7476,8 @@
       <c r="AM66" s="2"/>
     </row>
     <row r="67" spans="3:39" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C67" s="37"/>
-      <c r="D67" s="37"/>
+      <c r="C67" s="32"/>
+      <c r="D67" s="32"/>
       <c r="F67" s="2"/>
       <c r="G67" s="2"/>
       <c r="H67" s="2"/>
@@ -7487,8 +7514,8 @@
       <c r="AM67" s="2"/>
     </row>
     <row r="68" spans="3:39" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C68" s="37"/>
-      <c r="D68" s="37"/>
+      <c r="C68" s="32"/>
+      <c r="D68" s="32"/>
       <c r="F68" s="2"/>
       <c r="G68" s="2"/>
       <c r="H68" s="2"/>
@@ -7525,8 +7552,8 @@
       <c r="AM68" s="2"/>
     </row>
     <row r="69" spans="3:39" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C69" s="37"/>
-      <c r="D69" s="37"/>
+      <c r="C69" s="32"/>
+      <c r="D69" s="32"/>
       <c r="F69" s="2"/>
       <c r="G69" s="2"/>
       <c r="H69" s="2"/>
@@ -7563,8 +7590,8 @@
       <c r="AM69" s="2"/>
     </row>
     <row r="70" spans="3:39" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C70" s="37"/>
-      <c r="D70" s="37"/>
+      <c r="C70" s="32"/>
+      <c r="D70" s="32"/>
       <c r="F70" s="2"/>
       <c r="G70" s="2"/>
       <c r="H70" s="2"/>
@@ -7601,8 +7628,8 @@
       <c r="AM70" s="2"/>
     </row>
     <row r="71" spans="3:39" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C71" s="37"/>
-      <c r="D71" s="37"/>
+      <c r="C71" s="32"/>
+      <c r="D71" s="32"/>
       <c r="F71" s="2"/>
       <c r="G71" s="2"/>
       <c r="H71" s="2"/>
@@ -7639,8 +7666,8 @@
       <c r="AM71" s="2"/>
     </row>
     <row r="72" spans="3:39" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C72" s="37"/>
-      <c r="D72" s="37"/>
+      <c r="C72" s="32"/>
+      <c r="D72" s="32"/>
       <c r="F72" s="2"/>
       <c r="G72" s="2"/>
       <c r="H72" s="2"/>
@@ -7677,8 +7704,8 @@
       <c r="AM72" s="2"/>
     </row>
     <row r="73" spans="3:39" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C73" s="37"/>
-      <c r="D73" s="37"/>
+      <c r="C73" s="32"/>
+      <c r="D73" s="32"/>
       <c r="F73" s="2"/>
       <c r="G73" s="2"/>
       <c r="H73" s="2"/>
@@ -7715,8 +7742,8 @@
       <c r="AM73" s="2"/>
     </row>
     <row r="74" spans="3:39" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C74" s="37"/>
-      <c r="D74" s="37"/>
+      <c r="C74" s="32"/>
+      <c r="D74" s="32"/>
       <c r="F74" s="2"/>
       <c r="G74" s="2"/>
       <c r="H74" s="2"/>
@@ -7753,8 +7780,8 @@
       <c r="AM74" s="2"/>
     </row>
     <row r="75" spans="3:39" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C75" s="37"/>
-      <c r="D75" s="37"/>
+      <c r="C75" s="32"/>
+      <c r="D75" s="32"/>
       <c r="F75" s="2"/>
       <c r="G75" s="2"/>
       <c r="H75" s="2"/>
@@ -7791,8 +7818,8 @@
       <c r="AM75" s="2"/>
     </row>
     <row r="76" spans="3:39" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C76" s="37"/>
-      <c r="D76" s="37"/>
+      <c r="C76" s="32"/>
+      <c r="D76" s="32"/>
       <c r="F76" s="2"/>
       <c r="G76" s="2"/>
       <c r="H76" s="2"/>
@@ -7829,8 +7856,8 @@
       <c r="AM76" s="2"/>
     </row>
     <row r="77" spans="3:39" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C77" s="37"/>
-      <c r="D77" s="37"/>
+      <c r="C77" s="32"/>
+      <c r="D77" s="32"/>
       <c r="F77" s="2"/>
       <c r="G77" s="2"/>
       <c r="H77" s="2"/>
@@ -7867,8 +7894,8 @@
       <c r="AM77" s="2"/>
     </row>
     <row r="78" spans="3:39" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C78" s="37"/>
-      <c r="D78" s="37"/>
+      <c r="C78" s="32"/>
+      <c r="D78" s="32"/>
       <c r="F78" s="2"/>
       <c r="G78" s="2"/>
       <c r="H78" s="2"/>
@@ -7905,8 +7932,8 @@
       <c r="AM78" s="2"/>
     </row>
     <row r="79" spans="3:39" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C79" s="37"/>
-      <c r="D79" s="37"/>
+      <c r="C79" s="32"/>
+      <c r="D79" s="32"/>
       <c r="F79" s="2"/>
       <c r="G79" s="2"/>
       <c r="H79" s="2"/>
@@ -7943,8 +7970,8 @@
       <c r="AM79" s="2"/>
     </row>
     <row r="80" spans="3:39" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C80" s="37"/>
-      <c r="D80" s="37"/>
+      <c r="C80" s="32"/>
+      <c r="D80" s="32"/>
       <c r="F80" s="2"/>
       <c r="G80" s="2"/>
       <c r="H80" s="2"/>
@@ -7981,8 +8008,8 @@
       <c r="AM80" s="2"/>
     </row>
     <row r="81" spans="3:39" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C81" s="37"/>
-      <c r="D81" s="37"/>
+      <c r="C81" s="32"/>
+      <c r="D81" s="32"/>
       <c r="F81" s="2"/>
       <c r="G81" s="2"/>
       <c r="H81" s="2"/>
@@ -8019,8 +8046,8 @@
       <c r="AM81" s="2"/>
     </row>
     <row r="82" spans="3:39" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C82" s="37"/>
-      <c r="D82" s="37"/>
+      <c r="C82" s="32"/>
+      <c r="D82" s="32"/>
       <c r="F82" s="2"/>
       <c r="G82" s="2"/>
       <c r="H82" s="2"/>
@@ -8057,8 +8084,8 @@
       <c r="AM82" s="2"/>
     </row>
     <row r="83" spans="3:39" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C83" s="37"/>
-      <c r="D83" s="37"/>
+      <c r="C83" s="32"/>
+      <c r="D83" s="32"/>
       <c r="F83" s="2"/>
       <c r="G83" s="2"/>
       <c r="H83" s="2"/>
@@ -8095,8 +8122,8 @@
       <c r="AM83" s="2"/>
     </row>
     <row r="84" spans="3:39" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C84" s="37"/>
-      <c r="D84" s="37"/>
+      <c r="C84" s="32"/>
+      <c r="D84" s="32"/>
       <c r="F84" s="2"/>
       <c r="G84" s="2"/>
       <c r="H84" s="2"/>
@@ -8133,8 +8160,8 @@
       <c r="AM84" s="2"/>
     </row>
     <row r="85" spans="3:39" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C85" s="37"/>
-      <c r="D85" s="37"/>
+      <c r="C85" s="32"/>
+      <c r="D85" s="32"/>
       <c r="F85" s="2"/>
       <c r="G85" s="2"/>
       <c r="H85" s="2"/>
@@ -8171,8 +8198,8 @@
       <c r="AM85" s="2"/>
     </row>
     <row r="86" spans="3:39" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C86" s="37"/>
-      <c r="D86" s="37"/>
+      <c r="C86" s="32"/>
+      <c r="D86" s="32"/>
       <c r="F86" s="2"/>
       <c r="G86" s="2"/>
       <c r="H86" s="2"/>
@@ -41131,8 +41158,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:G1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -41146,32 +41173,32 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C2" s="75" t="s">
-        <v>102</v>
+      <c r="C2" s="72" t="s">
+        <v>101</v>
       </c>
-      <c r="D2" s="76"/>
-      <c r="E2" s="76"/>
-      <c r="F2" s="76"/>
-      <c r="G2" s="77"/>
+      <c r="D2" s="73"/>
+      <c r="E2" s="73"/>
+      <c r="F2" s="73"/>
+      <c r="G2" s="74"/>
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="24" t="s">
+      <c r="C3" s="19" t="s">
+        <v>102</v>
+      </c>
+      <c r="D3" s="19" t="s">
         <v>103</v>
       </c>
-      <c r="D3" s="24" t="s">
+      <c r="E3" s="19" t="s">
         <v>104</v>
       </c>
-      <c r="E3" s="24" t="s">
+      <c r="F3" s="19" t="s">
         <v>105</v>
       </c>
-      <c r="F3" s="24" t="s">
+      <c r="G3" s="19" t="s">
         <v>106</v>
-      </c>
-      <c r="G3" s="24" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.25">
@@ -41179,18 +41206,18 @@
         <v>1</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D4" s="3">
         <v>1</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
-      <c r="F4" s="25">
+      <c r="F4" s="20">
         <v>200000</v>
       </c>
-      <c r="G4" s="26">
+      <c r="G4" s="21">
         <f t="shared" ref="G4:G14" si="0">D4*F4</f>
         <v>200000</v>
       </c>
@@ -41200,18 +41227,18 @@
         <v>2</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D5" s="3">
         <v>3</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
-      <c r="F5" s="25">
+      <c r="F5" s="20">
         <v>50000</v>
       </c>
-      <c r="G5" s="26">
+      <c r="G5" s="21">
         <f t="shared" si="0"/>
         <v>150000</v>
       </c>
@@ -41221,18 +41248,18 @@
         <v>3</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D6" s="3">
         <v>1</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
-      <c r="F6" s="25">
+      <c r="F6" s="20">
         <v>100000</v>
       </c>
-      <c r="G6" s="26">
+      <c r="G6" s="21">
         <f t="shared" si="0"/>
         <v>100000</v>
       </c>
@@ -41242,18 +41269,18 @@
         <v>4</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D7" s="4">
         <v>1</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
-      <c r="F7" s="25">
+      <c r="F7" s="20">
         <v>100000</v>
       </c>
-      <c r="G7" s="26">
+      <c r="G7" s="21">
         <f t="shared" si="0"/>
         <v>100000</v>
       </c>
@@ -41263,18 +41290,18 @@
         <v>5</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D8" s="4">
         <v>1</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
-      <c r="F8" s="26">
+      <c r="F8" s="21">
         <v>100000</v>
       </c>
-      <c r="G8" s="26">
+      <c r="G8" s="21">
         <f t="shared" si="0"/>
         <v>100000</v>
       </c>
@@ -41284,18 +41311,18 @@
         <v>6</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D9" s="3">
         <v>1</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
-      <c r="F9" s="26">
+      <c r="F9" s="21">
         <v>100000</v>
       </c>
-      <c r="G9" s="26">
+      <c r="G9" s="21">
         <f t="shared" si="0"/>
         <v>100000</v>
       </c>
@@ -41305,18 +41332,18 @@
         <v>7</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D10" s="3">
         <v>1</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
-      <c r="F10" s="26">
+      <c r="F10" s="21">
         <v>100000</v>
       </c>
-      <c r="G10" s="26">
+      <c r="G10" s="21">
         <f t="shared" si="0"/>
         <v>100000</v>
       </c>
@@ -41326,18 +41353,18 @@
         <v>8</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D11" s="4">
         <v>1</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
-      <c r="F11" s="26">
+      <c r="F11" s="21">
         <v>100000</v>
       </c>
-      <c r="G11" s="26">
+      <c r="G11" s="21">
         <f t="shared" si="0"/>
         <v>100000</v>
       </c>
@@ -41347,18 +41374,18 @@
         <v>9</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D12" s="4">
         <v>1</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
-      <c r="F12" s="25">
+      <c r="F12" s="20">
         <v>50000</v>
       </c>
-      <c r="G12" s="26">
+      <c r="G12" s="21">
         <f t="shared" si="0"/>
         <v>50000</v>
       </c>
@@ -41368,18 +41395,18 @@
         <v>10</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D13" s="4">
         <v>1</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
-      <c r="F13" s="25">
+      <c r="F13" s="20">
         <v>100000</v>
       </c>
-      <c r="G13" s="26">
+      <c r="G13" s="21">
         <f t="shared" si="0"/>
         <v>100000</v>
       </c>
@@ -41388,29 +41415,29 @@
       <c r="B14" s="1">
         <v>11</v>
       </c>
-      <c r="C14" s="38" t="s">
+      <c r="C14" s="33" t="s">
+        <v>121</v>
+      </c>
+      <c r="D14" s="33">
+        <v>3</v>
+      </c>
+      <c r="E14" s="33" t="s">
         <v>122</v>
       </c>
-      <c r="D14" s="38">
-        <v>3</v>
-      </c>
-      <c r="E14" s="38" t="s">
-        <v>123</v>
-      </c>
-      <c r="F14" s="25">
+      <c r="F14" s="20">
         <v>50000</v>
       </c>
-      <c r="G14" s="26">
+      <c r="G14" s="21">
         <f t="shared" si="0"/>
         <v>150000</v>
       </c>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C15" s="83"/>
-      <c r="D15" s="76"/>
-      <c r="E15" s="76"/>
-      <c r="F15" s="77"/>
-      <c r="G15" s="39">
+      <c r="C15" s="80"/>
+      <c r="D15" s="73"/>
+      <c r="E15" s="73"/>
+      <c r="F15" s="74"/>
+      <c r="G15" s="34">
         <f>SUM(G4:G13)</f>
         <v>1100000</v>
       </c>
@@ -42407,10 +42434,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C2:E1000"/>
+  <dimension ref="C2:H1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -42421,77 +42448,84 @@
     <col min="6" max="26" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C2" s="75" t="s">
+    <row r="2" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C2" s="72" t="s">
+        <v>123</v>
+      </c>
+      <c r="D2" s="73"/>
+      <c r="E2" s="74"/>
+    </row>
+    <row r="3" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C3" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="19" t="s">
         <v>124</v>
       </c>
-      <c r="D2" s="76"/>
-      <c r="E2" s="77"/>
-    </row>
-    <row r="3" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C3" s="40" t="s">
-        <v>5</v>
+      <c r="E3" s="19" t="s">
+        <v>106</v>
       </c>
-      <c r="D3" s="24" t="s">
-        <v>125</v>
-      </c>
-      <c r="E3" s="24" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="4" spans="3:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C4" s="5">
         <v>1</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
-      <c r="E4" s="25">
-        <v>14890920</v>
+      <c r="E4" s="20">
+        <v>16165140</v>
       </c>
     </row>
-    <row r="5" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C5" s="5">
         <v>2</v>
       </c>
       <c r="D5" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="E5" s="20">
+        <v>1100000</v>
+      </c>
+    </row>
+    <row r="6" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C6" s="72" t="s">
         <v>126</v>
       </c>
-      <c r="E5" s="25">
-        <v>1100000</v>
+      <c r="D6" s="74"/>
+      <c r="E6" s="34">
+        <f>SUM(E4:E5)</f>
+        <v>17265140</v>
       </c>
     </row>
-    <row r="6" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C6" s="75" t="s">
-        <v>127</v>
-      </c>
-      <c r="D6" s="77"/>
-      <c r="E6" s="39">
-        <f>SUM(E4:E5)</f>
-        <v>15990920</v>
-      </c>
-    </row>
-    <row r="7" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C7" s="5">
         <v>3</v>
       </c>
       <c r="D7" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="E7" s="21">
+        <f>10/100*E6</f>
+        <v>1726514</v>
+      </c>
+      <c r="H7" s="17"/>
+    </row>
+    <row r="8" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C8" s="72" t="s">
         <v>128</v>
       </c>
-      <c r="E7" s="26">
-        <f>10/100*E6</f>
-        <v>1599092</v>
+      <c r="D8" s="74"/>
+      <c r="E8" s="34">
+        <f>SUM(E6:E7)</f>
+        <v>18991654</v>
       </c>
     </row>
-    <row r="8" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C8" s="75" t="s">
-        <v>129</v>
-      </c>
-      <c r="D8" s="77"/>
-      <c r="E8" s="39">
-        <f>SUM(E6:E7)</f>
-        <v>17590012</v>
-      </c>
+    <row r="9" spans="3:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H9" s="68"/>
+    </row>
+    <row r="10" spans="3:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H10" s="68"/>
     </row>
     <row r="21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
